--- a/SO SACH - LA/CONG NO/CONG NO 2015/cong no VL 15.xlsx
+++ b/SO SACH - LA/CONG NO/CONG NO 2015/cong no VL 15.xlsx
@@ -22,7 +22,7 @@
   <definedNames>
     <definedName name="_xlnm._FilterDatabase" localSheetId="6" hidden="1">'ANH KIM'!$A$11:$J$61</definedName>
     <definedName name="_xlnm._FilterDatabase" localSheetId="3" hidden="1">'NGHỊ HÒA'!$A$11:$L$77</definedName>
-    <definedName name="_xlnm._FilterDatabase" localSheetId="2" hidden="1">'TẤN DŨNG'!$A$11:$K$188</definedName>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="2" hidden="1">'TẤN DŨNG'!$A$11:$K$195</definedName>
     <definedName name="_xlnm._FilterDatabase" localSheetId="1" hidden="1">'THÀNH PHÚ'!$A$11:$K$11</definedName>
   </definedNames>
   <calcPr calcId="124519"/>
@@ -30,7 +30,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1527" uniqueCount="283">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1538" uniqueCount="283">
   <si>
     <t>Ngày nhập</t>
   </si>
@@ -2453,27 +2453,27 @@
         <v>11</v>
       </c>
       <c r="C5" s="164">
-        <f>'TẤN DŨNG'!$J$188</f>
-        <v>42082640</v>
+        <f>'TẤN DŨNG'!$J$195</f>
+        <v>59990640</v>
       </c>
     </row>
     <row r="6" spans="1:4" s="85" customFormat="1" ht="21.75" customHeight="1">
-      <c r="A6" s="96">
+      <c r="A6" s="96" t="str">
         <f t="array" ref="A6">IF(C6&lt;&gt;0,SUM(($C$4:C6&lt;&gt;0)*1),"")</f>
-        <v>3</v>
+        <v/>
       </c>
       <c r="B6" s="87" t="s">
         <v>8</v>
       </c>
       <c r="C6" s="164">
         <f>'NGHỊ HÒA'!$K$77</f>
-        <v>34645600</v>
+        <v>0</v>
       </c>
     </row>
     <row r="7" spans="1:4" s="85" customFormat="1" ht="21.75" customHeight="1">
       <c r="A7" s="96">
         <f t="array" ref="A7">IF(C7&lt;&gt;0,SUM(($C$4:C7&lt;&gt;0)*1),"")</f>
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="B7" s="88" t="s">
         <v>90</v>
@@ -2487,21 +2487,21 @@
     <row r="8" spans="1:4" s="85" customFormat="1" ht="21.75" customHeight="1">
       <c r="A8" s="96">
         <f t="array" ref="A8">IF(C8&lt;&gt;0,SUM(($C$4:C8&lt;&gt;0)*1),"")</f>
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="B8" s="88" t="s">
         <v>96</v>
       </c>
       <c r="C8" s="164">
         <f>'MÈ ĐƯỞNG'!$I$262</f>
-        <v>168149533</v>
+        <v>108149533</v>
       </c>
       <c r="D8" s="100"/>
     </row>
     <row r="9" spans="1:4" s="85" customFormat="1" ht="21.75" customHeight="1">
       <c r="A9" s="96">
         <f t="array" ref="A9">IF(C9&lt;&gt;0,SUM(($C$4:C9&lt;&gt;0)*1),"")</f>
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="B9" s="88" t="s">
         <v>268</v>
@@ -2567,7 +2567,7 @@
       <c r="B15" s="167"/>
       <c r="C15" s="166">
         <f>SUM(C4:C14)</f>
-        <v>363592273</v>
+        <v>286854673</v>
       </c>
     </row>
     <row r="16" spans="1:4" ht="21.75" customHeight="1"/>
@@ -4130,12 +4130,12 @@
   <sheetPr enableFormatConditionsCalculation="0">
     <tabColor indexed="31"/>
   </sheetPr>
-  <dimension ref="A1:K219"/>
+  <dimension ref="A1:K226"/>
   <sheetViews>
     <sheetView topLeftCell="A5" zoomScale="83" workbookViewId="0">
-      <pane ySplit="7" topLeftCell="A164" activePane="bottomLeft" state="frozen"/>
+      <pane ySplit="7" topLeftCell="A170" activePane="bottomLeft" state="frozen"/>
       <selection activeCell="A5" sqref="A5"/>
-      <selection pane="bottomLeft" activeCell="I184" sqref="I184"/>
+      <selection pane="bottomLeft" activeCell="D190" sqref="D190"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15.75"/>
@@ -4410,7 +4410,7 @@
         <v>16250</v>
       </c>
       <c r="G15" s="102">
-        <f t="shared" ref="G15:G187" si="2">F15*10%</f>
+        <f t="shared" ref="G15:G178" si="2">F15*10%</f>
         <v>1625</v>
       </c>
       <c r="H15" s="11">
@@ -10039,68 +10039,100 @@
       <c r="K183" s="125"/>
     </row>
     <row r="184" spans="1:11" ht="21" customHeight="1">
-      <c r="A184" s="15"/>
-      <c r="B184" s="30"/>
-      <c r="C184" s="13"/>
-      <c r="D184" s="13"/>
-      <c r="E184" s="29"/>
-      <c r="F184" s="28"/>
+      <c r="A184" s="15">
+        <v>42354</v>
+      </c>
+      <c r="B184" s="23" t="s">
+        <v>57</v>
+      </c>
+      <c r="C184" s="13" t="s">
+        <v>271</v>
+      </c>
+      <c r="D184" s="13" t="s">
+        <v>270</v>
+      </c>
+      <c r="E184" s="29">
+        <v>350</v>
+      </c>
+      <c r="F184" s="28">
+        <v>12300</v>
+      </c>
       <c r="G184" s="102">
         <f t="shared" si="29"/>
-        <v>0</v>
+        <v>1230</v>
       </c>
       <c r="H184" s="11">
         <f t="shared" si="30"/>
-        <v>0</v>
+        <v>4735500</v>
       </c>
       <c r="I184" s="28"/>
       <c r="J184" s="28">
         <f t="shared" si="31"/>
-        <v>0</v>
+        <v>46818140</v>
       </c>
       <c r="K184" s="28"/>
     </row>
     <row r="185" spans="1:11" ht="21" customHeight="1">
       <c r="A185" s="15"/>
-      <c r="B185" s="30"/>
-      <c r="C185" s="13"/>
-      <c r="D185" s="13"/>
-      <c r="E185" s="29"/>
-      <c r="F185" s="28"/>
+      <c r="B185" s="23" t="s">
+        <v>57</v>
+      </c>
+      <c r="C185" s="13" t="s">
+        <v>271</v>
+      </c>
+      <c r="D185" s="13" t="s">
+        <v>18</v>
+      </c>
+      <c r="E185" s="29">
+        <v>800</v>
+      </c>
+      <c r="F185" s="28">
+        <v>12000</v>
+      </c>
       <c r="G185" s="102">
         <f t="shared" si="29"/>
-        <v>0</v>
+        <v>1200</v>
       </c>
       <c r="H185" s="11">
         <f t="shared" si="30"/>
-        <v>0</v>
+        <v>10560000</v>
       </c>
       <c r="I185" s="28"/>
       <c r="J185" s="28">
         <f t="shared" si="31"/>
-        <v>0</v>
+        <v>57378140</v>
       </c>
       <c r="K185" s="28"/>
     </row>
     <row r="186" spans="1:11" ht="21" customHeight="1">
       <c r="A186" s="15"/>
-      <c r="B186" s="30"/>
-      <c r="C186" s="13"/>
-      <c r="D186" s="13"/>
-      <c r="E186" s="29"/>
-      <c r="F186" s="28"/>
+      <c r="B186" s="23" t="s">
+        <v>57</v>
+      </c>
+      <c r="C186" s="13" t="s">
+        <v>271</v>
+      </c>
+      <c r="D186" s="13" t="s">
+        <v>276</v>
+      </c>
+      <c r="E186" s="29">
+        <v>250</v>
+      </c>
+      <c r="F186" s="28">
+        <v>9500</v>
+      </c>
       <c r="G186" s="102">
         <f t="shared" si="29"/>
-        <v>0</v>
+        <v>950</v>
       </c>
       <c r="H186" s="11">
         <f t="shared" si="30"/>
-        <v>0</v>
+        <v>2612500</v>
       </c>
       <c r="I186" s="28"/>
       <c r="J186" s="28">
         <f t="shared" si="31"/>
-        <v>0</v>
+        <v>59990640</v>
       </c>
       <c r="K186" s="28"/>
     </row>
@@ -10112,124 +10144,271 @@
       <c r="E187" s="29"/>
       <c r="F187" s="28"/>
       <c r="G187" s="102">
-        <f t="shared" si="2"/>
+        <f t="shared" ref="G187:G194" si="32">F187*10%</f>
         <v>0</v>
       </c>
       <c r="H187" s="11">
-        <f>IF(B187&lt;&gt;"",(E187*(G187+F187)),0)</f>
+        <f t="shared" ref="H187:H194" si="33">IF(B187&lt;&gt;"",(E187*(G187+F187)),0)</f>
         <v>0</v>
       </c>
       <c r="I187" s="28"/>
       <c r="J187" s="28">
-        <f>IF(B187&lt;&gt;"",J178+H187-I187,0)</f>
+        <f t="shared" ref="J187:J194" si="34">IF(B187&lt;&gt;"",J186+H187-I187,0)</f>
         <v>0</v>
       </c>
       <c r="K187" s="28"/>
     </row>
-    <row r="188" spans="1:11" s="18" customFormat="1" ht="21" customHeight="1">
-      <c r="A188" s="176" t="s">
+    <row r="188" spans="1:11" ht="21" customHeight="1">
+      <c r="A188" s="15"/>
+      <c r="B188" s="30"/>
+      <c r="C188" s="13"/>
+      <c r="D188" s="13"/>
+      <c r="E188" s="29"/>
+      <c r="F188" s="28"/>
+      <c r="G188" s="102">
+        <f t="shared" si="32"/>
+        <v>0</v>
+      </c>
+      <c r="H188" s="11">
+        <f t="shared" si="33"/>
+        <v>0</v>
+      </c>
+      <c r="I188" s="28"/>
+      <c r="J188" s="28">
+        <f t="shared" si="34"/>
+        <v>0</v>
+      </c>
+      <c r="K188" s="28"/>
+    </row>
+    <row r="189" spans="1:11" ht="21" customHeight="1">
+      <c r="A189" s="15"/>
+      <c r="B189" s="30"/>
+      <c r="C189" s="13"/>
+      <c r="D189" s="13"/>
+      <c r="E189" s="29"/>
+      <c r="F189" s="28"/>
+      <c r="G189" s="102">
+        <f t="shared" si="32"/>
+        <v>0</v>
+      </c>
+      <c r="H189" s="11">
+        <f t="shared" si="33"/>
+        <v>0</v>
+      </c>
+      <c r="I189" s="28"/>
+      <c r="J189" s="28">
+        <f t="shared" si="34"/>
+        <v>0</v>
+      </c>
+      <c r="K189" s="28"/>
+    </row>
+    <row r="190" spans="1:11" ht="21" customHeight="1">
+      <c r="A190" s="15"/>
+      <c r="B190" s="30"/>
+      <c r="C190" s="13"/>
+      <c r="D190" s="13"/>
+      <c r="E190" s="29"/>
+      <c r="F190" s="28"/>
+      <c r="G190" s="102">
+        <f t="shared" si="32"/>
+        <v>0</v>
+      </c>
+      <c r="H190" s="11">
+        <f t="shared" si="33"/>
+        <v>0</v>
+      </c>
+      <c r="I190" s="28"/>
+      <c r="J190" s="28">
+        <f t="shared" si="34"/>
+        <v>0</v>
+      </c>
+      <c r="K190" s="28"/>
+    </row>
+    <row r="191" spans="1:11" ht="21" customHeight="1">
+      <c r="A191" s="15"/>
+      <c r="B191" s="30"/>
+      <c r="C191" s="13"/>
+      <c r="D191" s="13"/>
+      <c r="E191" s="29"/>
+      <c r="F191" s="28"/>
+      <c r="G191" s="102">
+        <f t="shared" si="32"/>
+        <v>0</v>
+      </c>
+      <c r="H191" s="11">
+        <f t="shared" si="33"/>
+        <v>0</v>
+      </c>
+      <c r="I191" s="28"/>
+      <c r="J191" s="28">
+        <f t="shared" si="34"/>
+        <v>0</v>
+      </c>
+      <c r="K191" s="28"/>
+    </row>
+    <row r="192" spans="1:11" ht="21" customHeight="1">
+      <c r="A192" s="15"/>
+      <c r="B192" s="30"/>
+      <c r="C192" s="13"/>
+      <c r="D192" s="13"/>
+      <c r="E192" s="29"/>
+      <c r="F192" s="28"/>
+      <c r="G192" s="102">
+        <f t="shared" si="32"/>
+        <v>0</v>
+      </c>
+      <c r="H192" s="11">
+        <f t="shared" si="33"/>
+        <v>0</v>
+      </c>
+      <c r="I192" s="28"/>
+      <c r="J192" s="28">
+        <f t="shared" si="34"/>
+        <v>0</v>
+      </c>
+      <c r="K192" s="28"/>
+    </row>
+    <row r="193" spans="1:11" ht="21" customHeight="1">
+      <c r="A193" s="15"/>
+      <c r="B193" s="30"/>
+      <c r="C193" s="13"/>
+      <c r="D193" s="13"/>
+      <c r="E193" s="29"/>
+      <c r="F193" s="28"/>
+      <c r="G193" s="102">
+        <f t="shared" si="32"/>
+        <v>0</v>
+      </c>
+      <c r="H193" s="11">
+        <f t="shared" si="33"/>
+        <v>0</v>
+      </c>
+      <c r="I193" s="28"/>
+      <c r="J193" s="28">
+        <f t="shared" si="34"/>
+        <v>0</v>
+      </c>
+      <c r="K193" s="28"/>
+    </row>
+    <row r="194" spans="1:11" ht="21" customHeight="1">
+      <c r="A194" s="15"/>
+      <c r="B194" s="30"/>
+      <c r="C194" s="13"/>
+      <c r="D194" s="13"/>
+      <c r="E194" s="29"/>
+      <c r="F194" s="28"/>
+      <c r="G194" s="102">
+        <f t="shared" si="32"/>
+        <v>0</v>
+      </c>
+      <c r="H194" s="11">
+        <f t="shared" si="33"/>
+        <v>0</v>
+      </c>
+      <c r="I194" s="28"/>
+      <c r="J194" s="28">
+        <f t="shared" si="34"/>
+        <v>0</v>
+      </c>
+      <c r="K194" s="28"/>
+    </row>
+    <row r="195" spans="1:11" s="18" customFormat="1" ht="21" customHeight="1">
+      <c r="A195" s="176" t="s">
         <v>40</v>
       </c>
-      <c r="B188" s="176"/>
-      <c r="C188" s="176"/>
-      <c r="D188" s="176"/>
-      <c r="E188" s="176"/>
-      <c r="F188" s="176"/>
-      <c r="G188" s="17"/>
-      <c r="H188" s="53">
-        <f>SUM(H13:H187)</f>
-        <v>1464883750</v>
-      </c>
-      <c r="I188" s="53">
-        <f>K10+SUM(I13:I187)</f>
+      <c r="B195" s="176"/>
+      <c r="C195" s="176"/>
+      <c r="D195" s="176"/>
+      <c r="E195" s="176"/>
+      <c r="F195" s="176"/>
+      <c r="G195" s="17"/>
+      <c r="H195" s="53">
+        <f>SUM(H13:H194)</f>
+        <v>1482791750</v>
+      </c>
+      <c r="I195" s="53">
+        <f>K10+SUM(I13:I194)</f>
         <v>1511000000</v>
       </c>
-      <c r="J188" s="17">
-        <f>J12+H188-I188</f>
-        <v>42082640</v>
-      </c>
-      <c r="K188" s="17"/>
-    </row>
-    <row r="189" spans="1:11" ht="21" customHeight="1">
-      <c r="D189" s="4"/>
-      <c r="E189" s="4"/>
-      <c r="F189" s="5"/>
-      <c r="G189" s="5"/>
-      <c r="I189" s="4"/>
-      <c r="J189" s="4"/>
-    </row>
-    <row r="190" spans="1:11" ht="21" customHeight="1">
-      <c r="B190" s="54" t="s">
+      <c r="J195" s="17">
+        <f>J12+H195-I195</f>
+        <v>59990640</v>
+      </c>
+      <c r="K195" s="17"/>
+    </row>
+    <row r="196" spans="1:11" ht="21" customHeight="1">
+      <c r="D196" s="4"/>
+      <c r="E196" s="4"/>
+      <c r="F196" s="5"/>
+      <c r="G196" s="5"/>
+      <c r="I196" s="4"/>
+      <c r="J196" s="4"/>
+    </row>
+    <row r="197" spans="1:11" ht="21" customHeight="1">
+      <c r="B197" s="54" t="s">
         <v>41</v>
       </c>
-      <c r="D190" s="4"/>
-      <c r="E190" s="168">
-        <f>J188</f>
-        <v>42082640</v>
-      </c>
-      <c r="F190" s="168"/>
-      <c r="G190" s="101"/>
-      <c r="H190" s="55" t="s">
+      <c r="D197" s="4"/>
+      <c r="E197" s="168">
+        <f>J195</f>
+        <v>59990640</v>
+      </c>
+      <c r="F197" s="168"/>
+      <c r="G197" s="101"/>
+      <c r="H197" s="55" t="s">
         <v>43</v>
       </c>
-      <c r="I190" s="4">
+      <c r="I197" s="4">
         <f>E171*F171</f>
         <v>71540000</v>
       </c>
-      <c r="J190" s="4"/>
-    </row>
-    <row r="191" spans="1:11" ht="21" customHeight="1">
-      <c r="B191" s="54" t="s">
+      <c r="J197" s="4"/>
+    </row>
+    <row r="198" spans="1:11" ht="21" customHeight="1">
+      <c r="B198" s="54" t="s">
         <v>42</v>
       </c>
-      <c r="C191" s="56" t="str">
-        <f>[1]!VND(E190, TRUE)</f>
-        <v>Bốn mươi hai triệu, không trăm tám mươi hai ngàn, sáu trăm bốn mươi đồng</v>
-      </c>
-      <c r="D191" s="4"/>
-      <c r="E191" s="4"/>
-      <c r="F191" s="5"/>
-      <c r="G191" s="5"/>
-      <c r="I191" s="4"/>
-      <c r="J191" s="4"/>
-    </row>
-    <row r="192" spans="1:11" ht="21" customHeight="1">
-      <c r="D192" s="4"/>
-      <c r="E192" s="4"/>
-      <c r="F192" s="5"/>
-      <c r="G192" s="5"/>
-      <c r="I192" s="4"/>
-      <c r="J192" s="4"/>
-    </row>
-    <row r="193" spans="1:10" ht="21" customHeight="1">
-      <c r="A193" s="4" t="s">
+      <c r="C198" s="56" t="str">
+        <f>[1]!VND(E197, TRUE)</f>
+        <v>Năm mươi chín triệu, chín trăm chín mươi ngàn, sáu trăm bốn mươi đồng</v>
+      </c>
+      <c r="D198" s="4"/>
+      <c r="E198" s="4"/>
+      <c r="F198" s="5"/>
+      <c r="G198" s="5"/>
+      <c r="I198" s="4"/>
+      <c r="J198" s="4"/>
+    </row>
+    <row r="199" spans="1:11" ht="21" customHeight="1">
+      <c r="D199" s="4"/>
+      <c r="E199" s="4"/>
+      <c r="F199" s="5"/>
+      <c r="G199" s="5"/>
+      <c r="I199" s="4"/>
+      <c r="J199" s="4"/>
+    </row>
+    <row r="200" spans="1:11" ht="21" customHeight="1">
+      <c r="A200" s="4" t="s">
         <v>47</v>
       </c>
-      <c r="D193" s="4"/>
-      <c r="E193" s="4"/>
-      <c r="F193" s="5"/>
-      <c r="G193" s="5"/>
-      <c r="H193" s="4" t="s">
+      <c r="D200" s="4"/>
+      <c r="E200" s="4"/>
+      <c r="F200" s="5"/>
+      <c r="G200" s="5"/>
+      <c r="H200" s="4" t="s">
         <v>44</v>
       </c>
-      <c r="I193" s="4"/>
-      <c r="J193" s="4"/>
-    </row>
-    <row r="194" spans="1:10" ht="21" customHeight="1"/>
-    <row r="195" spans="1:10" ht="21" customHeight="1"/>
-    <row r="196" spans="1:10" ht="21" customHeight="1"/>
-    <row r="197" spans="1:10" ht="21" customHeight="1"/>
-    <row r="198" spans="1:10" ht="21" customHeight="1"/>
-    <row r="199" spans="1:10" ht="21" customHeight="1"/>
-    <row r="200" spans="1:10" ht="21" customHeight="1"/>
-    <row r="201" spans="1:10" ht="21" customHeight="1"/>
-    <row r="202" spans="1:10" ht="21" customHeight="1"/>
-    <row r="203" spans="1:10" ht="21" customHeight="1"/>
-    <row r="204" spans="1:10" ht="21" customHeight="1"/>
-    <row r="205" spans="1:10" ht="21" customHeight="1"/>
-    <row r="206" spans="1:10" ht="21" customHeight="1"/>
-    <row r="207" spans="1:10" ht="21" customHeight="1"/>
-    <row r="208" spans="1:10" ht="21" customHeight="1"/>
+      <c r="I200" s="4"/>
+      <c r="J200" s="4"/>
+    </row>
+    <row r="201" spans="1:11" ht="21" customHeight="1"/>
+    <row r="202" spans="1:11" ht="21" customHeight="1"/>
+    <row r="203" spans="1:11" ht="21" customHeight="1"/>
+    <row r="204" spans="1:11" ht="21" customHeight="1"/>
+    <row r="205" spans="1:11" ht="21" customHeight="1"/>
+    <row r="206" spans="1:11" ht="21" customHeight="1"/>
+    <row r="207" spans="1:11" ht="21" customHeight="1"/>
+    <row r="208" spans="1:11" ht="21" customHeight="1"/>
     <row r="209" ht="21" customHeight="1"/>
     <row r="210" ht="21" customHeight="1"/>
     <row r="211" ht="21" customHeight="1"/>
@@ -10241,19 +10420,26 @@
     <row r="217" ht="21" customHeight="1"/>
     <row r="218" ht="21" customHeight="1"/>
     <row r="219" ht="21" customHeight="1"/>
+    <row r="220" ht="21" customHeight="1"/>
+    <row r="221" ht="21" customHeight="1"/>
+    <row r="222" ht="21" customHeight="1"/>
+    <row r="223" ht="21" customHeight="1"/>
+    <row r="224" ht="21" customHeight="1"/>
+    <row r="225" ht="21" customHeight="1"/>
+    <row r="226" ht="21" customHeight="1"/>
   </sheetData>
-  <autoFilter ref="A11:K188"/>
+  <autoFilter ref="A11:K195"/>
   <mergeCells count="10">
+    <mergeCell ref="E197:F197"/>
+    <mergeCell ref="A8:E8"/>
+    <mergeCell ref="A12:I12"/>
+    <mergeCell ref="A5:J5"/>
+    <mergeCell ref="A6:J6"/>
     <mergeCell ref="A1:C1"/>
     <mergeCell ref="A2:E2"/>
     <mergeCell ref="A3:B3"/>
     <mergeCell ref="C3:D3"/>
-    <mergeCell ref="A188:F188"/>
-    <mergeCell ref="E190:F190"/>
-    <mergeCell ref="A8:E8"/>
-    <mergeCell ref="A12:I12"/>
-    <mergeCell ref="A5:J5"/>
-    <mergeCell ref="A6:J6"/>
+    <mergeCell ref="A195:F195"/>
   </mergeCells>
   <phoneticPr fontId="5" type="noConversion"/>
   <pageMargins left="0.4" right="0.15" top="0.51" bottom="0.52" header="0.5" footer="0.5"/>
@@ -10272,7 +10458,7 @@
     <sheetView topLeftCell="A5" zoomScale="95" workbookViewId="0">
       <pane ySplit="7" topLeftCell="A54" activePane="bottomLeft" state="frozen"/>
       <selection activeCell="A5" sqref="A5"/>
-      <selection pane="bottomLeft" activeCell="D64" sqref="D64:D68"/>
+      <selection pane="bottomLeft" activeCell="A70" sqref="A70"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15.75"/>
@@ -12437,24 +12623,28 @@
       <c r="L68" s="30"/>
     </row>
     <row r="69" spans="1:12" ht="20.25" customHeight="1">
-      <c r="A69" s="72"/>
-      <c r="B69" s="23"/>
-      <c r="C69" s="72"/>
-      <c r="D69" s="15"/>
-      <c r="E69" s="15"/>
-      <c r="F69" s="16"/>
-      <c r="G69" s="16"/>
-      <c r="H69" s="21">
-        <f t="shared" si="12"/>
-        <v>0</v>
-      </c>
+      <c r="A69" s="70">
+        <v>42363</v>
+      </c>
+      <c r="B69" s="30" t="s">
+        <v>6</v>
+      </c>
+      <c r="C69" s="70"/>
+      <c r="D69" s="12"/>
+      <c r="E69" s="12"/>
+      <c r="F69" s="11"/>
+      <c r="G69" s="11"/>
+      <c r="H69" s="21"/>
       <c r="I69" s="21">
-        <f t="shared" si="13"/>
-        <v>0</v>
-      </c>
-      <c r="J69" s="11"/>
+        <f>IF(B69&lt;&gt;"",F69*(G69+H69),0)</f>
+        <v>0</v>
+      </c>
+      <c r="J69" s="11">
+        <f>K68</f>
+        <v>34645600</v>
+      </c>
       <c r="K69" s="71">
-        <f t="shared" si="14"/>
+        <f>IF(B69&lt;&gt;"",K68+I69-J69,0)</f>
         <v>0</v>
       </c>
       <c r="L69" s="30"/>
@@ -12637,11 +12827,11 @@
       </c>
       <c r="J77" s="17">
         <f>SUM(J13:J76)</f>
-        <v>398362365</v>
+        <v>433007965</v>
       </c>
       <c r="K77" s="17">
         <f>K12+I77-J77</f>
-        <v>34645600</v>
+        <v>0</v>
       </c>
       <c r="L77" s="115"/>
     </row>
@@ -12665,7 +12855,7 @@
       <c r="D79" s="4"/>
       <c r="E79" s="168">
         <f>K77</f>
-        <v>34645600</v>
+        <v>0</v>
       </c>
       <c r="F79" s="168"/>
       <c r="G79" s="55" t="s">
@@ -12681,7 +12871,7 @@
       <c r="C80" s="56"/>
       <c r="D80" s="73" t="str">
         <f>[1]!VND(E79, TRUE)</f>
-        <v>Ba mươi bốn triệu, sáu trăm bốn mươi lăm ngàn, sáu trăm đồng</v>
+        <v>Không đồng</v>
       </c>
       <c r="E80" s="4"/>
       <c r="F80" s="5"/>
@@ -14318,7 +14508,7 @@
     <sheetView tabSelected="1" topLeftCell="A5" zoomScale="95" workbookViewId="0">
       <pane ySplit="7" topLeftCell="A235" activePane="bottomLeft" state="frozen"/>
       <selection activeCell="A5" sqref="A5"/>
-      <selection pane="bottomLeft" activeCell="G245" sqref="G245:G247"/>
+      <selection pane="bottomLeft" activeCell="H249" sqref="H249"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15.75"/>
@@ -20627,8 +20817,12 @@
       <c r="J247" s="11"/>
     </row>
     <row r="248" spans="1:10" ht="21" customHeight="1">
-      <c r="A248" s="12"/>
-      <c r="B248" s="13"/>
+      <c r="A248" s="12">
+        <v>42363</v>
+      </c>
+      <c r="B248" s="13" t="s">
+        <v>6</v>
+      </c>
       <c r="C248" s="13"/>
       <c r="D248" s="11"/>
       <c r="E248" s="11"/>
@@ -20637,10 +20831,12 @@
         <f t="shared" si="27"/>
         <v>0</v>
       </c>
-      <c r="H248" s="11"/>
+      <c r="H248" s="11">
+        <v>60000000</v>
+      </c>
       <c r="I248" s="11">
         <f t="shared" si="28"/>
-        <v>0</v>
+        <v>108149533</v>
       </c>
       <c r="J248" s="11"/>
     </row>
@@ -20893,11 +21089,11 @@
       </c>
       <c r="H262" s="53">
         <f>SUM(H13:H261)</f>
-        <v>2431710000</v>
+        <v>2491710000</v>
       </c>
       <c r="I262" s="17">
         <f>I12+G262-H262</f>
-        <v>168149533</v>
+        <v>108149533</v>
       </c>
       <c r="J262" s="17"/>
     </row>
@@ -20908,7 +21104,7 @@
       </c>
       <c r="E264" s="168">
         <f>I262</f>
-        <v>168149533</v>
+        <v>108149533</v>
       </c>
       <c r="F264" s="168"/>
       <c r="G264" s="55" t="s">
@@ -20921,7 +21117,7 @@
       </c>
       <c r="C265" s="56" t="str">
         <f>[1]!VND(E264, TRUE)</f>
-        <v>Một trăm sáu mươi tám triệu, một trăm bốn mươi chín ngàn, năm trăm ba mươi ba đồng</v>
+        <v>Một trăm lẻ tám triệu, một trăm bốn mươi chín ngàn, năm trăm ba mươi ba đồng</v>
       </c>
     </row>
     <row r="266" spans="1:10" ht="21" customHeight="1"/>

--- a/SO SACH - LA/CONG NO/CONG NO 2015/cong no VL 15.xlsx
+++ b/SO SACH - LA/CONG NO/CONG NO 2015/cong no VL 15.xlsx
@@ -1,10 +1,10 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <fileVersion appName="xl" lastEdited="4" lowestEdited="4" rupBuild="4505"/>
+  <fileVersion appName="xl" lastEdited="5" lowestEdited="4" rupBuild="9302"/>
   <workbookPr defaultThemeVersion="124226"/>
   <bookViews>
-    <workbookView xWindow="240" yWindow="90" windowWidth="14880" windowHeight="8190" tabRatio="942" activeTab="5"/>
+    <workbookView xWindow="240" yWindow="90" windowWidth="14880" windowHeight="8190" tabRatio="942" activeTab="1"/>
   </bookViews>
   <sheets>
     <sheet name="T.KẾT" sheetId="7" r:id="rId1"/>
@@ -25,7 +25,7 @@
     <definedName name="_xlnm._FilterDatabase" localSheetId="2" hidden="1">'TẤN DŨNG'!$A$11:$K$195</definedName>
     <definedName name="_xlnm._FilterDatabase" localSheetId="1" hidden="1">'THÀNH PHÚ'!$A$11:$K$11</definedName>
   </definedNames>
-  <calcPr calcId="124519"/>
+  <calcPr calcId="144525"/>
 </workbook>
 </file>
 
@@ -884,7 +884,7 @@
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <numFmts count="7">
     <numFmt numFmtId="43" formatCode="_(* #,##0.00_);_(* \(#,##0.00\);_(* &quot;-&quot;??_);_(@_)"/>
     <numFmt numFmtId="164" formatCode="_-* #,##0.00_-;\-* #,##0.00_-;_-* &quot;-&quot;??_-;_-@_-"/>
@@ -894,7 +894,7 @@
     <numFmt numFmtId="168" formatCode="_(* #,##0.000_);_(* \(#,##0.000\);_(* &quot;-&quot;??_);_(@_)"/>
     <numFmt numFmtId="169" formatCode="_-* #,##0_-;\-* #,##0_-;_-* &quot;-&quot;??_-;_-@_-"/>
   </numFmts>
-  <fonts count="33">
+  <fonts count="33" x14ac:knownFonts="1">
     <font>
       <sz val="12"/>
       <name val="VNI-Times"/>
@@ -2080,16 +2080,22 @@
   </cellStyles>
   <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium9" defaultPivotStyle="PivotStyleLight16"/>
+  <extLst>
+    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
+      <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
+    </ext>
+  </extLst>
 </styleSheet>
 </file>
 
 <file path=xl/externalLinks/externalLink1.xml><?xml version="1.0" encoding="utf-8"?>
-<externalLink xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+<externalLink xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" mc:Ignorable="x14">
   <externalBook xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId1">
     <sheetNames>
       <sheetName val="uniBase"/>
       <sheetName val="vniBase"/>
       <sheetName val="abcBase"/>
+      <sheetName val="Ufunctions"/>
     </sheetNames>
     <definedNames>
       <definedName name="VND"/>
@@ -2098,6 +2104,7 @@
       <sheetData sheetId="0"/>
       <sheetData sheetId="1"/>
       <sheetData sheetId="2"/>
+      <sheetData sheetId="3" refreshError="1"/>
     </sheetDataSet>
   </externalBook>
 </externalLink>
@@ -2178,6 +2185,7 @@
         <a:font script="Mong" typeface="Mongolian Baiti"/>
         <a:font script="Viet" typeface="Times New Roman"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
+        <a:font script="Geor" typeface="Sylfaen"/>
       </a:majorFont>
       <a:minorFont>
         <a:latin typeface="Calibri"/>
@@ -2212,6 +2220,7 @@
         <a:font script="Mong" typeface="Mongolian Baiti"/>
         <a:font script="Viet" typeface="Arial"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
+        <a:font script="Geor" typeface="Sylfaen"/>
       </a:minorFont>
     </a:fontScheme>
     <a:fmtScheme name="Office">
@@ -2387,7 +2396,7 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr enableFormatConditionsCalculation="0">
     <tabColor indexed="25"/>
   </sheetPr>
@@ -2398,7 +2407,7 @@
       <selection pane="bottomLeft" activeCell="B4" sqref="B4:B10"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="30" customHeight="1"/>
+  <sheetFormatPr defaultRowHeight="30" customHeight="1" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" width="4.625" style="22" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="42.5" style="22" customWidth="1"/>
@@ -2406,7 +2415,7 @@
     <col min="4" max="16384" width="9" style="22"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:4" s="94" customFormat="1" ht="27" customHeight="1">
+    <row r="1" spans="1:4" s="94" customFormat="1" ht="27" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A1" s="90" t="s">
         <v>61</v>
       </c>
@@ -2414,13 +2423,13 @@
       <c r="C1" s="92"/>
       <c r="D1" s="93"/>
     </row>
-    <row r="2" spans="1:4" s="79" customFormat="1" ht="12" customHeight="1">
+    <row r="2" spans="1:4" s="79" customFormat="1" ht="12" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A2" s="80"/>
       <c r="B2" s="81"/>
       <c r="C2" s="97"/>
       <c r="D2" s="78"/>
     </row>
-    <row r="3" spans="1:4" s="84" customFormat="1" ht="25.5" customHeight="1">
+    <row r="3" spans="1:4" s="84" customFormat="1" ht="25.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A3" s="82" t="s">
         <v>58</v>
       </c>
@@ -2431,7 +2440,7 @@
         <v>60</v>
       </c>
     </row>
-    <row r="4" spans="1:4" s="85" customFormat="1" ht="21.75" customHeight="1">
+    <row r="4" spans="1:4" s="85" customFormat="1" ht="21.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A4" s="95">
         <f>IF(C4&lt;&gt;0,SUM(($C$4:C4&lt;&gt;0)*1),"")</f>
         <v>1</v>
@@ -2444,7 +2453,7 @@
         <v>62481100</v>
       </c>
     </row>
-    <row r="5" spans="1:4" s="85" customFormat="1" ht="21.75" customHeight="1">
+    <row r="5" spans="1:4" s="85" customFormat="1" ht="21.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A5" s="96">
         <f t="array" ref="A5">IF(C5&lt;&gt;0,SUM(($C$4:C5&lt;&gt;0)*1),"")</f>
         <v>2</v>
@@ -2457,7 +2466,7 @@
         <v>59990640</v>
       </c>
     </row>
-    <row r="6" spans="1:4" s="85" customFormat="1" ht="21.75" customHeight="1">
+    <row r="6" spans="1:4" s="85" customFormat="1" ht="21.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A6" s="96" t="str">
         <f t="array" ref="A6">IF(C6&lt;&gt;0,SUM(($C$4:C6&lt;&gt;0)*1),"")</f>
         <v/>
@@ -2470,7 +2479,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="7" spans="1:4" s="85" customFormat="1" ht="21.75" customHeight="1">
+    <row r="7" spans="1:4" s="85" customFormat="1" ht="21.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A7" s="96">
         <f t="array" ref="A7">IF(C7&lt;&gt;0,SUM(($C$4:C7&lt;&gt;0)*1),"")</f>
         <v>3</v>
@@ -2484,7 +2493,7 @@
       </c>
       <c r="D7" s="100"/>
     </row>
-    <row r="8" spans="1:4" s="85" customFormat="1" ht="21.75" customHeight="1">
+    <row r="8" spans="1:4" s="85" customFormat="1" ht="21.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A8" s="96">
         <f t="array" ref="A8">IF(C8&lt;&gt;0,SUM(($C$4:C8&lt;&gt;0)*1),"")</f>
         <v>4</v>
@@ -2498,7 +2507,7 @@
       </c>
       <c r="D8" s="100"/>
     </row>
-    <row r="9" spans="1:4" s="85" customFormat="1" ht="21.75" customHeight="1">
+    <row r="9" spans="1:4" s="85" customFormat="1" ht="21.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A9" s="96">
         <f t="array" ref="A9">IF(C9&lt;&gt;0,SUM(($C$4:C9&lt;&gt;0)*1),"")</f>
         <v>5</v>
@@ -2512,7 +2521,7 @@
       </c>
       <c r="D9" s="100"/>
     </row>
-    <row r="10" spans="1:4" s="85" customFormat="1" ht="21.75" customHeight="1">
+    <row r="10" spans="1:4" s="85" customFormat="1" ht="21.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A10" s="96" t="str">
         <f t="array" ref="A10">IF(C10&lt;&gt;0,SUM(($C$4:C10&lt;&gt;0)*1),"")</f>
         <v/>
@@ -2526,7 +2535,7 @@
       </c>
       <c r="D10" s="100"/>
     </row>
-    <row r="11" spans="1:4" s="85" customFormat="1" ht="21.75" customHeight="1">
+    <row r="11" spans="1:4" s="85" customFormat="1" ht="21.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A11" s="96" t="str">
         <f t="array" ref="A11">IF(C11&lt;&gt;0,SUM(($C$4:C11&lt;&gt;0)*1),"")</f>
         <v/>
@@ -2535,7 +2544,7 @@
       <c r="C11" s="164"/>
       <c r="D11" s="100"/>
     </row>
-    <row r="12" spans="1:4" s="85" customFormat="1" ht="21.75" customHeight="1">
+    <row r="12" spans="1:4" s="85" customFormat="1" ht="21.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A12" s="96" t="str">
         <f t="array" ref="A12">IF(C12&lt;&gt;0,SUM(($C$4:C12&lt;&gt;0)*1),"")</f>
         <v/>
@@ -2544,7 +2553,7 @@
       <c r="C12" s="164"/>
       <c r="D12" s="100"/>
     </row>
-    <row r="13" spans="1:4" s="85" customFormat="1" ht="21.75" customHeight="1">
+    <row r="13" spans="1:4" s="85" customFormat="1" ht="21.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A13" s="96" t="str">
         <f t="array" ref="A13">IF(C13&lt;&gt;0,SUM(($C$4:C13&lt;&gt;0)*1),"")</f>
         <v/>
@@ -2552,7 +2561,7 @@
       <c r="B13" s="88"/>
       <c r="C13" s="164"/>
     </row>
-    <row r="14" spans="1:4" s="85" customFormat="1" ht="21.75" customHeight="1">
+    <row r="14" spans="1:4" s="85" customFormat="1" ht="21.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A14" s="96" t="str">
         <f t="array" ref="A14">IF(C14&lt;&gt;0,SUM(($C$4:C14&lt;&gt;0)*1),"")</f>
         <v/>
@@ -2560,7 +2569,7 @@
       <c r="B14" s="89"/>
       <c r="C14" s="165"/>
     </row>
-    <row r="15" spans="1:4" s="85" customFormat="1" ht="21.75" customHeight="1">
+    <row r="15" spans="1:4" s="85" customFormat="1" ht="21.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A15" s="167" t="s">
         <v>40</v>
       </c>
@@ -2570,174 +2579,174 @@
         <v>286854673</v>
       </c>
     </row>
-    <row r="16" spans="1:4" ht="21.75" customHeight="1"/>
-    <row r="17" ht="21.75" customHeight="1"/>
-    <row r="18" ht="21.75" customHeight="1"/>
-    <row r="19" ht="21.75" customHeight="1"/>
-    <row r="20" ht="21.75" customHeight="1"/>
-    <row r="21" ht="21.75" customHeight="1"/>
-    <row r="22" ht="21.75" customHeight="1"/>
-    <row r="23" ht="21.75" customHeight="1"/>
-    <row r="24" ht="21.75" customHeight="1"/>
-    <row r="25" ht="21.75" customHeight="1"/>
-    <row r="26" ht="21.75" customHeight="1"/>
-    <row r="27" ht="21.75" customHeight="1"/>
-    <row r="28" ht="21.75" customHeight="1"/>
-    <row r="29" ht="21.75" customHeight="1"/>
-    <row r="30" ht="21.75" customHeight="1"/>
-    <row r="31" ht="21.75" customHeight="1"/>
-    <row r="32" ht="21.75" customHeight="1"/>
-    <row r="33" ht="21.75" customHeight="1"/>
-    <row r="34" ht="21.75" customHeight="1"/>
-    <row r="35" ht="21.75" customHeight="1"/>
-    <row r="36" ht="21.75" customHeight="1"/>
-    <row r="37" ht="21.75" customHeight="1"/>
-    <row r="38" ht="21.75" customHeight="1"/>
-    <row r="39" ht="21.75" customHeight="1"/>
-    <row r="40" ht="21.75" customHeight="1"/>
-    <row r="41" ht="21.75" customHeight="1"/>
-    <row r="42" ht="21.75" customHeight="1"/>
-    <row r="43" ht="21.75" customHeight="1"/>
-    <row r="44" ht="21.75" customHeight="1"/>
-    <row r="45" ht="21.75" customHeight="1"/>
-    <row r="46" ht="21.75" customHeight="1"/>
-    <row r="47" ht="21.75" customHeight="1"/>
-    <row r="48" ht="21.75" customHeight="1"/>
-    <row r="49" ht="21.75" customHeight="1"/>
-    <row r="50" ht="21.75" customHeight="1"/>
-    <row r="51" ht="21.75" customHeight="1"/>
-    <row r="52" ht="21.75" customHeight="1"/>
-    <row r="53" ht="21.75" customHeight="1"/>
-    <row r="54" ht="21.75" customHeight="1"/>
-    <row r="55" ht="21.75" customHeight="1"/>
-    <row r="56" ht="21.75" customHeight="1"/>
-    <row r="57" ht="21.75" customHeight="1"/>
-    <row r="58" ht="21.75" customHeight="1"/>
-    <row r="59" ht="21.75" customHeight="1"/>
-    <row r="60" ht="21.75" customHeight="1"/>
-    <row r="61" ht="21.75" customHeight="1"/>
-    <row r="62" ht="21.75" customHeight="1"/>
-    <row r="63" ht="21.75" customHeight="1"/>
-    <row r="64" ht="21.75" customHeight="1"/>
-    <row r="65" ht="21.75" customHeight="1"/>
-    <row r="66" ht="21.75" customHeight="1"/>
-    <row r="67" ht="21.75" customHeight="1"/>
-    <row r="68" ht="21.75" customHeight="1"/>
-    <row r="69" ht="21.75" customHeight="1"/>
-    <row r="70" ht="21.75" customHeight="1"/>
-    <row r="71" ht="21.75" customHeight="1"/>
-    <row r="72" ht="21.75" customHeight="1"/>
-    <row r="73" ht="21.75" customHeight="1"/>
-    <row r="74" ht="21.75" customHeight="1"/>
-    <row r="75" ht="21.75" customHeight="1"/>
-    <row r="76" ht="21.75" customHeight="1"/>
-    <row r="77" ht="21.75" customHeight="1"/>
-    <row r="78" ht="21.75" customHeight="1"/>
-    <row r="79" ht="21.75" customHeight="1"/>
-    <row r="80" ht="21.75" customHeight="1"/>
-    <row r="81" ht="21.75" customHeight="1"/>
-    <row r="82" ht="21.75" customHeight="1"/>
-    <row r="83" ht="21.75" customHeight="1"/>
-    <row r="84" ht="21.75" customHeight="1"/>
-    <row r="85" ht="21.75" customHeight="1"/>
-    <row r="86" ht="21.75" customHeight="1"/>
-    <row r="87" ht="21.75" customHeight="1"/>
-    <row r="88" ht="21.75" customHeight="1"/>
-    <row r="89" ht="21.75" customHeight="1"/>
-    <row r="90" ht="21.75" customHeight="1"/>
-    <row r="91" ht="21.75" customHeight="1"/>
-    <row r="92" ht="21.75" customHeight="1"/>
-    <row r="93" ht="21.75" customHeight="1"/>
-    <row r="94" ht="21.75" customHeight="1"/>
-    <row r="95" ht="21.75" customHeight="1"/>
-    <row r="96" ht="21.75" customHeight="1"/>
-    <row r="97" ht="21.75" customHeight="1"/>
-    <row r="98" ht="21.75" customHeight="1"/>
-    <row r="99" ht="21.75" customHeight="1"/>
-    <row r="100" ht="21.75" customHeight="1"/>
-    <row r="101" ht="21.75" customHeight="1"/>
-    <row r="102" ht="21.75" customHeight="1"/>
-    <row r="103" ht="21.75" customHeight="1"/>
-    <row r="104" ht="21.75" customHeight="1"/>
-    <row r="105" ht="21.75" customHeight="1"/>
-    <row r="106" ht="21.75" customHeight="1"/>
-    <row r="107" ht="21.75" customHeight="1"/>
-    <row r="108" ht="21.75" customHeight="1"/>
-    <row r="109" ht="21.75" customHeight="1"/>
-    <row r="110" ht="21.75" customHeight="1"/>
-    <row r="111" ht="21.75" customHeight="1"/>
-    <row r="112" ht="21.75" customHeight="1"/>
-    <row r="113" ht="21.75" customHeight="1"/>
-    <row r="114" ht="21.75" customHeight="1"/>
-    <row r="115" ht="21.75" customHeight="1"/>
-    <row r="116" ht="21.75" customHeight="1"/>
-    <row r="117" ht="21.75" customHeight="1"/>
-    <row r="118" ht="21.75" customHeight="1"/>
-    <row r="119" ht="21.75" customHeight="1"/>
-    <row r="120" ht="21.75" customHeight="1"/>
-    <row r="121" ht="21.75" customHeight="1"/>
-    <row r="122" ht="21.75" customHeight="1"/>
-    <row r="123" ht="21.75" customHeight="1"/>
-    <row r="124" ht="21.75" customHeight="1"/>
-    <row r="125" ht="21.75" customHeight="1"/>
-    <row r="126" ht="21.75" customHeight="1"/>
-    <row r="127" ht="21.75" customHeight="1"/>
-    <row r="128" ht="21.75" customHeight="1"/>
-    <row r="129" ht="21.75" customHeight="1"/>
-    <row r="130" ht="21.75" customHeight="1"/>
-    <row r="131" ht="21.75" customHeight="1"/>
-    <row r="132" ht="21.75" customHeight="1"/>
-    <row r="133" ht="21.75" customHeight="1"/>
-    <row r="134" ht="21.75" customHeight="1"/>
-    <row r="135" ht="21.75" customHeight="1"/>
-    <row r="136" ht="21.75" customHeight="1"/>
-    <row r="137" ht="21.75" customHeight="1"/>
-    <row r="138" ht="21.75" customHeight="1"/>
-    <row r="139" ht="21.75" customHeight="1"/>
-    <row r="140" ht="21.75" customHeight="1"/>
-    <row r="141" ht="21.75" customHeight="1"/>
-    <row r="142" ht="21.75" customHeight="1"/>
-    <row r="143" ht="21.75" customHeight="1"/>
-    <row r="144" ht="21.75" customHeight="1"/>
-    <row r="145" ht="21.75" customHeight="1"/>
-    <row r="146" ht="21.75" customHeight="1"/>
-    <row r="147" ht="21.75" customHeight="1"/>
-    <row r="148" ht="21.75" customHeight="1"/>
-    <row r="149" ht="21.75" customHeight="1"/>
-    <row r="150" ht="21.75" customHeight="1"/>
-    <row r="151" ht="21.75" customHeight="1"/>
-    <row r="152" ht="21.75" customHeight="1"/>
-    <row r="153" ht="21.75" customHeight="1"/>
-    <row r="154" ht="21.75" customHeight="1"/>
-    <row r="155" ht="21.75" customHeight="1"/>
-    <row r="156" ht="21.75" customHeight="1"/>
-    <row r="157" ht="21.75" customHeight="1"/>
-    <row r="158" ht="21.75" customHeight="1"/>
-    <row r="159" ht="21.75" customHeight="1"/>
-    <row r="160" ht="21.75" customHeight="1"/>
-    <row r="161" ht="21.75" customHeight="1"/>
-    <row r="162" ht="21.75" customHeight="1"/>
-    <row r="163" ht="21.75" customHeight="1"/>
-    <row r="164" ht="21.75" customHeight="1"/>
-    <row r="165" ht="21.75" customHeight="1"/>
-    <row r="166" ht="21.75" customHeight="1"/>
-    <row r="167" ht="21.75" customHeight="1"/>
-    <row r="168" ht="21.75" customHeight="1"/>
-    <row r="169" ht="21.75" customHeight="1"/>
-    <row r="170" ht="21.75" customHeight="1"/>
-    <row r="171" ht="21.75" customHeight="1"/>
-    <row r="172" ht="21.75" customHeight="1"/>
-    <row r="173" ht="21.75" customHeight="1"/>
-    <row r="174" ht="21.75" customHeight="1"/>
-    <row r="175" ht="21.75" customHeight="1"/>
-    <row r="176" ht="21.75" customHeight="1"/>
-    <row r="177" ht="21.75" customHeight="1"/>
-    <row r="178" ht="21.75" customHeight="1"/>
-    <row r="179" ht="21.75" customHeight="1"/>
-    <row r="180" ht="21.75" customHeight="1"/>
-    <row r="181" ht="21.75" customHeight="1"/>
-    <row r="182" ht="21.75" customHeight="1"/>
-    <row r="183" ht="21.75" customHeight="1"/>
+    <row r="16" spans="1:4" ht="21.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="17" ht="21.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="18" ht="21.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="19" ht="21.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="20" ht="21.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="21" ht="21.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="22" ht="21.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="23" ht="21.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="24" ht="21.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="25" ht="21.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="26" ht="21.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="27" ht="21.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="28" ht="21.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="29" ht="21.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="30" ht="21.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="31" ht="21.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="32" ht="21.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="33" ht="21.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="34" ht="21.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="35" ht="21.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="36" ht="21.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="37" ht="21.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="38" ht="21.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="39" ht="21.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="40" ht="21.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="41" ht="21.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="42" ht="21.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="43" ht="21.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="44" ht="21.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="45" ht="21.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="46" ht="21.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="47" ht="21.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="48" ht="21.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="49" ht="21.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="50" ht="21.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="51" ht="21.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="52" ht="21.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="53" ht="21.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="54" ht="21.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="55" ht="21.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="56" ht="21.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="57" ht="21.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="58" ht="21.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="59" ht="21.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="60" ht="21.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="61" ht="21.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="62" ht="21.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="63" ht="21.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="64" ht="21.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="65" ht="21.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="66" ht="21.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="67" ht="21.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="68" ht="21.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="69" ht="21.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="70" ht="21.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="71" ht="21.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="72" ht="21.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="73" ht="21.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="74" ht="21.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="75" ht="21.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="76" ht="21.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="77" ht="21.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="78" ht="21.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="79" ht="21.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="80" ht="21.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="81" ht="21.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="82" ht="21.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="83" ht="21.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="84" ht="21.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="85" ht="21.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="86" ht="21.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="87" ht="21.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="88" ht="21.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="89" ht="21.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="90" ht="21.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="91" ht="21.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="92" ht="21.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="93" ht="21.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="94" ht="21.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="95" ht="21.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="96" ht="21.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="97" ht="21.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="98" ht="21.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="99" ht="21.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="100" ht="21.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="101" ht="21.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="102" ht="21.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="103" ht="21.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="104" ht="21.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="105" ht="21.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="106" ht="21.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="107" ht="21.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="108" ht="21.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="109" ht="21.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="110" ht="21.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="111" ht="21.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="112" ht="21.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="113" ht="21.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="114" ht="21.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="115" ht="21.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="116" ht="21.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="117" ht="21.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="118" ht="21.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="119" ht="21.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="120" ht="21.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="121" ht="21.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="122" ht="21.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="123" ht="21.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="124" ht="21.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="125" ht="21.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="126" ht="21.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="127" ht="21.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="128" ht="21.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="129" ht="21.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="130" ht="21.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="131" ht="21.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="132" ht="21.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="133" ht="21.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="134" ht="21.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="135" ht="21.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="136" ht="21.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="137" ht="21.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="138" ht="21.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="139" ht="21.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="140" ht="21.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="141" ht="21.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="142" ht="21.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="143" ht="21.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="144" ht="21.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="145" ht="21.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="146" ht="21.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="147" ht="21.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="148" ht="21.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="149" ht="21.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="150" ht="21.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="151" ht="21.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="152" ht="21.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="153" ht="21.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="154" ht="21.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="155" ht="21.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="156" ht="21.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="157" ht="21.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="158" ht="21.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="159" ht="21.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="160" ht="21.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="161" ht="21.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="162" ht="21.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="163" ht="21.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="164" ht="21.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="165" ht="21.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="166" ht="21.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="167" ht="21.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="168" ht="21.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="169" ht="21.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="170" ht="21.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="171" ht="21.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="172" ht="21.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="173" ht="21.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="174" ht="21.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="175" ht="21.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="176" ht="21.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="177" ht="21.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="178" ht="21.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="179" ht="21.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="180" ht="21.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="181" ht="21.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="182" ht="21.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="183" ht="21.75" customHeight="1" x14ac:dyDescent="0.25"/>
   </sheetData>
   <mergeCells count="1">
     <mergeCell ref="A15:B15"/>
@@ -2750,17 +2759,17 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr enableFormatConditionsCalculation="0">
     <tabColor indexed="31"/>
   </sheetPr>
   <dimension ref="A1:K74"/>
   <sheetViews>
-    <sheetView topLeftCell="A32" zoomScale="95" workbookViewId="0">
+    <sheetView tabSelected="1" topLeftCell="A32" zoomScale="95" workbookViewId="0">
       <selection activeCell="B47" sqref="B47"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15.75"/>
+  <sheetFormatPr defaultRowHeight="15.75" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" width="10.375" style="2" customWidth="1"/>
     <col min="2" max="2" width="15.375" style="1" customWidth="1"/>
@@ -2775,7 +2784,7 @@
     <col min="11" max="16384" width="9" style="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:11" s="47" customFormat="1" ht="18" hidden="1" customHeight="1">
+    <row r="1" spans="1:11" s="47" customFormat="1" ht="18" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A1" s="174" t="s">
         <v>31</v>
       </c>
@@ -2787,7 +2796,7 @@
       <c r="G1" s="49"/>
       <c r="H1" s="49"/>
     </row>
-    <row r="2" spans="1:11" s="47" customFormat="1" ht="18" hidden="1" customHeight="1">
+    <row r="2" spans="1:11" s="47" customFormat="1" ht="18" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A2" s="174" t="s">
         <v>32</v>
       </c>
@@ -2799,7 +2808,7 @@
       <c r="G2" s="49"/>
       <c r="H2" s="49"/>
     </row>
-    <row r="3" spans="1:11" s="47" customFormat="1" ht="18" hidden="1" customHeight="1">
+    <row r="3" spans="1:11" s="47" customFormat="1" ht="18" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A3" s="174" t="s">
         <v>33</v>
       </c>
@@ -2813,14 +2822,14 @@
       <c r="G3" s="49"/>
       <c r="H3" s="49"/>
     </row>
-    <row r="4" spans="1:11" s="42" customFormat="1" ht="9" hidden="1" customHeight="1">
+    <row r="4" spans="1:11" s="42" customFormat="1" ht="9" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
       <c r="D4" s="140"/>
       <c r="E4" s="140"/>
       <c r="F4" s="150"/>
       <c r="G4" s="44"/>
       <c r="H4" s="44"/>
     </row>
-    <row r="5" spans="1:11" s="45" customFormat="1" ht="29.25" customHeight="1">
+    <row r="5" spans="1:11" s="45" customFormat="1" ht="29.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A5" s="169" t="s">
         <v>258</v>
       </c>
@@ -2833,7 +2842,7 @@
       <c r="H5" s="169"/>
       <c r="I5" s="169"/>
     </row>
-    <row r="6" spans="1:11" ht="9" customHeight="1">
+    <row r="6" spans="1:11" ht="9" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A6" s="170"/>
       <c r="B6" s="170"/>
       <c r="C6" s="170"/>
@@ -2844,7 +2853,7 @@
       <c r="H6" s="170"/>
       <c r="I6" s="170"/>
     </row>
-    <row r="7" spans="1:11" s="63" customFormat="1" ht="18" customHeight="1">
+    <row r="7" spans="1:11" s="63" customFormat="1" ht="18" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A7" s="62" t="s">
         <v>9</v>
       </c>
@@ -2856,7 +2865,7 @@
       <c r="H7" s="65"/>
       <c r="I7" s="65"/>
     </row>
-    <row r="8" spans="1:11" s="63" customFormat="1" ht="18" hidden="1" customHeight="1">
+    <row r="8" spans="1:11" s="63" customFormat="1" ht="18" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A8" s="62" t="s">
         <v>35</v>
       </c>
@@ -2868,7 +2877,7 @@
       <c r="H8" s="65"/>
       <c r="I8" s="65"/>
     </row>
-    <row r="9" spans="1:11" s="63" customFormat="1" ht="18" hidden="1" customHeight="1">
+    <row r="9" spans="1:11" s="63" customFormat="1" ht="18" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A9" s="62" t="s">
         <v>36</v>
       </c>
@@ -2882,8 +2891,8 @@
       <c r="H9" s="65"/>
       <c r="I9" s="65"/>
     </row>
-    <row r="10" spans="1:11" ht="8.25" hidden="1" customHeight="1"/>
-    <row r="11" spans="1:11" s="52" customFormat="1" ht="32.25" customHeight="1">
+    <row r="10" spans="1:11" ht="8.25" hidden="1" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="11" spans="1:11" s="52" customFormat="1" ht="32.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A11" s="50" t="s">
         <v>0</v>
       </c>
@@ -2915,7 +2924,7 @@
         <v>39</v>
       </c>
     </row>
-    <row r="12" spans="1:11" s="10" customFormat="1" ht="21" customHeight="1">
+    <row r="12" spans="1:11" s="10" customFormat="1" ht="21" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A12" s="171" t="s">
         <v>13</v>
       </c>
@@ -2931,7 +2940,7 @@
       </c>
       <c r="J12" s="7"/>
     </row>
-    <row r="13" spans="1:11" ht="21" customHeight="1">
+    <row r="13" spans="1:11" ht="21" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A13" s="38">
         <v>41334</v>
       </c>
@@ -2961,7 +2970,7 @@
       </c>
       <c r="J13" s="40"/>
     </row>
-    <row r="14" spans="1:11" ht="21" customHeight="1">
+    <row r="14" spans="1:11" ht="21" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A14" s="34"/>
       <c r="B14" s="35" t="s">
         <v>28</v>
@@ -2989,7 +2998,7 @@
       </c>
       <c r="J14" s="36"/>
     </row>
-    <row r="15" spans="1:11" s="122" customFormat="1" ht="21" customHeight="1">
+    <row r="15" spans="1:11" s="122" customFormat="1" ht="21" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A15" s="120">
         <v>41655</v>
       </c>
@@ -3014,7 +3023,7 @@
       <c r="J15" s="28"/>
       <c r="K15" s="125"/>
     </row>
-    <row r="16" spans="1:11" ht="21" customHeight="1">
+    <row r="16" spans="1:11" ht="21" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A16" s="12">
         <v>41843</v>
       </c>
@@ -3046,7 +3055,7 @@
       <c r="J16" s="28"/>
       <c r="K16" s="129"/>
     </row>
-    <row r="17" spans="1:11" ht="21" customHeight="1">
+    <row r="17" spans="1:11" ht="21" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A17" s="12">
         <v>41841</v>
       </c>
@@ -3078,7 +3087,7 @@
       <c r="J17" s="28"/>
       <c r="K17" s="129"/>
     </row>
-    <row r="18" spans="1:11" ht="21" customHeight="1">
+    <row r="18" spans="1:11" ht="21" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A18" s="12"/>
       <c r="B18" s="30" t="s">
         <v>201</v>
@@ -3108,7 +3117,7 @@
       <c r="J18" s="28"/>
       <c r="K18" s="129"/>
     </row>
-    <row r="19" spans="1:11" ht="21" customHeight="1">
+    <row r="19" spans="1:11" ht="21" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A19" s="12"/>
       <c r="B19" s="30" t="s">
         <v>202</v>
@@ -3138,7 +3147,7 @@
       <c r="J19" s="28"/>
       <c r="K19" s="129"/>
     </row>
-    <row r="20" spans="1:11" ht="21" customHeight="1">
+    <row r="20" spans="1:11" ht="21" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A20" s="12">
         <v>41841</v>
       </c>
@@ -3170,7 +3179,7 @@
       <c r="J20" s="28"/>
       <c r="K20" s="129"/>
     </row>
-    <row r="21" spans="1:11" ht="21" customHeight="1">
+    <row r="21" spans="1:11" ht="21" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A21" s="12"/>
       <c r="B21" s="30" t="s">
         <v>204</v>
@@ -3200,7 +3209,7 @@
       <c r="J21" s="28"/>
       <c r="K21" s="129"/>
     </row>
-    <row r="22" spans="1:11" s="122" customFormat="1" ht="21" customHeight="1">
+    <row r="22" spans="1:11" s="122" customFormat="1" ht="21" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A22" s="120">
         <v>41831</v>
       </c>
@@ -3224,7 +3233,7 @@
       </c>
       <c r="J22" s="32"/>
     </row>
-    <row r="23" spans="1:11" ht="21" customHeight="1">
+    <row r="23" spans="1:11" ht="21" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A23" s="12">
         <v>41865</v>
       </c>
@@ -3255,7 +3264,7 @@
       </c>
       <c r="J23" s="11"/>
     </row>
-    <row r="24" spans="1:11" s="122" customFormat="1" ht="21" customHeight="1">
+    <row r="24" spans="1:11" s="122" customFormat="1" ht="21" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A24" s="120">
         <v>41939</v>
       </c>
@@ -3279,7 +3288,7 @@
       </c>
       <c r="J24" s="32"/>
     </row>
-    <row r="25" spans="1:11" ht="21" customHeight="1">
+    <row r="25" spans="1:11" ht="21" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A25" s="12">
         <v>41944</v>
       </c>
@@ -3310,7 +3319,7 @@
       </c>
       <c r="J25" s="11"/>
     </row>
-    <row r="26" spans="1:11" ht="21" customHeight="1">
+    <row r="26" spans="1:11" ht="21" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A26" s="12">
         <v>41946</v>
       </c>
@@ -3341,7 +3350,7 @@
       </c>
       <c r="J26" s="11"/>
     </row>
-    <row r="27" spans="1:11" ht="21" customHeight="1">
+    <row r="27" spans="1:11" ht="21" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A27" s="12">
         <v>41995</v>
       </c>
@@ -3372,7 +3381,7 @@
       </c>
       <c r="J27" s="11"/>
     </row>
-    <row r="28" spans="1:11" ht="21" customHeight="1">
+    <row r="28" spans="1:11" ht="21" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A28" s="12"/>
       <c r="B28" s="30" t="s">
         <v>203</v>
@@ -3401,7 +3410,7 @@
       </c>
       <c r="J28" s="11"/>
     </row>
-    <row r="29" spans="1:11" ht="21" customHeight="1">
+    <row r="29" spans="1:11" ht="21" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A29" s="12"/>
       <c r="B29" s="30" t="s">
         <v>204</v>
@@ -3430,7 +3439,7 @@
       </c>
       <c r="J29" s="11"/>
     </row>
-    <row r="30" spans="1:11" s="122" customFormat="1" ht="21" customHeight="1">
+    <row r="30" spans="1:11" s="122" customFormat="1" ht="21" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A30" s="120">
         <v>41992</v>
       </c>
@@ -3454,7 +3463,7 @@
       </c>
       <c r="J30" s="32"/>
     </row>
-    <row r="31" spans="1:11" ht="21" customHeight="1">
+    <row r="31" spans="1:11" ht="21" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A31" s="12">
         <v>41996</v>
       </c>
@@ -3485,7 +3494,7 @@
       </c>
       <c r="J31" s="11"/>
     </row>
-    <row r="32" spans="1:11" ht="21" customHeight="1">
+    <row r="32" spans="1:11" ht="21" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A32" s="12">
         <v>42003</v>
       </c>
@@ -3516,7 +3525,7 @@
       </c>
       <c r="J32" s="11"/>
     </row>
-    <row r="33" spans="1:10" ht="21" customHeight="1">
+    <row r="33" spans="1:10" ht="21" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A33" s="12">
         <v>42039</v>
       </c>
@@ -3547,7 +3556,7 @@
       </c>
       <c r="J33" s="11"/>
     </row>
-    <row r="34" spans="1:10" ht="21" customHeight="1">
+    <row r="34" spans="1:10" ht="21" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A34" s="12"/>
       <c r="B34" s="30" t="s">
         <v>203</v>
@@ -3576,7 +3585,7 @@
       </c>
       <c r="J34" s="11"/>
     </row>
-    <row r="35" spans="1:10" ht="21" customHeight="1">
+    <row r="35" spans="1:10" ht="21" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A35" s="12"/>
       <c r="B35" s="30" t="s">
         <v>204</v>
@@ -3605,7 +3614,7 @@
       </c>
       <c r="J35" s="11"/>
     </row>
-    <row r="36" spans="1:10" s="122" customFormat="1" ht="21" customHeight="1">
+    <row r="36" spans="1:10" s="122" customFormat="1" ht="21" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A36" s="120">
         <v>42033</v>
       </c>
@@ -3629,7 +3638,7 @@
       </c>
       <c r="J36" s="32"/>
     </row>
-    <row r="37" spans="1:10" ht="21" customHeight="1">
+    <row r="37" spans="1:10" ht="21" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A37" s="12">
         <v>42040</v>
       </c>
@@ -3660,7 +3669,7 @@
       </c>
       <c r="J37" s="11"/>
     </row>
-    <row r="38" spans="1:10" ht="21" customHeight="1">
+    <row r="38" spans="1:10" ht="21" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A38" s="12"/>
       <c r="B38" s="30" t="s">
         <v>204</v>
@@ -3689,7 +3698,7 @@
       </c>
       <c r="J38" s="11"/>
     </row>
-    <row r="39" spans="1:10" s="122" customFormat="1" ht="21" customHeight="1">
+    <row r="39" spans="1:10" s="122" customFormat="1" ht="21" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A39" s="120">
         <v>42040</v>
       </c>
@@ -3713,7 +3722,7 @@
       </c>
       <c r="J39" s="32"/>
     </row>
-    <row r="40" spans="1:10" s="122" customFormat="1" ht="21" customHeight="1">
+    <row r="40" spans="1:10" s="122" customFormat="1" ht="21" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A40" s="120">
         <v>42072</v>
       </c>
@@ -3738,7 +3747,7 @@
       </c>
       <c r="J40" s="32"/>
     </row>
-    <row r="41" spans="1:10" ht="21" customHeight="1">
+    <row r="41" spans="1:10" ht="21" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A41" s="12">
         <v>42081</v>
       </c>
@@ -3769,7 +3778,7 @@
       </c>
       <c r="J41" s="11"/>
     </row>
-    <row r="42" spans="1:10" ht="21" customHeight="1">
+    <row r="42" spans="1:10" ht="21" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A42" s="12"/>
       <c r="B42" s="30" t="s">
         <v>203</v>
@@ -3798,7 +3807,7 @@
       </c>
       <c r="J42" s="11"/>
     </row>
-    <row r="43" spans="1:10" ht="21" customHeight="1">
+    <row r="43" spans="1:10" ht="21" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A43" s="12"/>
       <c r="B43" s="30" t="s">
         <v>204</v>
@@ -3827,7 +3836,7 @@
       </c>
       <c r="J43" s="11"/>
     </row>
-    <row r="44" spans="1:10" ht="21" customHeight="1">
+    <row r="44" spans="1:10" ht="21" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A44" s="12">
         <v>42082</v>
       </c>
@@ -3858,7 +3867,7 @@
       </c>
       <c r="J44" s="11"/>
     </row>
-    <row r="45" spans="1:10" ht="21" customHeight="1">
+    <row r="45" spans="1:10" ht="21" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A45" s="12"/>
       <c r="B45" s="30" t="s">
         <v>203</v>
@@ -3887,7 +3896,7 @@
       </c>
       <c r="J45" s="11"/>
     </row>
-    <row r="46" spans="1:10" ht="21" customHeight="1">
+    <row r="46" spans="1:10" ht="21" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A46" s="12"/>
       <c r="B46" s="13"/>
       <c r="C46" s="13"/>
@@ -3905,7 +3914,7 @@
       </c>
       <c r="J46" s="11"/>
     </row>
-    <row r="47" spans="1:10" ht="21" customHeight="1">
+    <row r="47" spans="1:10" ht="21" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A47" s="12"/>
       <c r="B47" s="13"/>
       <c r="C47" s="13"/>
@@ -3923,7 +3932,7 @@
       </c>
       <c r="J47" s="11"/>
     </row>
-    <row r="48" spans="1:10" ht="21" customHeight="1">
+    <row r="48" spans="1:10" ht="21" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A48" s="12"/>
       <c r="B48" s="13"/>
       <c r="C48" s="13"/>
@@ -3941,7 +3950,7 @@
       </c>
       <c r="J48" s="11"/>
     </row>
-    <row r="49" spans="1:10" ht="21" customHeight="1">
+    <row r="49" spans="1:10" ht="21" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A49" s="12"/>
       <c r="B49" s="13"/>
       <c r="C49" s="13"/>
@@ -3959,7 +3968,7 @@
       </c>
       <c r="J49" s="11"/>
     </row>
-    <row r="50" spans="1:10" ht="21" customHeight="1">
+    <row r="50" spans="1:10" ht="21" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A50" s="12"/>
       <c r="B50" s="13"/>
       <c r="C50" s="13"/>
@@ -3977,7 +3986,7 @@
       </c>
       <c r="J50" s="11"/>
     </row>
-    <row r="51" spans="1:10" ht="21" customHeight="1">
+    <row r="51" spans="1:10" ht="21" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A51" s="12"/>
       <c r="B51" s="13"/>
       <c r="C51" s="13"/>
@@ -3995,7 +4004,7 @@
       </c>
       <c r="J51" s="11"/>
     </row>
-    <row r="52" spans="1:10" ht="21" customHeight="1">
+    <row r="52" spans="1:10" ht="21" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A52" s="12"/>
       <c r="B52" s="13"/>
       <c r="C52" s="13"/>
@@ -4013,7 +4022,7 @@
       </c>
       <c r="J52" s="11"/>
     </row>
-    <row r="53" spans="1:10" ht="21" customHeight="1">
+    <row r="53" spans="1:10" ht="21" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A53" s="15"/>
       <c r="B53" s="31"/>
       <c r="C53" s="31"/>
@@ -4031,7 +4040,7 @@
       </c>
       <c r="J53" s="16"/>
     </row>
-    <row r="54" spans="1:10" s="18" customFormat="1" ht="21" customHeight="1">
+    <row r="54" spans="1:10" s="18" customFormat="1" ht="21" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A54" s="176" t="s">
         <v>40</v>
       </c>
@@ -4054,8 +4063,8 @@
       </c>
       <c r="J54" s="17"/>
     </row>
-    <row r="55" spans="1:10" ht="21" customHeight="1"/>
-    <row r="56" spans="1:10" ht="21" customHeight="1">
+    <row r="55" spans="1:10" ht="21" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="56" spans="1:10" ht="21" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B56" s="54" t="s">
         <v>41</v>
       </c>
@@ -4068,22 +4077,22 @@
         <v>43</v>
       </c>
     </row>
-    <row r="57" spans="1:10" ht="21" customHeight="1">
+    <row r="57" spans="1:10" ht="21" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B57" s="54" t="s">
         <v>42</v>
       </c>
-      <c r="C57" s="56" t="str">
-        <f>[1]!VND(E56, TRUE)</f>
-        <v>Sáu mươi hai triệu, bốn trăm tám mươi mốt ngàn, một trăm đồng</v>
-      </c>
-    </row>
-    <row r="58" spans="1:10" ht="21" customHeight="1"/>
-    <row r="59" spans="1:10" ht="14.25" customHeight="1">
+      <c r="C57" s="56" t="e">
+        <f ca="1">[1]!VND(E56, TRUE)</f>
+        <v>#NAME?</v>
+      </c>
+    </row>
+    <row r="58" spans="1:10" ht="21" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="59" spans="1:10" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="H59" s="20" t="s">
         <v>62</v>
       </c>
     </row>
-    <row r="60" spans="1:10" ht="21" customHeight="1">
+    <row r="60" spans="1:10" ht="21" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A60" s="4" t="s">
         <v>45</v>
       </c>
@@ -4091,20 +4100,20 @@
         <v>44</v>
       </c>
     </row>
-    <row r="61" spans="1:10" ht="21" customHeight="1"/>
-    <row r="62" spans="1:10" ht="21" customHeight="1"/>
-    <row r="63" spans="1:10" ht="21" customHeight="1"/>
-    <row r="64" spans="1:10" ht="21" customHeight="1"/>
-    <row r="65" ht="21" customHeight="1"/>
-    <row r="66" ht="21" customHeight="1"/>
-    <row r="67" ht="21" customHeight="1"/>
-    <row r="68" ht="21" customHeight="1"/>
-    <row r="69" ht="21" customHeight="1"/>
-    <row r="70" ht="21" customHeight="1"/>
-    <row r="71" ht="21" customHeight="1"/>
-    <row r="72" ht="21" customHeight="1"/>
-    <row r="73" ht="21" customHeight="1"/>
-    <row r="74" ht="21" customHeight="1"/>
+    <row r="61" spans="1:10" ht="21" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="62" spans="1:10" ht="21" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="63" spans="1:10" ht="21" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="64" spans="1:10" ht="21" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="65" ht="21" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="66" ht="21" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="67" ht="21" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="68" ht="21" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="69" ht="21" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="70" ht="21" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="71" ht="21" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="72" ht="21" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="73" ht="21" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="74" ht="21" customHeight="1" x14ac:dyDescent="0.25"/>
   </sheetData>
   <autoFilter ref="A11:K11"/>
   <mergeCells count="9">
@@ -4126,7 +4135,7 @@
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr enableFormatConditionsCalculation="0">
     <tabColor indexed="31"/>
   </sheetPr>
@@ -4138,7 +4147,7 @@
       <selection pane="bottomLeft" activeCell="D190" sqref="D190"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15.75"/>
+  <sheetFormatPr defaultRowHeight="15.75" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" width="10.875" style="2" customWidth="1"/>
     <col min="2" max="2" width="16.375" style="1" customWidth="1"/>
@@ -4153,7 +4162,7 @@
     <col min="12" max="16384" width="9" style="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:11" s="47" customFormat="1" ht="18.75" customHeight="1">
+    <row r="1" spans="1:11" s="47" customFormat="1" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A1" s="174" t="s">
         <v>31</v>
       </c>
@@ -4164,7 +4173,7 @@
       <c r="H1" s="49"/>
       <c r="I1" s="49"/>
     </row>
-    <row r="2" spans="1:11" s="47" customFormat="1" ht="18.75" customHeight="1">
+    <row r="2" spans="1:11" s="47" customFormat="1" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A2" s="174" t="s">
         <v>32</v>
       </c>
@@ -4177,7 +4186,7 @@
       <c r="H2" s="49"/>
       <c r="I2" s="49"/>
     </row>
-    <row r="3" spans="1:11" s="47" customFormat="1" ht="18.75" customHeight="1">
+    <row r="3" spans="1:11" s="47" customFormat="1" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A3" s="174" t="s">
         <v>33</v>
       </c>
@@ -4192,13 +4201,13 @@
       <c r="H3" s="49"/>
       <c r="I3" s="49"/>
     </row>
-    <row r="4" spans="1:11" s="42" customFormat="1" ht="9" customHeight="1">
+    <row r="4" spans="1:11" s="42" customFormat="1" ht="9" customHeight="1" x14ac:dyDescent="0.3">
       <c r="F4" s="43"/>
       <c r="G4" s="43"/>
       <c r="H4" s="44"/>
       <c r="I4" s="44"/>
     </row>
-    <row r="5" spans="1:11" s="45" customFormat="1" ht="30.75" customHeight="1">
+    <row r="5" spans="1:11" s="45" customFormat="1" ht="30.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A5" s="169" t="s">
         <v>34</v>
       </c>
@@ -4212,7 +4221,7 @@
       <c r="I5" s="169"/>
       <c r="J5" s="169"/>
     </row>
-    <row r="6" spans="1:11" ht="9" customHeight="1">
+    <row r="6" spans="1:11" ht="9" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A6" s="170"/>
       <c r="B6" s="170"/>
       <c r="C6" s="170"/>
@@ -4224,7 +4233,7 @@
       <c r="I6" s="170"/>
       <c r="J6" s="170"/>
     </row>
-    <row r="7" spans="1:11" s="63" customFormat="1" ht="18.75" customHeight="1">
+    <row r="7" spans="1:11" s="63" customFormat="1" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A7" s="62" t="s">
         <v>11</v>
       </c>
@@ -4237,7 +4246,7 @@
       <c r="I7" s="77"/>
       <c r="J7" s="77"/>
     </row>
-    <row r="8" spans="1:11" s="47" customFormat="1" ht="18.75" customHeight="1">
+    <row r="8" spans="1:11" s="47" customFormat="1" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A8" s="174" t="s">
         <v>49</v>
       </c>
@@ -4250,7 +4259,7 @@
       <c r="H8" s="49"/>
       <c r="I8" s="49"/>
     </row>
-    <row r="9" spans="1:11" s="63" customFormat="1" ht="18.75" customHeight="1">
+    <row r="9" spans="1:11" s="63" customFormat="1" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A9" s="62" t="s">
         <v>51</v>
       </c>
@@ -4265,8 +4274,8 @@
       <c r="I9" s="77"/>
       <c r="J9" s="77"/>
     </row>
-    <row r="10" spans="1:11" ht="7.5" customHeight="1"/>
-    <row r="11" spans="1:11" s="52" customFormat="1" ht="34.5" customHeight="1">
+    <row r="10" spans="1:11" ht="7.5" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="11" spans="1:11" s="52" customFormat="1" ht="34.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A11" s="50" t="s">
         <v>0</v>
       </c>
@@ -4301,7 +4310,7 @@
         <v>39</v>
       </c>
     </row>
-    <row r="12" spans="1:11" s="10" customFormat="1" ht="21" customHeight="1">
+    <row r="12" spans="1:11" s="10" customFormat="1" ht="21" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A12" s="171" t="s">
         <v>14</v>
       </c>
@@ -4318,7 +4327,7 @@
       </c>
       <c r="K12" s="7"/>
     </row>
-    <row r="13" spans="1:11" ht="21" customHeight="1">
+    <row r="13" spans="1:11" ht="21" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A13" s="12">
         <v>41335</v>
       </c>
@@ -4354,7 +4363,7 @@
         <v>48</v>
       </c>
     </row>
-    <row r="14" spans="1:11" ht="21" customHeight="1">
+    <row r="14" spans="1:11" ht="21" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A14" s="12">
         <v>41349</v>
       </c>
@@ -4390,7 +4399,7 @@
         <v>55</v>
       </c>
     </row>
-    <row r="15" spans="1:11" ht="21" customHeight="1">
+    <row r="15" spans="1:11" ht="21" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A15" s="12">
         <v>41359</v>
       </c>
@@ -4426,7 +4435,7 @@
         <v>64</v>
       </c>
     </row>
-    <row r="16" spans="1:11" ht="21" customHeight="1">
+    <row r="16" spans="1:11" ht="21" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A16" s="12">
         <v>41361</v>
       </c>
@@ -4454,7 +4463,7 @@
       </c>
       <c r="K16" s="28"/>
     </row>
-    <row r="17" spans="1:11" ht="21" customHeight="1">
+    <row r="17" spans="1:11" ht="21" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A17" s="12">
         <v>41364</v>
       </c>
@@ -4490,7 +4499,7 @@
         <v>67</v>
       </c>
     </row>
-    <row r="18" spans="1:11" ht="21" customHeight="1">
+    <row r="18" spans="1:11" ht="21" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A18" s="12">
         <v>41379</v>
       </c>
@@ -4518,7 +4527,7 @@
       </c>
       <c r="K18" s="28"/>
     </row>
-    <row r="19" spans="1:11" ht="21" customHeight="1">
+    <row r="19" spans="1:11" ht="21" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A19" s="12">
         <v>41403</v>
       </c>
@@ -4546,7 +4555,7 @@
       </c>
       <c r="K19" s="28"/>
     </row>
-    <row r="20" spans="1:11" ht="21" customHeight="1">
+    <row r="20" spans="1:11" ht="21" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A20" s="12">
         <v>41407</v>
       </c>
@@ -4582,7 +4591,7 @@
         <v>69</v>
       </c>
     </row>
-    <row r="21" spans="1:11" ht="21" customHeight="1">
+    <row r="21" spans="1:11" ht="21" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A21" s="12">
         <v>41411</v>
       </c>
@@ -4618,7 +4627,7 @@
         <v>73</v>
       </c>
     </row>
-    <row r="22" spans="1:11" ht="21" customHeight="1">
+    <row r="22" spans="1:11" ht="21" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A22" s="12"/>
       <c r="B22" s="13" t="s">
         <v>21</v>
@@ -4652,7 +4661,7 @@
         <v>74</v>
       </c>
     </row>
-    <row r="23" spans="1:11" ht="21" customHeight="1">
+    <row r="23" spans="1:11" ht="21" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A23" s="12">
         <v>41421</v>
       </c>
@@ -4688,7 +4697,7 @@
         <v>76</v>
       </c>
     </row>
-    <row r="24" spans="1:11" ht="21" customHeight="1">
+    <row r="24" spans="1:11" ht="21" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B24" s="13" t="s">
         <v>21</v>
       </c>
@@ -4721,7 +4730,7 @@
         <v>76</v>
       </c>
     </row>
-    <row r="25" spans="1:11" ht="21" customHeight="1">
+    <row r="25" spans="1:11" ht="21" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A25" s="12">
         <v>41425</v>
       </c>
@@ -4757,7 +4766,7 @@
         <v>77</v>
       </c>
     </row>
-    <row r="26" spans="1:11" ht="21" customHeight="1">
+    <row r="26" spans="1:11" ht="21" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A26" s="12">
         <v>41436</v>
       </c>
@@ -4785,7 +4794,7 @@
       </c>
       <c r="K26" s="28"/>
     </row>
-    <row r="27" spans="1:11" ht="21" customHeight="1">
+    <row r="27" spans="1:11" ht="21" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A27" s="12">
         <v>41445</v>
       </c>
@@ -4821,7 +4830,7 @@
         <v>87</v>
       </c>
     </row>
-    <row r="28" spans="1:11" ht="21" customHeight="1">
+    <row r="28" spans="1:11" ht="21" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A28" s="12"/>
       <c r="B28" s="13" t="s">
         <v>21</v>
@@ -4855,7 +4864,7 @@
         <v>88</v>
       </c>
     </row>
-    <row r="29" spans="1:11" ht="21" customHeight="1">
+    <row r="29" spans="1:11" ht="21" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A29" s="12">
         <v>41459</v>
       </c>
@@ -4889,7 +4898,7 @@
       </c>
       <c r="K29" s="28"/>
     </row>
-    <row r="30" spans="1:11" s="122" customFormat="1" ht="21" customHeight="1">
+    <row r="30" spans="1:11" s="122" customFormat="1" ht="21" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A30" s="120">
         <v>41465</v>
       </c>
@@ -4917,7 +4926,7 @@
       </c>
       <c r="K30" s="125"/>
     </row>
-    <row r="31" spans="1:11" ht="21" customHeight="1">
+    <row r="31" spans="1:11" ht="21" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A31" s="12">
         <v>41470</v>
       </c>
@@ -4953,7 +4962,7 @@
         <v>87</v>
       </c>
     </row>
-    <row r="32" spans="1:11" ht="21" customHeight="1">
+    <row r="32" spans="1:11" ht="21" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A32" s="12"/>
       <c r="B32" s="13" t="s">
         <v>21</v>
@@ -4987,7 +4996,7 @@
         <v>88</v>
       </c>
     </row>
-    <row r="33" spans="1:11" ht="21" customHeight="1">
+    <row r="33" spans="1:11" ht="21" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A33" s="12">
         <v>41477</v>
       </c>
@@ -5023,7 +5032,7 @@
         <v>105</v>
       </c>
     </row>
-    <row r="34" spans="1:11" ht="21" customHeight="1">
+    <row r="34" spans="1:11" ht="21" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A34" s="12"/>
       <c r="B34" s="13" t="s">
         <v>21</v>
@@ -5057,7 +5066,7 @@
         <v>106</v>
       </c>
     </row>
-    <row r="35" spans="1:11" ht="21" customHeight="1">
+    <row r="35" spans="1:11" ht="21" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A35" s="12"/>
       <c r="B35" s="13" t="s">
         <v>21</v>
@@ -5091,7 +5100,7 @@
         <v>107</v>
       </c>
     </row>
-    <row r="36" spans="1:11" ht="21" customHeight="1">
+    <row r="36" spans="1:11" ht="21" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A36" s="12"/>
       <c r="B36" s="13" t="s">
         <v>21</v>
@@ -5125,7 +5134,7 @@
         <v>109</v>
       </c>
     </row>
-    <row r="37" spans="1:11" ht="21" customHeight="1">
+    <row r="37" spans="1:11" ht="21" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A37" s="12">
         <v>41480</v>
       </c>
@@ -5161,7 +5170,7 @@
         <v>112</v>
       </c>
     </row>
-    <row r="38" spans="1:11" ht="21" customHeight="1">
+    <row r="38" spans="1:11" ht="21" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A38" s="12"/>
       <c r="B38" s="13" t="s">
         <v>21</v>
@@ -5195,7 +5204,7 @@
         <v>114</v>
       </c>
     </row>
-    <row r="39" spans="1:11" ht="21" customHeight="1">
+    <row r="39" spans="1:11" ht="21" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A39" s="12">
         <v>41487</v>
       </c>
@@ -5229,7 +5238,7 @@
         <v>119</v>
       </c>
     </row>
-    <row r="40" spans="1:11" ht="21" customHeight="1">
+    <row r="40" spans="1:11" ht="21" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A40" s="12"/>
       <c r="B40" s="13" t="s">
         <v>21</v>
@@ -5263,7 +5272,7 @@
         <v>119</v>
       </c>
     </row>
-    <row r="41" spans="1:11" ht="21" customHeight="1">
+    <row r="41" spans="1:11" ht="21" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A41" s="12">
         <v>41498</v>
       </c>
@@ -5299,7 +5308,7 @@
         <v>116</v>
       </c>
     </row>
-    <row r="42" spans="1:11" ht="21" customHeight="1">
+    <row r="42" spans="1:11" ht="21" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A42" s="12"/>
       <c r="B42" s="13" t="s">
         <v>21</v>
@@ -5333,7 +5342,7 @@
         <v>88</v>
       </c>
     </row>
-    <row r="43" spans="1:11" ht="21" customHeight="1">
+    <row r="43" spans="1:11" ht="21" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A43" s="15"/>
       <c r="B43" s="13" t="s">
         <v>21</v>
@@ -5367,7 +5376,7 @@
         <v>87</v>
       </c>
     </row>
-    <row r="44" spans="1:11" s="122" customFormat="1" ht="21" customHeight="1">
+    <row r="44" spans="1:11" s="122" customFormat="1" ht="21" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A44" s="120">
         <v>41499</v>
       </c>
@@ -5395,7 +5404,7 @@
       </c>
       <c r="K44" s="125"/>
     </row>
-    <row r="45" spans="1:11" s="122" customFormat="1" ht="21" customHeight="1">
+    <row r="45" spans="1:11" s="122" customFormat="1" ht="21" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A45" s="120">
         <v>41522</v>
       </c>
@@ -5423,7 +5432,7 @@
       </c>
       <c r="K45" s="125"/>
     </row>
-    <row r="46" spans="1:11" ht="21" customHeight="1">
+    <row r="46" spans="1:11" ht="21" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A46" s="15">
         <v>41529</v>
       </c>
@@ -5459,7 +5468,7 @@
         <v>87</v>
       </c>
     </row>
-    <row r="47" spans="1:11" ht="21" customHeight="1">
+    <row r="47" spans="1:11" ht="21" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A47" s="15"/>
       <c r="B47" s="13" t="s">
         <v>21</v>
@@ -5493,7 +5502,7 @@
         <v>120</v>
       </c>
     </row>
-    <row r="48" spans="1:11" ht="21" customHeight="1">
+    <row r="48" spans="1:11" ht="21" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A48" s="15"/>
       <c r="B48" s="13" t="s">
         <v>21</v>
@@ -5527,7 +5536,7 @@
         <v>121</v>
       </c>
     </row>
-    <row r="49" spans="1:11" ht="21" customHeight="1">
+    <row r="49" spans="1:11" ht="21" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A49" s="15"/>
       <c r="B49" s="13" t="s">
         <v>21</v>
@@ -5561,7 +5570,7 @@
         <v>122</v>
       </c>
     </row>
-    <row r="50" spans="1:11" ht="21" customHeight="1">
+    <row r="50" spans="1:11" ht="21" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A50" s="15"/>
       <c r="B50" s="13" t="s">
         <v>21</v>
@@ -5595,7 +5604,7 @@
         <v>88</v>
       </c>
     </row>
-    <row r="51" spans="1:11" ht="21" customHeight="1">
+    <row r="51" spans="1:11" ht="21" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A51" s="15">
         <v>41543</v>
       </c>
@@ -5631,7 +5640,7 @@
         <v>124</v>
       </c>
     </row>
-    <row r="52" spans="1:11" ht="21" customHeight="1">
+    <row r="52" spans="1:11" ht="21" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A52" s="15"/>
       <c r="B52" s="13" t="s">
         <v>21</v>
@@ -5665,7 +5674,7 @@
         <v>125</v>
       </c>
     </row>
-    <row r="53" spans="1:11" ht="21" customHeight="1">
+    <row r="53" spans="1:11" ht="21" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A53" s="15"/>
       <c r="B53" s="13" t="s">
         <v>21</v>
@@ -5699,7 +5708,7 @@
         <v>126</v>
       </c>
     </row>
-    <row r="54" spans="1:11" s="122" customFormat="1" ht="21" customHeight="1">
+    <row r="54" spans="1:11" s="122" customFormat="1" ht="21" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A54" s="120">
         <v>41549</v>
       </c>
@@ -5727,7 +5736,7 @@
       </c>
       <c r="K54" s="125"/>
     </row>
-    <row r="55" spans="1:11" ht="21" customHeight="1">
+    <row r="55" spans="1:11" ht="21" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A55" s="15">
         <v>41558</v>
       </c>
@@ -5763,7 +5772,7 @@
         <v>130</v>
       </c>
     </row>
-    <row r="56" spans="1:11" ht="21" customHeight="1">
+    <row r="56" spans="1:11" ht="21" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A56" s="15">
         <v>41566</v>
       </c>
@@ -5799,7 +5808,7 @@
         <v>120</v>
       </c>
     </row>
-    <row r="57" spans="1:11" ht="21" customHeight="1">
+    <row r="57" spans="1:11" ht="21" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A57" s="15"/>
       <c r="B57" s="13" t="s">
         <v>21</v>
@@ -5833,7 +5842,7 @@
         <v>131</v>
       </c>
     </row>
-    <row r="58" spans="1:11" ht="21" customHeight="1">
+    <row r="58" spans="1:11" ht="21" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A58" s="15"/>
       <c r="B58" s="13" t="s">
         <v>21</v>
@@ -5867,7 +5876,7 @@
         <v>119</v>
       </c>
     </row>
-    <row r="59" spans="1:11" ht="21" customHeight="1">
+    <row r="59" spans="1:11" ht="21" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A59" s="15">
         <v>41570</v>
       </c>
@@ -5903,7 +5912,7 @@
         <v>132</v>
       </c>
     </row>
-    <row r="60" spans="1:11" ht="21" customHeight="1">
+    <row r="60" spans="1:11" ht="21" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A60" s="15">
         <v>41571</v>
       </c>
@@ -5939,7 +5948,7 @@
         <v>133</v>
       </c>
     </row>
-    <row r="61" spans="1:11" ht="21" customHeight="1">
+    <row r="61" spans="1:11" ht="21" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A61" s="15">
         <v>41575</v>
       </c>
@@ -5975,7 +5984,7 @@
         <v>130</v>
       </c>
     </row>
-    <row r="62" spans="1:11" ht="21" customHeight="1">
+    <row r="62" spans="1:11" ht="21" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A62" s="15"/>
       <c r="B62" s="13" t="s">
         <v>21</v>
@@ -6009,7 +6018,7 @@
         <v>116</v>
       </c>
     </row>
-    <row r="63" spans="1:11" ht="30.75" customHeight="1">
+    <row r="63" spans="1:11" ht="30.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A63" s="15"/>
       <c r="B63" s="13" t="s">
         <v>21</v>
@@ -6043,7 +6052,7 @@
         <v>139</v>
       </c>
     </row>
-    <row r="64" spans="1:11" s="122" customFormat="1" ht="21" customHeight="1">
+    <row r="64" spans="1:11" s="122" customFormat="1" ht="21" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A64" s="120">
         <v>41586</v>
       </c>
@@ -6071,7 +6080,7 @@
       </c>
       <c r="K64" s="125"/>
     </row>
-    <row r="65" spans="1:11" ht="21" customHeight="1">
+    <row r="65" spans="1:11" ht="21" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A65" s="15">
         <v>41584</v>
       </c>
@@ -6107,7 +6116,7 @@
         <v>140</v>
       </c>
     </row>
-    <row r="66" spans="1:11" ht="21" customHeight="1">
+    <row r="66" spans="1:11" ht="21" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A66" s="15">
         <v>41610</v>
       </c>
@@ -6143,7 +6152,7 @@
         <v>144</v>
       </c>
     </row>
-    <row r="67" spans="1:11" ht="21" customHeight="1">
+    <row r="67" spans="1:11" ht="21" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A67" s="15"/>
       <c r="B67" s="13" t="s">
         <v>21</v>
@@ -6177,7 +6186,7 @@
         <v>145</v>
       </c>
     </row>
-    <row r="68" spans="1:11" ht="21" customHeight="1">
+    <row r="68" spans="1:11" ht="21" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A68" s="15"/>
       <c r="B68" s="13" t="s">
         <v>21</v>
@@ -6211,7 +6220,7 @@
         <v>76</v>
       </c>
     </row>
-    <row r="69" spans="1:11" ht="21" customHeight="1">
+    <row r="69" spans="1:11" ht="21" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A69" s="15"/>
       <c r="B69" s="13" t="s">
         <v>21</v>
@@ -6245,7 +6254,7 @@
         <v>119</v>
       </c>
     </row>
-    <row r="70" spans="1:11" ht="21" customHeight="1">
+    <row r="70" spans="1:11" ht="21" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A70" s="15"/>
       <c r="B70" s="13" t="s">
         <v>21</v>
@@ -6279,7 +6288,7 @@
         <v>74</v>
       </c>
     </row>
-    <row r="71" spans="1:11" ht="21" customHeight="1">
+    <row r="71" spans="1:11" ht="21" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A71" s="15"/>
       <c r="B71" s="13" t="s">
         <v>21</v>
@@ -6313,7 +6322,7 @@
         <v>146</v>
       </c>
     </row>
-    <row r="72" spans="1:11" ht="21" customHeight="1">
+    <row r="72" spans="1:11" ht="21" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A72" s="15"/>
       <c r="B72" s="13" t="s">
         <v>21</v>
@@ -6347,7 +6356,7 @@
         <v>147</v>
       </c>
     </row>
-    <row r="73" spans="1:11" ht="21" customHeight="1">
+    <row r="73" spans="1:11" ht="21" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A73" s="15">
         <v>41628</v>
       </c>
@@ -6383,7 +6392,7 @@
         <v>148</v>
       </c>
     </row>
-    <row r="74" spans="1:11" ht="21" customHeight="1">
+    <row r="74" spans="1:11" ht="21" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A74" s="15"/>
       <c r="B74" s="13" t="s">
         <v>21</v>
@@ -6417,7 +6426,7 @@
         <v>149</v>
       </c>
     </row>
-    <row r="75" spans="1:11" ht="21" customHeight="1">
+    <row r="75" spans="1:11" ht="21" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A75" s="15">
         <v>41636</v>
       </c>
@@ -6453,7 +6462,7 @@
         <v>155</v>
       </c>
     </row>
-    <row r="76" spans="1:11" ht="21" customHeight="1">
+    <row r="76" spans="1:11" ht="21" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A76" s="15"/>
       <c r="B76" s="13" t="s">
         <v>21</v>
@@ -6487,7 +6496,7 @@
         <v>156</v>
       </c>
     </row>
-    <row r="77" spans="1:11" ht="21" customHeight="1">
+    <row r="77" spans="1:11" ht="21" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A77" s="15"/>
       <c r="B77" s="13" t="s">
         <v>21</v>
@@ -6521,7 +6530,7 @@
         <v>158</v>
       </c>
     </row>
-    <row r="78" spans="1:11" s="122" customFormat="1" ht="21" customHeight="1">
+    <row r="78" spans="1:11" s="122" customFormat="1" ht="21" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A78" s="120">
         <v>41620</v>
       </c>
@@ -6549,7 +6558,7 @@
       </c>
       <c r="K78" s="125"/>
     </row>
-    <row r="79" spans="1:11" s="122" customFormat="1" ht="21" customHeight="1">
+    <row r="79" spans="1:11" s="122" customFormat="1" ht="21" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A79" s="120">
         <v>41655</v>
       </c>
@@ -6577,7 +6586,7 @@
       </c>
       <c r="K79" s="125"/>
     </row>
-    <row r="80" spans="1:11" s="122" customFormat="1" ht="21" customHeight="1">
+    <row r="80" spans="1:11" s="122" customFormat="1" ht="21" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A80" s="120"/>
       <c r="B80" s="123" t="s">
         <v>159</v>
@@ -6603,7 +6612,7 @@
       </c>
       <c r="K80" s="125"/>
     </row>
-    <row r="81" spans="1:11" ht="21" customHeight="1">
+    <row r="81" spans="1:11" ht="21" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A81" s="15">
         <v>41646</v>
       </c>
@@ -6639,7 +6648,7 @@
         <v>145</v>
       </c>
     </row>
-    <row r="82" spans="1:11" ht="21" customHeight="1">
+    <row r="82" spans="1:11" ht="21" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A82" s="15"/>
       <c r="B82" s="23" t="s">
         <v>57</v>
@@ -6673,7 +6682,7 @@
         <v>76</v>
       </c>
     </row>
-    <row r="83" spans="1:11" ht="21" customHeight="1">
+    <row r="83" spans="1:11" ht="21" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A83" s="15"/>
       <c r="B83" s="23" t="s">
         <v>57</v>
@@ -6707,7 +6716,7 @@
         <v>162</v>
       </c>
     </row>
-    <row r="84" spans="1:11" ht="21" customHeight="1">
+    <row r="84" spans="1:11" ht="21" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A84" s="15"/>
       <c r="B84" s="23" t="s">
         <v>57</v>
@@ -6741,7 +6750,7 @@
         <v>163</v>
       </c>
     </row>
-    <row r="85" spans="1:11" ht="21" customHeight="1">
+    <row r="85" spans="1:11" ht="21" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A85" s="15">
         <v>41650</v>
       </c>
@@ -6777,7 +6786,7 @@
         <v>165</v>
       </c>
     </row>
-    <row r="86" spans="1:11" ht="21" customHeight="1">
+    <row r="86" spans="1:11" ht="21" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A86" s="15"/>
       <c r="B86" s="23" t="s">
         <v>57</v>
@@ -6811,7 +6820,7 @@
         <v>166</v>
       </c>
     </row>
-    <row r="87" spans="1:11" ht="21" customHeight="1">
+    <row r="87" spans="1:11" ht="21" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A87" s="15"/>
       <c r="B87" s="23" t="s">
         <v>57</v>
@@ -6845,7 +6854,7 @@
         <v>167</v>
       </c>
     </row>
-    <row r="88" spans="1:11" ht="21" customHeight="1">
+    <row r="88" spans="1:11" ht="21" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A88" s="15"/>
       <c r="B88" s="23" t="s">
         <v>57</v>
@@ -6879,7 +6888,7 @@
         <v>168</v>
       </c>
     </row>
-    <row r="89" spans="1:11" ht="21" customHeight="1">
+    <row r="89" spans="1:11" ht="21" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A89" s="15"/>
       <c r="B89" s="23" t="s">
         <v>57</v>
@@ -6913,7 +6922,7 @@
         <v>169</v>
       </c>
     </row>
-    <row r="90" spans="1:11" ht="21" customHeight="1">
+    <row r="90" spans="1:11" ht="21" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A90" s="15">
         <v>41680</v>
       </c>
@@ -6949,7 +6958,7 @@
         <v>167</v>
       </c>
     </row>
-    <row r="91" spans="1:11" ht="21" customHeight="1">
+    <row r="91" spans="1:11" ht="21" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A91" s="15">
         <v>41689</v>
       </c>
@@ -6985,7 +6994,7 @@
         <v>76</v>
       </c>
     </row>
-    <row r="92" spans="1:11" ht="21" customHeight="1">
+    <row r="92" spans="1:11" ht="21" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A92" s="15"/>
       <c r="B92" s="23" t="s">
         <v>57</v>
@@ -7019,7 +7028,7 @@
         <v>145</v>
       </c>
     </row>
-    <row r="93" spans="1:11" ht="21" customHeight="1">
+    <row r="93" spans="1:11" ht="21" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A93" s="15">
         <v>41697</v>
       </c>
@@ -7053,7 +7062,7 @@
         <v>171</v>
       </c>
     </row>
-    <row r="94" spans="1:11" s="122" customFormat="1" ht="21" customHeight="1">
+    <row r="94" spans="1:11" s="122" customFormat="1" ht="21" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A94" s="120">
         <v>41698</v>
       </c>
@@ -7081,7 +7090,7 @@
       </c>
       <c r="K94" s="125"/>
     </row>
-    <row r="95" spans="1:11" ht="21" customHeight="1">
+    <row r="95" spans="1:11" ht="21" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A95" s="15">
         <v>41702</v>
       </c>
@@ -7117,7 +7126,7 @@
         <v>165</v>
       </c>
     </row>
-    <row r="96" spans="1:11" ht="21" customHeight="1">
+    <row r="96" spans="1:11" ht="21" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A96" s="15"/>
       <c r="B96" s="23" t="s">
         <v>57</v>
@@ -7151,7 +7160,7 @@
         <v>166</v>
       </c>
     </row>
-    <row r="97" spans="1:11" ht="21" customHeight="1">
+    <row r="97" spans="1:11" ht="21" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A97" s="15">
         <v>41715</v>
       </c>
@@ -7187,7 +7196,7 @@
         <v>172</v>
       </c>
     </row>
-    <row r="98" spans="1:11" ht="21" customHeight="1">
+    <row r="98" spans="1:11" ht="21" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A98" s="15"/>
       <c r="B98" s="23" t="s">
         <v>57</v>
@@ -7221,7 +7230,7 @@
         <v>107</v>
       </c>
     </row>
-    <row r="99" spans="1:11" ht="21" customHeight="1">
+    <row r="99" spans="1:11" ht="21" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A99" s="15">
         <v>41724</v>
       </c>
@@ -7257,7 +7266,7 @@
         <v>177</v>
       </c>
     </row>
-    <row r="100" spans="1:11" ht="21" customHeight="1">
+    <row r="100" spans="1:11" ht="21" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A100" s="15">
         <v>41729</v>
       </c>
@@ -7293,7 +7302,7 @@
         <v>173</v>
       </c>
     </row>
-    <row r="101" spans="1:11" ht="21" customHeight="1">
+    <row r="101" spans="1:11" ht="21" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A101" s="15"/>
       <c r="B101" s="23" t="s">
         <v>57</v>
@@ -7327,7 +7336,7 @@
         <v>174</v>
       </c>
     </row>
-    <row r="102" spans="1:11" ht="21" customHeight="1">
+    <row r="102" spans="1:11" ht="21" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A102" s="15">
         <v>41737</v>
       </c>
@@ -7364,7 +7373,7 @@
         <v>172</v>
       </c>
     </row>
-    <row r="103" spans="1:11" ht="21" customHeight="1">
+    <row r="103" spans="1:11" ht="21" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A103" s="15"/>
       <c r="B103" s="23" t="s">
         <v>57</v>
@@ -7398,7 +7407,7 @@
         <v>176</v>
       </c>
     </row>
-    <row r="104" spans="1:11" ht="21" customHeight="1">
+    <row r="104" spans="1:11" ht="21" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A104" s="15">
         <v>41745</v>
       </c>
@@ -7434,7 +7443,7 @@
         <v>180</v>
       </c>
     </row>
-    <row r="105" spans="1:11" s="122" customFormat="1" ht="21" customHeight="1">
+    <row r="105" spans="1:11" s="122" customFormat="1" ht="21" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A105" s="120">
         <v>41766</v>
       </c>
@@ -7462,7 +7471,7 @@
       </c>
       <c r="K105" s="125"/>
     </row>
-    <row r="106" spans="1:11" ht="21" customHeight="1">
+    <row r="106" spans="1:11" ht="21" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A106" s="15">
         <v>41774</v>
       </c>
@@ -7498,7 +7507,7 @@
         <v>191</v>
       </c>
     </row>
-    <row r="107" spans="1:11" ht="21" customHeight="1">
+    <row r="107" spans="1:11" ht="21" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A107" s="15"/>
       <c r="B107" s="23" t="s">
         <v>57</v>
@@ -7532,7 +7541,7 @@
         <v>190</v>
       </c>
     </row>
-    <row r="108" spans="1:11" ht="21" customHeight="1">
+    <row r="108" spans="1:11" ht="21" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A108" s="15"/>
       <c r="B108" s="23" t="s">
         <v>57</v>
@@ -7566,7 +7575,7 @@
         <v>189</v>
       </c>
     </row>
-    <row r="109" spans="1:11" ht="21" customHeight="1">
+    <row r="109" spans="1:11" ht="21" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A109" s="15"/>
       <c r="B109" s="23" t="s">
         <v>57</v>
@@ -7600,7 +7609,7 @@
         <v>188</v>
       </c>
     </row>
-    <row r="110" spans="1:11" ht="21" customHeight="1">
+    <row r="110" spans="1:11" ht="21" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A110" s="15"/>
       <c r="B110" s="23" t="s">
         <v>57</v>
@@ -7634,7 +7643,7 @@
         <v>187</v>
       </c>
     </row>
-    <row r="111" spans="1:11" ht="21" customHeight="1">
+    <row r="111" spans="1:11" ht="21" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A111" s="15"/>
       <c r="B111" s="23" t="s">
         <v>57</v>
@@ -7668,7 +7677,7 @@
         <v>185</v>
       </c>
     </row>
-    <row r="112" spans="1:11" ht="21" customHeight="1">
+    <row r="112" spans="1:11" ht="21" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A112" s="15">
         <v>41790</v>
       </c>
@@ -7704,7 +7713,7 @@
         <v>193</v>
       </c>
     </row>
-    <row r="113" spans="1:11" ht="21" customHeight="1">
+    <row r="113" spans="1:11" ht="21" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A113" s="15"/>
       <c r="B113" s="23" t="s">
         <v>57</v>
@@ -7738,7 +7747,7 @@
         <v>173</v>
       </c>
     </row>
-    <row r="114" spans="1:11" s="122" customFormat="1" ht="21" customHeight="1">
+    <row r="114" spans="1:11" s="122" customFormat="1" ht="21" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A114" s="120">
         <v>41795</v>
       </c>
@@ -7766,7 +7775,7 @@
       </c>
       <c r="K114" s="125"/>
     </row>
-    <row r="115" spans="1:11" ht="21" customHeight="1">
+    <row r="115" spans="1:11" ht="21" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A115" s="15">
         <v>41802</v>
       </c>
@@ -7800,7 +7809,7 @@
         <v>171</v>
       </c>
     </row>
-    <row r="116" spans="1:11" ht="21" customHeight="1">
+    <row r="116" spans="1:11" ht="21" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A116" s="15">
         <v>41804</v>
       </c>
@@ -7836,7 +7845,7 @@
         <v>194</v>
       </c>
     </row>
-    <row r="117" spans="1:11" ht="21" customHeight="1">
+    <row r="117" spans="1:11" ht="21" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A117" s="15"/>
       <c r="B117" s="23" t="s">
         <v>57</v>
@@ -7870,7 +7879,7 @@
         <v>195</v>
       </c>
     </row>
-    <row r="118" spans="1:11" ht="21" customHeight="1">
+    <row r="118" spans="1:11" ht="21" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A118" s="15"/>
       <c r="B118" s="23" t="s">
         <v>57</v>
@@ -7904,7 +7913,7 @@
         <v>73</v>
       </c>
     </row>
-    <row r="119" spans="1:11" ht="21" customHeight="1">
+    <row r="119" spans="1:11" ht="21" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A119" s="15">
         <v>41814</v>
       </c>
@@ -7940,7 +7949,7 @@
         <v>196</v>
       </c>
     </row>
-    <row r="120" spans="1:11" ht="21" customHeight="1">
+    <row r="120" spans="1:11" ht="21" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A120" s="15">
         <v>41825</v>
       </c>
@@ -7976,7 +7985,7 @@
         <v>197</v>
       </c>
     </row>
-    <row r="121" spans="1:11" s="122" customFormat="1" ht="21" customHeight="1">
+    <row r="121" spans="1:11" s="122" customFormat="1" ht="21" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A121" s="120">
         <v>41837</v>
       </c>
@@ -8004,7 +8013,7 @@
       </c>
       <c r="K121" s="125"/>
     </row>
-    <row r="122" spans="1:11" ht="21" customHeight="1">
+    <row r="122" spans="1:11" ht="21" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A122" s="15">
         <v>41847</v>
       </c>
@@ -8040,7 +8049,7 @@
         <v>214</v>
       </c>
     </row>
-    <row r="123" spans="1:11" s="122" customFormat="1" ht="21" customHeight="1">
+    <row r="123" spans="1:11" s="122" customFormat="1" ht="21" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A123" s="120">
         <v>41880</v>
       </c>
@@ -8068,7 +8077,7 @@
       </c>
       <c r="K123" s="125"/>
     </row>
-    <row r="124" spans="1:11" ht="21" customHeight="1">
+    <row r="124" spans="1:11" ht="21" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A124" s="15">
         <v>41878</v>
       </c>
@@ -8104,7 +8113,7 @@
         <v>218</v>
       </c>
     </row>
-    <row r="125" spans="1:11" ht="21" customHeight="1">
+    <row r="125" spans="1:11" ht="21" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A125" s="15">
         <v>41887</v>
       </c>
@@ -8138,7 +8147,7 @@
       </c>
       <c r="K125" s="28"/>
     </row>
-    <row r="126" spans="1:11" ht="21" customHeight="1">
+    <row r="126" spans="1:11" ht="21" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A126" s="15"/>
       <c r="B126" s="23" t="s">
         <v>57</v>
@@ -8170,7 +8179,7 @@
       </c>
       <c r="K126" s="28"/>
     </row>
-    <row r="127" spans="1:11" ht="21" customHeight="1">
+    <row r="127" spans="1:11" ht="21" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A127" s="15">
         <v>41894</v>
       </c>
@@ -8204,7 +8213,7 @@
       </c>
       <c r="K127" s="28"/>
     </row>
-    <row r="128" spans="1:11" ht="21" customHeight="1">
+    <row r="128" spans="1:11" ht="21" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A128" s="15">
         <v>41898</v>
       </c>
@@ -8238,7 +8247,7 @@
       </c>
       <c r="K128" s="28"/>
     </row>
-    <row r="129" spans="1:11" ht="21" customHeight="1">
+    <row r="129" spans="1:11" ht="21" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A129" s="15">
         <v>41906</v>
       </c>
@@ -8274,7 +8283,7 @@
         <v>220</v>
       </c>
     </row>
-    <row r="130" spans="1:11" ht="21" customHeight="1">
+    <row r="130" spans="1:11" ht="21" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A130" s="15"/>
       <c r="B130" s="23" t="s">
         <v>57</v>
@@ -8308,7 +8317,7 @@
         <v>221</v>
       </c>
     </row>
-    <row r="131" spans="1:11" ht="21" customHeight="1">
+    <row r="131" spans="1:11" ht="21" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A131" s="15"/>
       <c r="B131" s="23" t="s">
         <v>57</v>
@@ -8342,7 +8351,7 @@
         <v>223</v>
       </c>
     </row>
-    <row r="132" spans="1:11" s="122" customFormat="1" ht="21" customHeight="1">
+    <row r="132" spans="1:11" s="122" customFormat="1" ht="21" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A132" s="120"/>
       <c r="B132" s="123" t="s">
         <v>6</v>
@@ -8368,7 +8377,7 @@
         <v>68876250</v>
       </c>
     </row>
-    <row r="133" spans="1:11" ht="21" customHeight="1">
+    <row r="133" spans="1:11" ht="21" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A133" s="15">
         <v>41930</v>
       </c>
@@ -8402,7 +8411,7 @@
       </c>
       <c r="K133" s="28"/>
     </row>
-    <row r="134" spans="1:11" ht="21" customHeight="1">
+    <row r="134" spans="1:11" ht="21" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A134" s="15">
         <v>41960</v>
       </c>
@@ -8436,7 +8445,7 @@
       </c>
       <c r="K134" s="28"/>
     </row>
-    <row r="135" spans="1:11" ht="21" customHeight="1">
+    <row r="135" spans="1:11" ht="21" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A135" s="15">
         <v>41967</v>
       </c>
@@ -8470,7 +8479,7 @@
       </c>
       <c r="K135" s="28"/>
     </row>
-    <row r="136" spans="1:11" ht="21" customHeight="1">
+    <row r="136" spans="1:11" ht="21" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A136" s="15">
         <v>41983</v>
       </c>
@@ -8506,7 +8515,7 @@
         <v>165</v>
       </c>
     </row>
-    <row r="137" spans="1:11" ht="21" customHeight="1">
+    <row r="137" spans="1:11" ht="21" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A137" s="15"/>
       <c r="B137" s="23" t="s">
         <v>57</v>
@@ -8540,7 +8549,7 @@
         <v>197</v>
       </c>
     </row>
-    <row r="138" spans="1:11" ht="21" customHeight="1">
+    <row r="138" spans="1:11" ht="21" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A138" s="15"/>
       <c r="B138" s="23" t="s">
         <v>57</v>
@@ -8574,7 +8583,7 @@
         <v>166</v>
       </c>
     </row>
-    <row r="139" spans="1:11" ht="21" customHeight="1">
+    <row r="139" spans="1:11" ht="21" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A139" s="15"/>
       <c r="B139" s="30" t="s">
         <v>216</v>
@@ -8606,7 +8615,7 @@
       </c>
       <c r="K139" s="28"/>
     </row>
-    <row r="140" spans="1:11" s="122" customFormat="1" ht="21" customHeight="1">
+    <row r="140" spans="1:11" s="122" customFormat="1" ht="21" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A140" s="120">
         <v>41997</v>
       </c>
@@ -8634,7 +8643,7 @@
       </c>
       <c r="K140" s="125"/>
     </row>
-    <row r="141" spans="1:11" ht="21" customHeight="1">
+    <row r="141" spans="1:11" ht="21" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A141" s="15">
         <v>41997</v>
       </c>
@@ -8668,7 +8677,7 @@
       </c>
       <c r="K141" s="28"/>
     </row>
-    <row r="142" spans="1:11" ht="21" customHeight="1">
+    <row r="142" spans="1:11" ht="21" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A142" s="15">
         <v>41997</v>
       </c>
@@ -8702,7 +8711,7 @@
       </c>
       <c r="K142" s="28"/>
     </row>
-    <row r="143" spans="1:11" ht="21" customHeight="1">
+    <row r="143" spans="1:11" ht="21" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A143" s="15">
         <v>42019</v>
       </c>
@@ -8736,7 +8745,7 @@
       </c>
       <c r="K143" s="28"/>
     </row>
-    <row r="144" spans="1:11" ht="21" customHeight="1">
+    <row r="144" spans="1:11" ht="21" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A144" s="15"/>
       <c r="B144" s="23" t="s">
         <v>57</v>
@@ -8766,7 +8775,7 @@
       </c>
       <c r="K144" s="28"/>
     </row>
-    <row r="145" spans="1:11" ht="21" customHeight="1">
+    <row r="145" spans="1:11" ht="21" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A145" s="15"/>
       <c r="B145" s="23" t="s">
         <v>57</v>
@@ -8798,7 +8807,7 @@
       </c>
       <c r="K145" s="28"/>
     </row>
-    <row r="146" spans="1:11" s="122" customFormat="1" ht="21" customHeight="1">
+    <row r="146" spans="1:11" s="122" customFormat="1" ht="21" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A146" s="120">
         <v>42049</v>
       </c>
@@ -8826,7 +8835,7 @@
       </c>
       <c r="K146" s="125"/>
     </row>
-    <row r="147" spans="1:11" ht="21" customHeight="1">
+    <row r="147" spans="1:11" ht="21" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A147" s="15">
         <v>42080</v>
       </c>
@@ -8860,7 +8869,7 @@
       </c>
       <c r="K147" s="28"/>
     </row>
-    <row r="148" spans="1:11" ht="21" customHeight="1">
+    <row r="148" spans="1:11" ht="21" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A148" s="15"/>
       <c r="B148" s="23" t="s">
         <v>57</v>
@@ -8892,7 +8901,7 @@
       </c>
       <c r="K148" s="28"/>
     </row>
-    <row r="149" spans="1:11" ht="21" customHeight="1">
+    <row r="149" spans="1:11" ht="21" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A149" s="15">
         <v>42079</v>
       </c>
@@ -8928,7 +8937,7 @@
         <v>76</v>
       </c>
     </row>
-    <row r="150" spans="1:11" ht="21" customHeight="1">
+    <row r="150" spans="1:11" ht="21" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A150" s="15"/>
       <c r="B150" s="23" t="s">
         <v>57</v>
@@ -8962,7 +8971,7 @@
         <v>265</v>
       </c>
     </row>
-    <row r="151" spans="1:11" ht="21" customHeight="1">
+    <row r="151" spans="1:11" ht="21" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A151" s="15">
         <v>42088</v>
       </c>
@@ -8996,7 +9005,7 @@
       </c>
       <c r="K151" s="28"/>
     </row>
-    <row r="152" spans="1:11" s="122" customFormat="1" ht="21" customHeight="1">
+    <row r="152" spans="1:11" s="122" customFormat="1" ht="21" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A152" s="120">
         <v>42098</v>
       </c>
@@ -9024,7 +9033,7 @@
       </c>
       <c r="K152" s="125"/>
     </row>
-    <row r="153" spans="1:11" ht="21" customHeight="1">
+    <row r="153" spans="1:11" ht="21" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A153" s="15">
         <v>42109</v>
       </c>
@@ -9058,7 +9067,7 @@
       </c>
       <c r="K153" s="28"/>
     </row>
-    <row r="154" spans="1:11" ht="21" customHeight="1">
+    <row r="154" spans="1:11" ht="21" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A154" s="15">
         <v>42136</v>
       </c>
@@ -9092,7 +9101,7 @@
       </c>
       <c r="K154" s="28"/>
     </row>
-    <row r="155" spans="1:11" ht="21" customHeight="1">
+    <row r="155" spans="1:11" ht="21" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A155" s="15"/>
       <c r="B155" s="23" t="s">
         <v>57</v>
@@ -9124,7 +9133,7 @@
       </c>
       <c r="K155" s="28"/>
     </row>
-    <row r="156" spans="1:11" ht="21" customHeight="1">
+    <row r="156" spans="1:11" ht="21" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A156" s="15">
         <v>42140</v>
       </c>
@@ -9158,7 +9167,7 @@
       </c>
       <c r="K156" s="28"/>
     </row>
-    <row r="157" spans="1:11" ht="21" customHeight="1">
+    <row r="157" spans="1:11" ht="21" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A157" s="15"/>
       <c r="B157" s="23" t="s">
         <v>57</v>
@@ -9190,7 +9199,7 @@
       </c>
       <c r="K157" s="28"/>
     </row>
-    <row r="158" spans="1:11" s="122" customFormat="1" ht="21" customHeight="1">
+    <row r="158" spans="1:11" s="122" customFormat="1" ht="21" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A158" s="120">
         <v>42146</v>
       </c>
@@ -9218,7 +9227,7 @@
       </c>
       <c r="K158" s="125"/>
     </row>
-    <row r="159" spans="1:11" ht="21" customHeight="1">
+    <row r="159" spans="1:11" ht="21" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A159" s="15">
         <v>42152</v>
       </c>
@@ -9252,7 +9261,7 @@
       </c>
       <c r="K159" s="28"/>
     </row>
-    <row r="160" spans="1:11" ht="21" customHeight="1">
+    <row r="160" spans="1:11" ht="21" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A160" s="15"/>
       <c r="B160" s="23" t="s">
         <v>57</v>
@@ -9284,7 +9293,7 @@
       </c>
       <c r="K160" s="28"/>
     </row>
-    <row r="161" spans="1:11" ht="21" customHeight="1">
+    <row r="161" spans="1:11" ht="21" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A161" s="15">
         <v>42160</v>
       </c>
@@ -9318,7 +9327,7 @@
       </c>
       <c r="K161" s="28"/>
     </row>
-    <row r="162" spans="1:11" s="122" customFormat="1" ht="21" customHeight="1">
+    <row r="162" spans="1:11" s="122" customFormat="1" ht="21" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A162" s="120">
         <v>42184</v>
       </c>
@@ -9346,7 +9355,7 @@
       </c>
       <c r="K162" s="125"/>
     </row>
-    <row r="163" spans="1:11" ht="21" customHeight="1">
+    <row r="163" spans="1:11" ht="21" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A163" s="15">
         <v>42205</v>
       </c>
@@ -9380,7 +9389,7 @@
       </c>
       <c r="K163" s="28"/>
     </row>
-    <row r="164" spans="1:11" ht="21" customHeight="1">
+    <row r="164" spans="1:11" ht="21" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A164" s="15"/>
       <c r="B164" s="23" t="s">
         <v>57</v>
@@ -9412,7 +9421,7 @@
       </c>
       <c r="K164" s="28"/>
     </row>
-    <row r="165" spans="1:11" ht="21" customHeight="1">
+    <row r="165" spans="1:11" ht="21" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A165" s="15"/>
       <c r="B165" s="23" t="s">
         <v>57</v>
@@ -9444,7 +9453,7 @@
       </c>
       <c r="K165" s="28"/>
     </row>
-    <row r="166" spans="1:11" s="122" customFormat="1" ht="21" customHeight="1">
+    <row r="166" spans="1:11" s="122" customFormat="1" ht="21" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A166" s="120">
         <v>42213</v>
       </c>
@@ -9472,7 +9481,7 @@
       </c>
       <c r="K166" s="125"/>
     </row>
-    <row r="167" spans="1:11" ht="21" customHeight="1">
+    <row r="167" spans="1:11" ht="21" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A167" s="15">
         <v>42215</v>
       </c>
@@ -9508,7 +9517,7 @@
         <v>272</v>
       </c>
     </row>
-    <row r="168" spans="1:11" ht="21" customHeight="1">
+    <row r="168" spans="1:11" ht="21" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A168" s="15"/>
       <c r="B168" s="23" t="s">
         <v>57</v>
@@ -9542,7 +9551,7 @@
         <v>272</v>
       </c>
     </row>
-    <row r="169" spans="1:11" ht="21" customHeight="1">
+    <row r="169" spans="1:11" ht="21" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A169" s="15"/>
       <c r="B169" s="23" t="s">
         <v>57</v>
@@ -9574,7 +9583,7 @@
       </c>
       <c r="K169" s="28"/>
     </row>
-    <row r="170" spans="1:11" ht="21" customHeight="1">
+    <row r="170" spans="1:11" ht="21" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A170" s="15"/>
       <c r="B170" s="23" t="s">
         <v>57</v>
@@ -9606,7 +9615,7 @@
       </c>
       <c r="K170" s="28"/>
     </row>
-    <row r="171" spans="1:11" ht="21" customHeight="1">
+    <row r="171" spans="1:11" ht="21" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A171" s="15">
         <v>42230</v>
       </c>
@@ -9642,7 +9651,7 @@
         <v>275</v>
       </c>
     </row>
-    <row r="172" spans="1:11" ht="21" customHeight="1">
+    <row r="172" spans="1:11" ht="21" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A172" s="15">
         <v>42262</v>
       </c>
@@ -9676,7 +9685,7 @@
       </c>
       <c r="K172" s="28"/>
     </row>
-    <row r="173" spans="1:11" ht="21" customHeight="1">
+    <row r="173" spans="1:11" ht="21" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A173" s="15">
         <v>42269</v>
       </c>
@@ -9710,7 +9719,7 @@
       </c>
       <c r="K173" s="28"/>
     </row>
-    <row r="174" spans="1:11" ht="21" customHeight="1">
+    <row r="174" spans="1:11" ht="21" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A174" s="15">
         <v>42269</v>
       </c>
@@ -9744,7 +9753,7 @@
       </c>
       <c r="K174" s="28"/>
     </row>
-    <row r="175" spans="1:11" s="122" customFormat="1" ht="21" customHeight="1">
+    <row r="175" spans="1:11" s="122" customFormat="1" ht="21" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A175" s="120">
         <v>42278</v>
       </c>
@@ -9772,7 +9781,7 @@
       </c>
       <c r="K175" s="125"/>
     </row>
-    <row r="176" spans="1:11" ht="21" customHeight="1">
+    <row r="176" spans="1:11" ht="21" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A176" s="15">
         <v>42301</v>
       </c>
@@ -9808,7 +9817,7 @@
         <v>282</v>
       </c>
     </row>
-    <row r="177" spans="1:11" ht="21" customHeight="1">
+    <row r="177" spans="1:11" ht="21" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A177" s="15"/>
       <c r="B177" s="23" t="s">
         <v>57</v>
@@ -9842,7 +9851,7 @@
         <v>282</v>
       </c>
     </row>
-    <row r="178" spans="1:11" ht="21" customHeight="1">
+    <row r="178" spans="1:11" ht="21" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A178" s="15"/>
       <c r="B178" s="23" t="s">
         <v>57</v>
@@ -9876,7 +9885,7 @@
         <v>282</v>
       </c>
     </row>
-    <row r="179" spans="1:11" s="122" customFormat="1" ht="21" customHeight="1">
+    <row r="179" spans="1:11" s="122" customFormat="1" ht="21" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A179" s="120">
         <v>42320</v>
       </c>
@@ -9904,7 +9913,7 @@
       </c>
       <c r="K179" s="125"/>
     </row>
-    <row r="180" spans="1:11" ht="21" customHeight="1">
+    <row r="180" spans="1:11" ht="21" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A180" s="15">
         <v>42327</v>
       </c>
@@ -9940,7 +9949,7 @@
         <v>282</v>
       </c>
     </row>
-    <row r="181" spans="1:11" ht="21" customHeight="1">
+    <row r="181" spans="1:11" ht="21" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A181" s="15">
         <v>42332</v>
       </c>
@@ -9976,7 +9985,7 @@
         <v>280</v>
       </c>
     </row>
-    <row r="182" spans="1:11" ht="21" customHeight="1">
+    <row r="182" spans="1:11" ht="21" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A182" s="15"/>
       <c r="B182" s="23" t="s">
         <v>57</v>
@@ -10010,7 +10019,7 @@
         <v>281</v>
       </c>
     </row>
-    <row r="183" spans="1:11" s="122" customFormat="1" ht="21" customHeight="1">
+    <row r="183" spans="1:11" s="122" customFormat="1" ht="21" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A183" s="120">
         <v>42349</v>
       </c>
@@ -10038,7 +10047,7 @@
       </c>
       <c r="K183" s="125"/>
     </row>
-    <row r="184" spans="1:11" ht="21" customHeight="1">
+    <row r="184" spans="1:11" ht="21" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A184" s="15">
         <v>42354</v>
       </c>
@@ -10072,7 +10081,7 @@
       </c>
       <c r="K184" s="28"/>
     </row>
-    <row r="185" spans="1:11" ht="21" customHeight="1">
+    <row r="185" spans="1:11" ht="21" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A185" s="15"/>
       <c r="B185" s="23" t="s">
         <v>57</v>
@@ -10104,7 +10113,7 @@
       </c>
       <c r="K185" s="28"/>
     </row>
-    <row r="186" spans="1:11" ht="21" customHeight="1">
+    <row r="186" spans="1:11" ht="21" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A186" s="15"/>
       <c r="B186" s="23" t="s">
         <v>57</v>
@@ -10136,7 +10145,7 @@
       </c>
       <c r="K186" s="28"/>
     </row>
-    <row r="187" spans="1:11" ht="21" customHeight="1">
+    <row r="187" spans="1:11" ht="21" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A187" s="15"/>
       <c r="B187" s="30"/>
       <c r="C187" s="13"/>
@@ -10158,7 +10167,7 @@
       </c>
       <c r="K187" s="28"/>
     </row>
-    <row r="188" spans="1:11" ht="21" customHeight="1">
+    <row r="188" spans="1:11" ht="21" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A188" s="15"/>
       <c r="B188" s="30"/>
       <c r="C188" s="13"/>
@@ -10180,7 +10189,7 @@
       </c>
       <c r="K188" s="28"/>
     </row>
-    <row r="189" spans="1:11" ht="21" customHeight="1">
+    <row r="189" spans="1:11" ht="21" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A189" s="15"/>
       <c r="B189" s="30"/>
       <c r="C189" s="13"/>
@@ -10202,7 +10211,7 @@
       </c>
       <c r="K189" s="28"/>
     </row>
-    <row r="190" spans="1:11" ht="21" customHeight="1">
+    <row r="190" spans="1:11" ht="21" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A190" s="15"/>
       <c r="B190" s="30"/>
       <c r="C190" s="13"/>
@@ -10224,7 +10233,7 @@
       </c>
       <c r="K190" s="28"/>
     </row>
-    <row r="191" spans="1:11" ht="21" customHeight="1">
+    <row r="191" spans="1:11" ht="21" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A191" s="15"/>
       <c r="B191" s="30"/>
       <c r="C191" s="13"/>
@@ -10246,7 +10255,7 @@
       </c>
       <c r="K191" s="28"/>
     </row>
-    <row r="192" spans="1:11" ht="21" customHeight="1">
+    <row r="192" spans="1:11" ht="21" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A192" s="15"/>
       <c r="B192" s="30"/>
       <c r="C192" s="13"/>
@@ -10268,7 +10277,7 @@
       </c>
       <c r="K192" s="28"/>
     </row>
-    <row r="193" spans="1:11" ht="21" customHeight="1">
+    <row r="193" spans="1:11" ht="21" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A193" s="15"/>
       <c r="B193" s="30"/>
       <c r="C193" s="13"/>
@@ -10290,7 +10299,7 @@
       </c>
       <c r="K193" s="28"/>
     </row>
-    <row r="194" spans="1:11" ht="21" customHeight="1">
+    <row r="194" spans="1:11" ht="21" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A194" s="15"/>
       <c r="B194" s="30"/>
       <c r="C194" s="13"/>
@@ -10312,7 +10321,7 @@
       </c>
       <c r="K194" s="28"/>
     </row>
-    <row r="195" spans="1:11" s="18" customFormat="1" ht="21" customHeight="1">
+    <row r="195" spans="1:11" s="18" customFormat="1" ht="21" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A195" s="176" t="s">
         <v>40</v>
       </c>
@@ -10336,7 +10345,7 @@
       </c>
       <c r="K195" s="17"/>
     </row>
-    <row r="196" spans="1:11" ht="21" customHeight="1">
+    <row r="196" spans="1:11" ht="21" customHeight="1" x14ac:dyDescent="0.25">
       <c r="D196" s="4"/>
       <c r="E196" s="4"/>
       <c r="F196" s="5"/>
@@ -10344,7 +10353,7 @@
       <c r="I196" s="4"/>
       <c r="J196" s="4"/>
     </row>
-    <row r="197" spans="1:11" ht="21" customHeight="1">
+    <row r="197" spans="1:11" ht="21" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B197" s="54" t="s">
         <v>41</v>
       </c>
@@ -10364,13 +10373,13 @@
       </c>
       <c r="J197" s="4"/>
     </row>
-    <row r="198" spans="1:11" ht="21" customHeight="1">
+    <row r="198" spans="1:11" ht="21" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B198" s="54" t="s">
         <v>42</v>
       </c>
-      <c r="C198" s="56" t="str">
-        <f>[1]!VND(E197, TRUE)</f>
-        <v>Năm mươi chín triệu, chín trăm chín mươi ngàn, sáu trăm bốn mươi đồng</v>
+      <c r="C198" s="56" t="e">
+        <f ca="1">[1]!VND(E197, TRUE)</f>
+        <v>#NAME?</v>
       </c>
       <c r="D198" s="4"/>
       <c r="E198" s="4"/>
@@ -10379,7 +10388,7 @@
       <c r="I198" s="4"/>
       <c r="J198" s="4"/>
     </row>
-    <row r="199" spans="1:11" ht="21" customHeight="1">
+    <row r="199" spans="1:11" ht="21" customHeight="1" x14ac:dyDescent="0.25">
       <c r="D199" s="4"/>
       <c r="E199" s="4"/>
       <c r="F199" s="5"/>
@@ -10387,7 +10396,7 @@
       <c r="I199" s="4"/>
       <c r="J199" s="4"/>
     </row>
-    <row r="200" spans="1:11" ht="21" customHeight="1">
+    <row r="200" spans="1:11" ht="21" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A200" s="4" t="s">
         <v>47</v>
       </c>
@@ -10401,45 +10410,45 @@
       <c r="I200" s="4"/>
       <c r="J200" s="4"/>
     </row>
-    <row r="201" spans="1:11" ht="21" customHeight="1"/>
-    <row r="202" spans="1:11" ht="21" customHeight="1"/>
-    <row r="203" spans="1:11" ht="21" customHeight="1"/>
-    <row r="204" spans="1:11" ht="21" customHeight="1"/>
-    <row r="205" spans="1:11" ht="21" customHeight="1"/>
-    <row r="206" spans="1:11" ht="21" customHeight="1"/>
-    <row r="207" spans="1:11" ht="21" customHeight="1"/>
-    <row r="208" spans="1:11" ht="21" customHeight="1"/>
-    <row r="209" ht="21" customHeight="1"/>
-    <row r="210" ht="21" customHeight="1"/>
-    <row r="211" ht="21" customHeight="1"/>
-    <row r="212" ht="21" customHeight="1"/>
-    <row r="213" ht="21" customHeight="1"/>
-    <row r="214" ht="21" customHeight="1"/>
-    <row r="215" ht="21" customHeight="1"/>
-    <row r="216" ht="21" customHeight="1"/>
-    <row r="217" ht="21" customHeight="1"/>
-    <row r="218" ht="21" customHeight="1"/>
-    <row r="219" ht="21" customHeight="1"/>
-    <row r="220" ht="21" customHeight="1"/>
-    <row r="221" ht="21" customHeight="1"/>
-    <row r="222" ht="21" customHeight="1"/>
-    <row r="223" ht="21" customHeight="1"/>
-    <row r="224" ht="21" customHeight="1"/>
-    <row r="225" ht="21" customHeight="1"/>
-    <row r="226" ht="21" customHeight="1"/>
+    <row r="201" spans="1:11" ht="21" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="202" spans="1:11" ht="21" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="203" spans="1:11" ht="21" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="204" spans="1:11" ht="21" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="205" spans="1:11" ht="21" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="206" spans="1:11" ht="21" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="207" spans="1:11" ht="21" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="208" spans="1:11" ht="21" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="209" ht="21" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="210" ht="21" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="211" ht="21" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="212" ht="21" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="213" ht="21" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="214" ht="21" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="215" ht="21" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="216" ht="21" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="217" ht="21" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="218" ht="21" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="219" ht="21" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="220" ht="21" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="221" ht="21" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="222" ht="21" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="223" ht="21" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="224" ht="21" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="225" ht="21" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="226" ht="21" customHeight="1" x14ac:dyDescent="0.25"/>
   </sheetData>
   <autoFilter ref="A11:K195"/>
   <mergeCells count="10">
+    <mergeCell ref="A1:C1"/>
+    <mergeCell ref="A2:E2"/>
+    <mergeCell ref="A3:B3"/>
+    <mergeCell ref="C3:D3"/>
+    <mergeCell ref="A195:F195"/>
     <mergeCell ref="E197:F197"/>
     <mergeCell ref="A8:E8"/>
     <mergeCell ref="A12:I12"/>
     <mergeCell ref="A5:J5"/>
     <mergeCell ref="A6:J6"/>
-    <mergeCell ref="A1:C1"/>
-    <mergeCell ref="A2:E2"/>
-    <mergeCell ref="A3:B3"/>
-    <mergeCell ref="C3:D3"/>
-    <mergeCell ref="A195:F195"/>
   </mergeCells>
   <phoneticPr fontId="5" type="noConversion"/>
   <pageMargins left="0.4" right="0.15" top="0.51" bottom="0.52" header="0.5" footer="0.5"/>
@@ -10449,7 +10458,7 @@
 </file>
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr enableFormatConditionsCalculation="0">
     <tabColor indexed="31"/>
   </sheetPr>
@@ -10461,7 +10470,7 @@
       <selection pane="bottomLeft" activeCell="A70" sqref="A70"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15.75"/>
+  <sheetFormatPr defaultRowHeight="15.75" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" width="10.375" style="2" customWidth="1"/>
     <col min="2" max="2" width="16.125" style="1" customWidth="1"/>
@@ -10478,7 +10487,7 @@
     <col min="13" max="16384" width="9" style="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:12" s="47" customFormat="1" ht="19.5" customHeight="1">
+    <row r="1" spans="1:12" s="47" customFormat="1" ht="19.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A1" s="174" t="s">
         <v>31</v>
       </c>
@@ -10488,7 +10497,7 @@
       <c r="G1" s="49"/>
       <c r="H1" s="49"/>
     </row>
-    <row r="2" spans="1:12" s="47" customFormat="1" ht="19.5" customHeight="1">
+    <row r="2" spans="1:12" s="47" customFormat="1" ht="19.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A2" s="57" t="s">
         <v>32</v>
       </c>
@@ -10500,7 +10509,7 @@
       <c r="G2" s="49"/>
       <c r="H2" s="49"/>
     </row>
-    <row r="3" spans="1:12" s="47" customFormat="1" ht="19.5" customHeight="1">
+    <row r="3" spans="1:12" s="47" customFormat="1" ht="19.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A3" s="174" t="s">
         <v>33</v>
       </c>
@@ -10514,12 +10523,12 @@
       <c r="G3" s="49"/>
       <c r="H3" s="49"/>
     </row>
-    <row r="4" spans="1:12" s="42" customFormat="1" ht="9" customHeight="1">
+    <row r="4" spans="1:12" s="42" customFormat="1" ht="9" customHeight="1" x14ac:dyDescent="0.3">
       <c r="F4" s="44"/>
       <c r="G4" s="44"/>
       <c r="H4" s="44"/>
     </row>
-    <row r="5" spans="1:12" s="45" customFormat="1" ht="30" customHeight="1">
+    <row r="5" spans="1:12" s="45" customFormat="1" ht="30" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A5" s="169" t="s">
         <v>34</v>
       </c>
@@ -10534,7 +10543,7 @@
       <c r="J5" s="169"/>
       <c r="K5" s="169"/>
     </row>
-    <row r="6" spans="1:12" ht="9" customHeight="1">
+    <row r="6" spans="1:12" ht="9" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A6" s="170"/>
       <c r="B6" s="170"/>
       <c r="C6" s="170"/>
@@ -10547,7 +10556,7 @@
       <c r="J6" s="1"/>
       <c r="K6" s="1"/>
     </row>
-    <row r="7" spans="1:12" s="63" customFormat="1" ht="19.5" customHeight="1">
+    <row r="7" spans="1:12" s="63" customFormat="1" ht="19.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A7" s="62" t="s">
         <v>8</v>
       </c>
@@ -10559,7 +10568,7 @@
       <c r="J7" s="65"/>
       <c r="K7" s="65"/>
     </row>
-    <row r="8" spans="1:12" s="63" customFormat="1" ht="19.5" customHeight="1">
+    <row r="8" spans="1:12" s="63" customFormat="1" ht="19.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A8" s="62" t="s">
         <v>52</v>
       </c>
@@ -10571,7 +10580,7 @@
       <c r="J8" s="65"/>
       <c r="K8" s="65"/>
     </row>
-    <row r="9" spans="1:12" s="63" customFormat="1" ht="19.5" customHeight="1">
+    <row r="9" spans="1:12" s="63" customFormat="1" ht="19.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A9" s="62" t="s">
         <v>54</v>
       </c>
@@ -10586,8 +10595,8 @@
       <c r="J9" s="65"/>
       <c r="K9" s="65"/>
     </row>
-    <row r="10" spans="1:12" ht="8.25" customHeight="1"/>
-    <row r="11" spans="1:12" s="52" customFormat="1" ht="38.25" customHeight="1">
+    <row r="10" spans="1:12" ht="8.25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="11" spans="1:12" s="52" customFormat="1" ht="38.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A11" s="50" t="s">
         <v>0</v>
       </c>
@@ -10625,7 +10634,7 @@
         <v>39</v>
       </c>
     </row>
-    <row r="12" spans="1:12" s="10" customFormat="1" ht="20.25" customHeight="1">
+    <row r="12" spans="1:12" s="10" customFormat="1" ht="20.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A12" s="171" t="s">
         <v>13</v>
       </c>
@@ -10643,7 +10652,7 @@
       </c>
       <c r="L12" s="6"/>
     </row>
-    <row r="13" spans="1:12" s="22" customFormat="1" ht="20.25" customHeight="1">
+    <row r="13" spans="1:12" s="22" customFormat="1" ht="20.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A13" s="66">
         <v>41331</v>
       </c>
@@ -10682,7 +10691,7 @@
         <v>78</v>
       </c>
     </row>
-    <row r="14" spans="1:12" ht="20.25" customHeight="1">
+    <row r="14" spans="1:12" ht="20.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A14" s="70"/>
       <c r="B14" s="23" t="s">
         <v>57</v>
@@ -10719,7 +10728,7 @@
         <v>79</v>
       </c>
     </row>
-    <row r="15" spans="1:12" ht="20.25" customHeight="1">
+    <row r="15" spans="1:12" ht="20.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A15" s="70"/>
       <c r="B15" s="23" t="s">
         <v>57</v>
@@ -10756,7 +10765,7 @@
         <v>80</v>
       </c>
     </row>
-    <row r="16" spans="1:12" ht="20.25" customHeight="1">
+    <row r="16" spans="1:12" ht="20.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A16" s="70"/>
       <c r="B16" s="23" t="s">
         <v>57</v>
@@ -10793,7 +10802,7 @@
         <v>81</v>
       </c>
     </row>
-    <row r="17" spans="1:12" ht="20.25" customHeight="1">
+    <row r="17" spans="1:12" ht="20.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A17" s="70">
         <v>41365</v>
       </c>
@@ -10832,7 +10841,7 @@
         <v>82</v>
       </c>
     </row>
-    <row r="18" spans="1:12" ht="20.25" customHeight="1">
+    <row r="18" spans="1:12" ht="20.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A18" s="70"/>
       <c r="B18" s="23" t="s">
         <v>57</v>
@@ -10869,7 +10878,7 @@
         <v>83</v>
       </c>
     </row>
-    <row r="19" spans="1:12" ht="20.25" customHeight="1">
+    <row r="19" spans="1:12" ht="20.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A19" s="70">
         <v>41379</v>
       </c>
@@ -10895,7 +10904,7 @@
       </c>
       <c r="L19" s="30"/>
     </row>
-    <row r="20" spans="1:12" ht="20.25" customHeight="1">
+    <row r="20" spans="1:12" ht="20.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A20" s="70">
         <v>41460</v>
       </c>
@@ -10934,7 +10943,7 @@
         <v>97</v>
       </c>
     </row>
-    <row r="21" spans="1:12" ht="20.25" customHeight="1">
+    <row r="21" spans="1:12" ht="20.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A21" s="70"/>
       <c r="B21" s="23" t="s">
         <v>57</v>
@@ -10971,7 +10980,7 @@
         <v>98</v>
       </c>
     </row>
-    <row r="22" spans="1:12" ht="20.25" customHeight="1">
+    <row r="22" spans="1:12" ht="20.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A22" s="70"/>
       <c r="B22" s="23" t="s">
         <v>57</v>
@@ -11008,7 +11017,7 @@
         <v>78</v>
       </c>
     </row>
-    <row r="23" spans="1:12" ht="20.25" customHeight="1">
+    <row r="23" spans="1:12" ht="20.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A23" s="70"/>
       <c r="B23" s="23" t="s">
         <v>57</v>
@@ -11045,7 +11054,7 @@
         <v>100</v>
       </c>
     </row>
-    <row r="24" spans="1:12" ht="20.25" customHeight="1">
+    <row r="24" spans="1:12" ht="20.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A24" s="70">
         <v>41465</v>
       </c>
@@ -11071,7 +11080,7 @@
       </c>
       <c r="L24" s="30"/>
     </row>
-    <row r="25" spans="1:12" ht="20.25" customHeight="1">
+    <row r="25" spans="1:12" ht="20.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A25" s="70">
         <v>41514</v>
       </c>
@@ -11098,7 +11107,7 @@
       </c>
       <c r="L25" s="30"/>
     </row>
-    <row r="26" spans="1:12" ht="20.25" customHeight="1">
+    <row r="26" spans="1:12" ht="20.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A26" s="72">
         <v>41648</v>
       </c>
@@ -11137,7 +11146,7 @@
         <v>97</v>
       </c>
     </row>
-    <row r="27" spans="1:12" ht="20.25" customHeight="1">
+    <row r="27" spans="1:12" ht="20.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A27" s="72"/>
       <c r="B27" s="23" t="s">
         <v>57</v>
@@ -11174,7 +11183,7 @@
         <v>164</v>
       </c>
     </row>
-    <row r="28" spans="1:12" ht="20.25" customHeight="1">
+    <row r="28" spans="1:12" ht="20.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A28" s="72"/>
       <c r="B28" s="23" t="s">
         <v>57</v>
@@ -11211,7 +11220,7 @@
         <v>83</v>
       </c>
     </row>
-    <row r="29" spans="1:12" ht="20.25" customHeight="1">
+    <row r="29" spans="1:12" ht="20.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A29" s="70">
         <v>41795</v>
       </c>
@@ -11238,7 +11247,7 @@
       </c>
       <c r="L29" s="30"/>
     </row>
-    <row r="30" spans="1:12" ht="20.25" customHeight="1">
+    <row r="30" spans="1:12" ht="20.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A30" s="72">
         <v>41821</v>
       </c>
@@ -11277,7 +11286,7 @@
         <v>97</v>
       </c>
     </row>
-    <row r="31" spans="1:12" ht="20.25" customHeight="1">
+    <row r="31" spans="1:12" ht="20.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A31" s="72"/>
       <c r="B31" s="23" t="s">
         <v>57</v>
@@ -11314,7 +11323,7 @@
         <v>205</v>
       </c>
     </row>
-    <row r="32" spans="1:12" ht="20.25" customHeight="1">
+    <row r="32" spans="1:12" ht="20.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A32" s="72"/>
       <c r="B32" s="23" t="s">
         <v>57</v>
@@ -11351,7 +11360,7 @@
         <v>206</v>
       </c>
     </row>
-    <row r="33" spans="1:12" ht="20.25" customHeight="1">
+    <row r="33" spans="1:12" ht="20.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A33" s="72">
         <v>41836</v>
       </c>
@@ -11390,7 +11399,7 @@
         <v>209</v>
       </c>
     </row>
-    <row r="34" spans="1:12" ht="20.25" customHeight="1">
+    <row r="34" spans="1:12" ht="20.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A34" s="72"/>
       <c r="B34" s="23" t="s">
         <v>207</v>
@@ -11427,7 +11436,7 @@
         <v>210</v>
       </c>
     </row>
-    <row r="35" spans="1:12" ht="20.25" customHeight="1">
+    <row r="35" spans="1:12" ht="20.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A35" s="72"/>
       <c r="B35" s="23" t="s">
         <v>207</v>
@@ -11464,7 +11473,7 @@
         <v>211</v>
       </c>
     </row>
-    <row r="36" spans="1:12" ht="20.25" customHeight="1">
+    <row r="36" spans="1:12" ht="20.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A36" s="72"/>
       <c r="B36" s="23" t="s">
         <v>57</v>
@@ -11501,7 +11510,7 @@
         <v>145</v>
       </c>
     </row>
-    <row r="37" spans="1:12" ht="20.25" customHeight="1">
+    <row r="37" spans="1:12" ht="20.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A37" s="72"/>
       <c r="B37" s="23" t="s">
         <v>57</v>
@@ -11538,7 +11547,7 @@
         <v>76</v>
       </c>
     </row>
-    <row r="38" spans="1:12" ht="20.25" customHeight="1">
+    <row r="38" spans="1:12" ht="20.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A38" s="72">
         <v>41839</v>
       </c>
@@ -11577,7 +11586,7 @@
         <v>76</v>
       </c>
     </row>
-    <row r="39" spans="1:12" ht="20.25" customHeight="1">
+    <row r="39" spans="1:12" ht="20.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A39" s="72"/>
       <c r="B39" s="23" t="s">
         <v>57</v>
@@ -11614,7 +11623,7 @@
         <v>145</v>
       </c>
     </row>
-    <row r="40" spans="1:12" ht="20.25" customHeight="1">
+    <row r="40" spans="1:12" ht="20.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A40" s="72"/>
       <c r="B40" s="23" t="s">
         <v>57</v>
@@ -11651,7 +11660,7 @@
         <v>76</v>
       </c>
     </row>
-    <row r="41" spans="1:12" ht="20.25" customHeight="1">
+    <row r="41" spans="1:12" ht="20.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A41" s="72">
         <v>41844</v>
       </c>
@@ -11690,7 +11699,7 @@
         <v>209</v>
       </c>
     </row>
-    <row r="42" spans="1:12" ht="20.25" customHeight="1">
+    <row r="42" spans="1:12" ht="20.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A42" s="72"/>
       <c r="B42" s="23" t="s">
         <v>207</v>
@@ -11727,7 +11736,7 @@
         <v>210</v>
       </c>
     </row>
-    <row r="43" spans="1:12" ht="20.25" customHeight="1">
+    <row r="43" spans="1:12" ht="20.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A43" s="70">
         <v>41938</v>
       </c>
@@ -11754,7 +11763,7 @@
       </c>
       <c r="L43" s="30"/>
     </row>
-    <row r="44" spans="1:12" ht="20.25" customHeight="1">
+    <row r="44" spans="1:12" ht="20.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A44" s="72">
         <v>41972</v>
       </c>
@@ -11793,7 +11802,7 @@
         <v>145</v>
       </c>
     </row>
-    <row r="45" spans="1:12" ht="20.25" customHeight="1">
+    <row r="45" spans="1:12" ht="20.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A45" s="72"/>
       <c r="B45" s="23" t="s">
         <v>207</v>
@@ -11830,7 +11839,7 @@
         <v>227</v>
       </c>
     </row>
-    <row r="46" spans="1:12" ht="20.25" customHeight="1">
+    <row r="46" spans="1:12" ht="20.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A46" s="72">
         <v>41986</v>
       </c>
@@ -11867,7 +11876,7 @@
       </c>
       <c r="L46" s="30"/>
     </row>
-    <row r="47" spans="1:12" ht="20.25" customHeight="1">
+    <row r="47" spans="1:12" ht="20.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A47" s="70">
         <v>41997</v>
       </c>
@@ -11893,7 +11902,7 @@
       </c>
       <c r="L47" s="30"/>
     </row>
-    <row r="48" spans="1:12" ht="20.25" customHeight="1">
+    <row r="48" spans="1:12" ht="20.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A48" s="72">
         <v>42040</v>
       </c>
@@ -11930,7 +11939,7 @@
       </c>
       <c r="L48" s="30"/>
     </row>
-    <row r="49" spans="1:12" ht="20.25" customHeight="1">
+    <row r="49" spans="1:12" ht="20.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A49" s="72"/>
       <c r="B49" s="23" t="s">
         <v>207</v>
@@ -11965,7 +11974,7 @@
       </c>
       <c r="L49" s="30"/>
     </row>
-    <row r="50" spans="1:12" ht="20.25" customHeight="1">
+    <row r="50" spans="1:12" ht="20.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A50" s="72"/>
       <c r="B50" s="23" t="s">
         <v>207</v>
@@ -12000,7 +12009,7 @@
       </c>
       <c r="L50" s="30"/>
     </row>
-    <row r="51" spans="1:12" ht="20.25" customHeight="1">
+    <row r="51" spans="1:12" ht="20.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A51" s="72"/>
       <c r="B51" s="23" t="s">
         <v>207</v>
@@ -12035,7 +12044,7 @@
       </c>
       <c r="L51" s="30"/>
     </row>
-    <row r="52" spans="1:12" ht="20.25" customHeight="1">
+    <row r="52" spans="1:12" ht="20.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A52" s="72">
         <v>42042</v>
       </c>
@@ -12072,7 +12081,7 @@
       </c>
       <c r="L52" s="30"/>
     </row>
-    <row r="53" spans="1:12" ht="20.25" customHeight="1">
+    <row r="53" spans="1:12" ht="20.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A53" s="72"/>
       <c r="B53" s="23" t="s">
         <v>207</v>
@@ -12107,7 +12116,7 @@
       </c>
       <c r="L53" s="30"/>
     </row>
-    <row r="54" spans="1:12" ht="20.25" customHeight="1">
+    <row r="54" spans="1:12" ht="20.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A54" s="72"/>
       <c r="B54" s="23" t="s">
         <v>207</v>
@@ -12142,7 +12151,7 @@
       </c>
       <c r="L54" s="30"/>
     </row>
-    <row r="55" spans="1:12" ht="20.25" customHeight="1">
+    <row r="55" spans="1:12" ht="20.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A55" s="72">
         <v>42043</v>
       </c>
@@ -12179,7 +12188,7 @@
       </c>
       <c r="L55" s="30"/>
     </row>
-    <row r="56" spans="1:12" ht="20.25" customHeight="1">
+    <row r="56" spans="1:12" ht="20.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A56" s="72"/>
       <c r="B56" s="23" t="s">
         <v>207</v>
@@ -12214,7 +12223,7 @@
       </c>
       <c r="L56" s="30"/>
     </row>
-    <row r="57" spans="1:12" ht="20.25" customHeight="1">
+    <row r="57" spans="1:12" ht="20.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A57" s="72">
         <v>42045</v>
       </c>
@@ -12251,7 +12260,7 @@
       </c>
       <c r="L57" s="30"/>
     </row>
-    <row r="58" spans="1:12" ht="20.25" customHeight="1">
+    <row r="58" spans="1:12" ht="20.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A58" s="70">
         <v>42049</v>
       </c>
@@ -12277,7 +12286,7 @@
       </c>
       <c r="L58" s="30"/>
     </row>
-    <row r="59" spans="1:12" ht="20.25" customHeight="1">
+    <row r="59" spans="1:12" ht="20.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A59" s="72">
         <v>42083</v>
       </c>
@@ -12314,7 +12323,7 @@
       </c>
       <c r="L59" s="30"/>
     </row>
-    <row r="60" spans="1:12" ht="20.25" customHeight="1">
+    <row r="60" spans="1:12" ht="20.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A60" s="72"/>
       <c r="B60" s="23" t="s">
         <v>207</v>
@@ -12349,7 +12358,7 @@
       </c>
       <c r="L60" s="30"/>
     </row>
-    <row r="61" spans="1:12" ht="20.25" customHeight="1">
+    <row r="61" spans="1:12" ht="20.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A61" s="70">
         <v>42098</v>
       </c>
@@ -12375,7 +12384,7 @@
       </c>
       <c r="L61" s="30"/>
     </row>
-    <row r="62" spans="1:12" ht="20.25" customHeight="1">
+    <row r="62" spans="1:12" ht="20.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A62" s="70">
         <v>42159</v>
       </c>
@@ -12402,7 +12411,7 @@
       </c>
       <c r="L62" s="30"/>
     </row>
-    <row r="63" spans="1:12" ht="20.25" customHeight="1">
+    <row r="63" spans="1:12" ht="20.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A63" s="72"/>
       <c r="B63" s="23" t="s">
         <v>207</v>
@@ -12439,7 +12448,7 @@
         <v>278</v>
       </c>
     </row>
-    <row r="64" spans="1:12" ht="20.25" customHeight="1">
+    <row r="64" spans="1:12" ht="20.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A64" s="72"/>
       <c r="B64" s="23" t="s">
         <v>207</v>
@@ -12476,7 +12485,7 @@
         <v>279</v>
       </c>
     </row>
-    <row r="65" spans="1:12" ht="20.25" customHeight="1">
+    <row r="65" spans="1:12" ht="20.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A65" s="72"/>
       <c r="B65" s="23" t="s">
         <v>207</v>
@@ -12513,7 +12522,7 @@
         <v>278</v>
       </c>
     </row>
-    <row r="66" spans="1:12" ht="20.25" customHeight="1">
+    <row r="66" spans="1:12" ht="20.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A66" s="72"/>
       <c r="B66" s="23" t="s">
         <v>207</v>
@@ -12550,7 +12559,7 @@
         <v>279</v>
       </c>
     </row>
-    <row r="67" spans="1:12" ht="20.25" customHeight="1">
+    <row r="67" spans="1:12" ht="20.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A67" s="72"/>
       <c r="B67" s="23" t="s">
         <v>207</v>
@@ -12587,7 +12596,7 @@
         <v>209</v>
       </c>
     </row>
-    <row r="68" spans="1:12" ht="20.25" customHeight="1">
+    <row r="68" spans="1:12" ht="20.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A68" s="72"/>
       <c r="B68" s="23" t="s">
         <v>207</v>
@@ -12622,7 +12631,7 @@
       </c>
       <c r="L68" s="30"/>
     </row>
-    <row r="69" spans="1:12" ht="20.25" customHeight="1">
+    <row r="69" spans="1:12" ht="20.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A69" s="70">
         <v>42363</v>
       </c>
@@ -12649,7 +12658,7 @@
       </c>
       <c r="L69" s="30"/>
     </row>
-    <row r="70" spans="1:12" ht="20.25" customHeight="1">
+    <row r="70" spans="1:12" ht="20.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A70" s="72"/>
       <c r="B70" s="127"/>
       <c r="C70" s="72"/>
@@ -12672,7 +12681,7 @@
       </c>
       <c r="L70" s="30"/>
     </row>
-    <row r="71" spans="1:12" ht="20.25" customHeight="1">
+    <row r="71" spans="1:12" ht="20.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A71" s="72"/>
       <c r="B71" s="127"/>
       <c r="C71" s="72"/>
@@ -12695,7 +12704,7 @@
       </c>
       <c r="L71" s="30"/>
     </row>
-    <row r="72" spans="1:12" ht="20.25" customHeight="1">
+    <row r="72" spans="1:12" ht="20.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A72" s="72"/>
       <c r="B72" s="127"/>
       <c r="C72" s="72"/>
@@ -12718,7 +12727,7 @@
       </c>
       <c r="L72" s="30"/>
     </row>
-    <row r="73" spans="1:12" ht="20.25" customHeight="1">
+    <row r="73" spans="1:12" ht="20.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A73" s="72"/>
       <c r="B73" s="127"/>
       <c r="C73" s="72"/>
@@ -12741,7 +12750,7 @@
       </c>
       <c r="L73" s="30"/>
     </row>
-    <row r="74" spans="1:12" ht="20.25" customHeight="1">
+    <row r="74" spans="1:12" ht="20.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A74" s="72"/>
       <c r="B74" s="127"/>
       <c r="C74" s="72"/>
@@ -12764,7 +12773,7 @@
       </c>
       <c r="L74" s="30"/>
     </row>
-    <row r="75" spans="1:12" ht="20.25" customHeight="1">
+    <row r="75" spans="1:12" ht="20.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A75" s="72"/>
       <c r="B75" s="127"/>
       <c r="C75" s="72"/>
@@ -12787,7 +12796,7 @@
       </c>
       <c r="L75" s="30"/>
     </row>
-    <row r="76" spans="1:12" ht="20.25" customHeight="1">
+    <row r="76" spans="1:12" ht="20.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A76" s="72"/>
       <c r="B76" s="127"/>
       <c r="C76" s="72"/>
@@ -12810,7 +12819,7 @@
       </c>
       <c r="L76" s="30"/>
     </row>
-    <row r="77" spans="1:12" s="18" customFormat="1" ht="20.25" customHeight="1">
+    <row r="77" spans="1:12" s="18" customFormat="1" ht="20.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A77" s="179" t="s">
         <v>40</v>
       </c>
@@ -12835,7 +12844,7 @@
       </c>
       <c r="L77" s="115"/>
     </row>
-    <row r="78" spans="1:12" ht="21" customHeight="1">
+    <row r="78" spans="1:12" ht="21" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A78" s="19"/>
       <c r="B78" s="3"/>
       <c r="C78" s="3"/>
@@ -12847,7 +12856,7 @@
       <c r="J78" s="20"/>
       <c r="K78" s="20"/>
     </row>
-    <row r="79" spans="1:12" ht="21" customHeight="1">
+    <row r="79" spans="1:12" ht="21" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B79" s="54" t="s">
         <v>41</v>
       </c>
@@ -12864,21 +12873,21 @@
       <c r="J79" s="1"/>
       <c r="K79" s="1"/>
     </row>
-    <row r="80" spans="1:12" ht="21" customHeight="1">
+    <row r="80" spans="1:12" ht="21" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B80" s="54" t="s">
         <v>42</v>
       </c>
       <c r="C80" s="56"/>
-      <c r="D80" s="73" t="str">
-        <f>[1]!VND(E79, TRUE)</f>
-        <v>Không đồng</v>
+      <c r="D80" s="73" t="e">
+        <f ca="1">[1]!VND(E79, TRUE)</f>
+        <v>#NAME?</v>
       </c>
       <c r="E80" s="4"/>
       <c r="F80" s="5"/>
       <c r="J80" s="1"/>
       <c r="K80" s="1"/>
     </row>
-    <row r="81" spans="1:11" ht="21" customHeight="1">
+    <row r="81" spans="1:11" ht="21" customHeight="1" x14ac:dyDescent="0.25">
       <c r="C81" s="3"/>
       <c r="D81" s="4"/>
       <c r="E81" s="4"/>
@@ -12886,7 +12895,7 @@
       <c r="J81" s="1"/>
       <c r="K81" s="1"/>
     </row>
-    <row r="82" spans="1:11" ht="21" customHeight="1">
+    <row r="82" spans="1:11" ht="21" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A82" s="4" t="s">
         <v>56</v>
       </c>
@@ -12900,7 +12909,7 @@
       <c r="J82" s="1"/>
       <c r="K82" s="1"/>
     </row>
-    <row r="83" spans="1:11">
+    <row r="83" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A83" s="19"/>
       <c r="B83" s="3"/>
       <c r="C83" s="3"/>
@@ -12912,7 +12921,7 @@
       <c r="J83" s="20"/>
       <c r="K83" s="20"/>
     </row>
-    <row r="84" spans="1:11">
+    <row r="84" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A84" s="19"/>
       <c r="B84" s="3"/>
       <c r="C84" s="3"/>
@@ -12924,7 +12933,7 @@
       <c r="J84" s="20"/>
       <c r="K84" s="20"/>
     </row>
-    <row r="85" spans="1:11">
+    <row r="85" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A85" s="19"/>
       <c r="B85" s="3"/>
       <c r="C85" s="3"/>
@@ -12936,7 +12945,7 @@
       <c r="J85" s="20"/>
       <c r="K85" s="20"/>
     </row>
-    <row r="86" spans="1:11">
+    <row r="86" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A86" s="19"/>
       <c r="B86" s="3"/>
       <c r="C86" s="3"/>
@@ -12948,7 +12957,7 @@
       <c r="J86" s="20"/>
       <c r="K86" s="20"/>
     </row>
-    <row r="87" spans="1:11">
+    <row r="87" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A87" s="19"/>
       <c r="B87" s="3"/>
       <c r="C87" s="3"/>
@@ -12960,7 +12969,7 @@
       <c r="J87" s="20"/>
       <c r="K87" s="20"/>
     </row>
-    <row r="88" spans="1:11">
+    <row r="88" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A88" s="19"/>
       <c r="B88" s="3"/>
       <c r="C88" s="3"/>
@@ -12972,7 +12981,7 @@
       <c r="J88" s="20"/>
       <c r="K88" s="20"/>
     </row>
-    <row r="89" spans="1:11">
+    <row r="89" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A89" s="19"/>
       <c r="B89" s="3"/>
       <c r="C89" s="3"/>
@@ -12984,7 +12993,7 @@
       <c r="J89" s="20"/>
       <c r="K89" s="20"/>
     </row>
-    <row r="90" spans="1:11">
+    <row r="90" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A90" s="19"/>
       <c r="B90" s="3"/>
       <c r="C90" s="3"/>
@@ -12996,7 +13005,7 @@
       <c r="J90" s="20"/>
       <c r="K90" s="20"/>
     </row>
-    <row r="91" spans="1:11">
+    <row r="91" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A91" s="19"/>
       <c r="B91" s="3"/>
       <c r="C91" s="3"/>
@@ -13008,7 +13017,7 @@
       <c r="J91" s="20"/>
       <c r="K91" s="20"/>
     </row>
-    <row r="92" spans="1:11">
+    <row r="92" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A92" s="19"/>
       <c r="B92" s="3"/>
       <c r="C92" s="3"/>
@@ -13020,7 +13029,7 @@
       <c r="J92" s="20"/>
       <c r="K92" s="20"/>
     </row>
-    <row r="93" spans="1:11">
+    <row r="93" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A93" s="19"/>
       <c r="B93" s="3"/>
       <c r="C93" s="3"/>
@@ -13032,7 +13041,7 @@
       <c r="J93" s="20"/>
       <c r="K93" s="20"/>
     </row>
-    <row r="94" spans="1:11">
+    <row r="94" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A94" s="19"/>
       <c r="B94" s="3"/>
       <c r="C94" s="3"/>
@@ -13044,7 +13053,7 @@
       <c r="J94" s="20"/>
       <c r="K94" s="20"/>
     </row>
-    <row r="95" spans="1:11">
+    <row r="95" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A95" s="19"/>
       <c r="B95" s="3"/>
       <c r="C95" s="3"/>
@@ -13056,7 +13065,7 @@
       <c r="J95" s="20"/>
       <c r="K95" s="20"/>
     </row>
-    <row r="96" spans="1:11">
+    <row r="96" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A96" s="19"/>
       <c r="B96" s="3"/>
       <c r="C96" s="3"/>
@@ -13068,7 +13077,7 @@
       <c r="J96" s="20"/>
       <c r="K96" s="20"/>
     </row>
-    <row r="97" spans="1:11">
+    <row r="97" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A97" s="19"/>
       <c r="B97" s="3"/>
       <c r="C97" s="3"/>
@@ -13080,7 +13089,7 @@
       <c r="J97" s="20"/>
       <c r="K97" s="20"/>
     </row>
-    <row r="98" spans="1:11">
+    <row r="98" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A98" s="19"/>
       <c r="B98" s="3"/>
       <c r="C98" s="3"/>
@@ -13092,7 +13101,7 @@
       <c r="J98" s="20"/>
       <c r="K98" s="20"/>
     </row>
-    <row r="99" spans="1:11">
+    <row r="99" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A99" s="19"/>
       <c r="B99" s="3"/>
       <c r="C99" s="3"/>
@@ -13104,7 +13113,7 @@
       <c r="J99" s="20"/>
       <c r="K99" s="20"/>
     </row>
-    <row r="100" spans="1:11">
+    <row r="100" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A100" s="19"/>
       <c r="B100" s="3"/>
       <c r="C100" s="3"/>
@@ -13116,7 +13125,7 @@
       <c r="J100" s="20"/>
       <c r="K100" s="20"/>
     </row>
-    <row r="101" spans="1:11">
+    <row r="101" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A101" s="19"/>
       <c r="B101" s="3"/>
       <c r="C101" s="3"/>
@@ -13128,7 +13137,7 @@
       <c r="J101" s="20"/>
       <c r="K101" s="20"/>
     </row>
-    <row r="102" spans="1:11">
+    <row r="102" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A102" s="19"/>
       <c r="B102" s="3"/>
       <c r="C102" s="3"/>
@@ -13140,7 +13149,7 @@
       <c r="J102" s="20"/>
       <c r="K102" s="20"/>
     </row>
-    <row r="103" spans="1:11">
+    <row r="103" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A103" s="19"/>
       <c r="B103" s="3"/>
       <c r="C103" s="3"/>
@@ -13152,7 +13161,7 @@
       <c r="J103" s="20"/>
       <c r="K103" s="20"/>
     </row>
-    <row r="104" spans="1:11">
+    <row r="104" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A104" s="19"/>
       <c r="B104" s="3"/>
       <c r="C104" s="3"/>
@@ -13164,7 +13173,7 @@
       <c r="J104" s="20"/>
       <c r="K104" s="20"/>
     </row>
-    <row r="105" spans="1:11">
+    <row r="105" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A105" s="19"/>
       <c r="B105" s="3"/>
       <c r="C105" s="3"/>
@@ -13176,7 +13185,7 @@
       <c r="J105" s="20"/>
       <c r="K105" s="20"/>
     </row>
-    <row r="106" spans="1:11">
+    <row r="106" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A106" s="19"/>
       <c r="B106" s="3"/>
       <c r="C106" s="3"/>
@@ -13188,7 +13197,7 @@
       <c r="J106" s="20"/>
       <c r="K106" s="20"/>
     </row>
-    <row r="107" spans="1:11">
+    <row r="107" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A107" s="19"/>
       <c r="B107" s="3"/>
       <c r="C107" s="3"/>
@@ -13200,7 +13209,7 @@
       <c r="J107" s="20"/>
       <c r="K107" s="20"/>
     </row>
-    <row r="108" spans="1:11">
+    <row r="108" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A108" s="19"/>
       <c r="B108" s="3"/>
       <c r="C108" s="3"/>
@@ -13212,7 +13221,7 @@
       <c r="J108" s="20"/>
       <c r="K108" s="20"/>
     </row>
-    <row r="109" spans="1:11">
+    <row r="109" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A109" s="19"/>
       <c r="B109" s="3"/>
       <c r="C109" s="3"/>
@@ -13224,7 +13233,7 @@
       <c r="J109" s="20"/>
       <c r="K109" s="20"/>
     </row>
-    <row r="110" spans="1:11">
+    <row r="110" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A110" s="19"/>
       <c r="B110" s="3"/>
       <c r="C110" s="3"/>
@@ -13236,7 +13245,7 @@
       <c r="J110" s="20"/>
       <c r="K110" s="20"/>
     </row>
-    <row r="111" spans="1:11">
+    <row r="111" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A111" s="19"/>
       <c r="B111" s="3"/>
       <c r="C111" s="3"/>
@@ -13248,7 +13257,7 @@
       <c r="J111" s="20"/>
       <c r="K111" s="20"/>
     </row>
-    <row r="112" spans="1:11">
+    <row r="112" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A112" s="19"/>
       <c r="B112" s="3"/>
       <c r="C112" s="3"/>
@@ -13260,7 +13269,7 @@
       <c r="J112" s="20"/>
       <c r="K112" s="20"/>
     </row>
-    <row r="113" spans="1:11">
+    <row r="113" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A113" s="19"/>
       <c r="B113" s="3"/>
       <c r="C113" s="3"/>
@@ -13272,7 +13281,7 @@
       <c r="J113" s="20"/>
       <c r="K113" s="20"/>
     </row>
-    <row r="114" spans="1:11">
+    <row r="114" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A114" s="19"/>
       <c r="B114" s="3"/>
       <c r="C114" s="3"/>
@@ -13284,7 +13293,7 @@
       <c r="J114" s="20"/>
       <c r="K114" s="20"/>
     </row>
-    <row r="115" spans="1:11">
+    <row r="115" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A115" s="19"/>
       <c r="B115" s="3"/>
       <c r="C115" s="3"/>
@@ -13296,7 +13305,7 @@
       <c r="J115" s="20"/>
       <c r="K115" s="20"/>
     </row>
-    <row r="116" spans="1:11">
+    <row r="116" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A116" s="19"/>
       <c r="B116" s="3"/>
       <c r="C116" s="3"/>
@@ -13308,7 +13317,7 @@
       <c r="J116" s="20"/>
       <c r="K116" s="20"/>
     </row>
-    <row r="117" spans="1:11">
+    <row r="117" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A117" s="19"/>
       <c r="B117" s="3"/>
       <c r="C117" s="3"/>
@@ -13320,7 +13329,7 @@
       <c r="J117" s="20"/>
       <c r="K117" s="20"/>
     </row>
-    <row r="118" spans="1:11">
+    <row r="118" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A118" s="19"/>
       <c r="B118" s="3"/>
       <c r="C118" s="3"/>
@@ -13332,7 +13341,7 @@
       <c r="J118" s="20"/>
       <c r="K118" s="20"/>
     </row>
-    <row r="119" spans="1:11">
+    <row r="119" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A119" s="19"/>
       <c r="B119" s="3"/>
       <c r="C119" s="3"/>
@@ -13344,7 +13353,7 @@
       <c r="J119" s="20"/>
       <c r="K119" s="20"/>
     </row>
-    <row r="120" spans="1:11">
+    <row r="120" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A120" s="19"/>
       <c r="B120" s="3"/>
       <c r="C120" s="3"/>
@@ -13356,7 +13365,7 @@
       <c r="J120" s="20"/>
       <c r="K120" s="20"/>
     </row>
-    <row r="121" spans="1:11">
+    <row r="121" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A121" s="19"/>
       <c r="B121" s="3"/>
       <c r="C121" s="3"/>
@@ -13368,7 +13377,7 @@
       <c r="J121" s="20"/>
       <c r="K121" s="20"/>
     </row>
-    <row r="122" spans="1:11">
+    <row r="122" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A122" s="19"/>
       <c r="B122" s="3"/>
       <c r="C122" s="3"/>
@@ -13380,7 +13389,7 @@
       <c r="J122" s="20"/>
       <c r="K122" s="20"/>
     </row>
-    <row r="123" spans="1:11">
+    <row r="123" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A123" s="19"/>
       <c r="B123" s="3"/>
       <c r="C123" s="3"/>
@@ -13392,7 +13401,7 @@
       <c r="J123" s="20"/>
       <c r="K123" s="20"/>
     </row>
-    <row r="124" spans="1:11">
+    <row r="124" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A124" s="19"/>
       <c r="B124" s="3"/>
       <c r="C124" s="3"/>
@@ -13404,7 +13413,7 @@
       <c r="J124" s="20"/>
       <c r="K124" s="20"/>
     </row>
-    <row r="125" spans="1:11">
+    <row r="125" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A125" s="19"/>
       <c r="B125" s="3"/>
       <c r="C125" s="3"/>
@@ -13416,7 +13425,7 @@
       <c r="J125" s="20"/>
       <c r="K125" s="20"/>
     </row>
-    <row r="126" spans="1:11">
+    <row r="126" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A126" s="19"/>
       <c r="B126" s="3"/>
       <c r="C126" s="3"/>
@@ -13428,7 +13437,7 @@
       <c r="J126" s="20"/>
       <c r="K126" s="20"/>
     </row>
-    <row r="127" spans="1:11">
+    <row r="127" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A127" s="19"/>
       <c r="B127" s="3"/>
       <c r="C127" s="3"/>
@@ -13440,7 +13449,7 @@
       <c r="J127" s="20"/>
       <c r="K127" s="20"/>
     </row>
-    <row r="128" spans="1:11">
+    <row r="128" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A128" s="19"/>
       <c r="B128" s="3"/>
       <c r="C128" s="3"/>
@@ -13452,7 +13461,7 @@
       <c r="J128" s="20"/>
       <c r="K128" s="20"/>
     </row>
-    <row r="129" spans="1:11">
+    <row r="129" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A129" s="19"/>
       <c r="B129" s="3"/>
       <c r="C129" s="3"/>
@@ -13464,7 +13473,7 @@
       <c r="J129" s="20"/>
       <c r="K129" s="20"/>
     </row>
-    <row r="130" spans="1:11">
+    <row r="130" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A130" s="19"/>
       <c r="B130" s="3"/>
       <c r="C130" s="3"/>
@@ -13476,7 +13485,7 @@
       <c r="J130" s="20"/>
       <c r="K130" s="20"/>
     </row>
-    <row r="131" spans="1:11">
+    <row r="131" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A131" s="19"/>
       <c r="B131" s="3"/>
       <c r="C131" s="3"/>
@@ -13488,7 +13497,7 @@
       <c r="J131" s="20"/>
       <c r="K131" s="20"/>
     </row>
-    <row r="132" spans="1:11">
+    <row r="132" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A132" s="19"/>
       <c r="B132" s="3"/>
       <c r="C132" s="3"/>
@@ -13500,7 +13509,7 @@
       <c r="J132" s="20"/>
       <c r="K132" s="20"/>
     </row>
-    <row r="133" spans="1:11">
+    <row r="133" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A133" s="19"/>
       <c r="B133" s="3"/>
       <c r="C133" s="3"/>
@@ -13512,7 +13521,7 @@
       <c r="J133" s="20"/>
       <c r="K133" s="20"/>
     </row>
-    <row r="134" spans="1:11">
+    <row r="134" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A134" s="19"/>
       <c r="B134" s="3"/>
       <c r="C134" s="3"/>
@@ -13524,7 +13533,7 @@
       <c r="J134" s="20"/>
       <c r="K134" s="20"/>
     </row>
-    <row r="135" spans="1:11">
+    <row r="135" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A135" s="19"/>
       <c r="B135" s="3"/>
       <c r="C135" s="3"/>
@@ -13536,7 +13545,7 @@
       <c r="J135" s="20"/>
       <c r="K135" s="20"/>
     </row>
-    <row r="136" spans="1:11">
+    <row r="136" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A136" s="19"/>
       <c r="B136" s="3"/>
       <c r="C136" s="3"/>
@@ -13548,7 +13557,7 @@
       <c r="J136" s="20"/>
       <c r="K136" s="20"/>
     </row>
-    <row r="137" spans="1:11">
+    <row r="137" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A137" s="19"/>
       <c r="B137" s="3"/>
       <c r="C137" s="3"/>
@@ -13560,7 +13569,7 @@
       <c r="J137" s="20"/>
       <c r="K137" s="20"/>
     </row>
-    <row r="138" spans="1:11">
+    <row r="138" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A138" s="19"/>
       <c r="B138" s="3"/>
       <c r="C138" s="3"/>
@@ -13572,7 +13581,7 @@
       <c r="J138" s="20"/>
       <c r="K138" s="20"/>
     </row>
-    <row r="139" spans="1:11">
+    <row r="139" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A139" s="19"/>
       <c r="B139" s="3"/>
       <c r="C139" s="3"/>
@@ -13584,7 +13593,7 @@
       <c r="J139" s="20"/>
       <c r="K139" s="20"/>
     </row>
-    <row r="140" spans="1:11">
+    <row r="140" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A140" s="19"/>
       <c r="B140" s="3"/>
       <c r="C140" s="3"/>
@@ -13596,7 +13605,7 @@
       <c r="J140" s="20"/>
       <c r="K140" s="20"/>
     </row>
-    <row r="141" spans="1:11">
+    <row r="141" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A141" s="19"/>
       <c r="B141" s="3"/>
       <c r="C141" s="3"/>
@@ -13608,7 +13617,7 @@
       <c r="J141" s="20"/>
       <c r="K141" s="20"/>
     </row>
-    <row r="142" spans="1:11">
+    <row r="142" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A142" s="19"/>
       <c r="B142" s="3"/>
       <c r="C142" s="3"/>
@@ -13620,7 +13629,7 @@
       <c r="J142" s="20"/>
       <c r="K142" s="20"/>
     </row>
-    <row r="143" spans="1:11">
+    <row r="143" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A143" s="19"/>
       <c r="B143" s="3"/>
       <c r="C143" s="3"/>
@@ -13632,7 +13641,7 @@
       <c r="J143" s="20"/>
       <c r="K143" s="20"/>
     </row>
-    <row r="144" spans="1:11">
+    <row r="144" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A144" s="19"/>
       <c r="B144" s="3"/>
       <c r="C144" s="3"/>
@@ -13644,7 +13653,7 @@
       <c r="J144" s="20"/>
       <c r="K144" s="20"/>
     </row>
-    <row r="145" spans="1:11">
+    <row r="145" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A145" s="19"/>
       <c r="B145" s="3"/>
       <c r="C145" s="3"/>
@@ -13656,7 +13665,7 @@
       <c r="J145" s="20"/>
       <c r="K145" s="20"/>
     </row>
-    <row r="146" spans="1:11">
+    <row r="146" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A146" s="19"/>
       <c r="B146" s="3"/>
       <c r="C146" s="3"/>
@@ -13668,7 +13677,7 @@
       <c r="J146" s="20"/>
       <c r="K146" s="20"/>
     </row>
-    <row r="147" spans="1:11">
+    <row r="147" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A147" s="19"/>
       <c r="B147" s="3"/>
       <c r="C147" s="3"/>
@@ -13680,7 +13689,7 @@
       <c r="J147" s="20"/>
       <c r="K147" s="20"/>
     </row>
-    <row r="148" spans="1:11">
+    <row r="148" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A148" s="19"/>
       <c r="B148" s="3"/>
       <c r="C148" s="3"/>
@@ -13692,7 +13701,7 @@
       <c r="J148" s="20"/>
       <c r="K148" s="20"/>
     </row>
-    <row r="149" spans="1:11">
+    <row r="149" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A149" s="19"/>
       <c r="B149" s="3"/>
       <c r="C149" s="3"/>
@@ -13704,7 +13713,7 @@
       <c r="J149" s="20"/>
       <c r="K149" s="20"/>
     </row>
-    <row r="150" spans="1:11">
+    <row r="150" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A150" s="19"/>
       <c r="B150" s="3"/>
       <c r="C150" s="3"/>
@@ -13716,7 +13725,7 @@
       <c r="J150" s="20"/>
       <c r="K150" s="20"/>
     </row>
-    <row r="151" spans="1:11">
+    <row r="151" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A151" s="19"/>
       <c r="B151" s="3"/>
       <c r="C151" s="3"/>
@@ -13728,7 +13737,7 @@
       <c r="J151" s="20"/>
       <c r="K151" s="20"/>
     </row>
-    <row r="152" spans="1:11">
+    <row r="152" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A152" s="19"/>
       <c r="B152" s="3"/>
       <c r="C152" s="3"/>
@@ -13740,7 +13749,7 @@
       <c r="J152" s="20"/>
       <c r="K152" s="20"/>
     </row>
-    <row r="153" spans="1:11">
+    <row r="153" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A153" s="19"/>
       <c r="B153" s="3"/>
       <c r="C153" s="3"/>
@@ -13752,7 +13761,7 @@
       <c r="J153" s="20"/>
       <c r="K153" s="20"/>
     </row>
-    <row r="154" spans="1:11">
+    <row r="154" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A154" s="19"/>
       <c r="B154" s="3"/>
       <c r="C154" s="3"/>
@@ -13764,7 +13773,7 @@
       <c r="J154" s="20"/>
       <c r="K154" s="20"/>
     </row>
-    <row r="155" spans="1:11">
+    <row r="155" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A155" s="19"/>
       <c r="B155" s="3"/>
       <c r="C155" s="3"/>
@@ -13776,7 +13785,7 @@
       <c r="J155" s="20"/>
       <c r="K155" s="20"/>
     </row>
-    <row r="156" spans="1:11">
+    <row r="156" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A156" s="19"/>
       <c r="B156" s="3"/>
       <c r="C156" s="3"/>
@@ -13788,7 +13797,7 @@
       <c r="J156" s="20"/>
       <c r="K156" s="20"/>
     </row>
-    <row r="157" spans="1:11">
+    <row r="157" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A157" s="19"/>
       <c r="B157" s="3"/>
       <c r="C157" s="3"/>
@@ -13820,7 +13829,7 @@
 </file>
 
 <file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr enableFormatConditionsCalculation="0">
     <tabColor indexed="33"/>
   </sheetPr>
@@ -13832,7 +13841,7 @@
       <selection pane="bottomLeft" activeCell="C28" sqref="C28"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15.75"/>
+  <sheetFormatPr defaultRowHeight="15.75" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" width="10.375" style="2" customWidth="1"/>
     <col min="2" max="2" width="15.875" style="1" customWidth="1"/>
@@ -13847,7 +13856,7 @@
     <col min="11" max="16384" width="9" style="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:10" s="47" customFormat="1" ht="18" customHeight="1">
+    <row r="1" spans="1:10" s="47" customFormat="1" ht="18" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A1" s="174" t="s">
         <v>31</v>
       </c>
@@ -13858,7 +13867,7 @@
       <c r="G1" s="49"/>
       <c r="H1" s="49"/>
     </row>
-    <row r="2" spans="1:10" s="47" customFormat="1" ht="18" customHeight="1">
+    <row r="2" spans="1:10" s="47" customFormat="1" ht="18" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A2" s="174" t="s">
         <v>32</v>
       </c>
@@ -13870,7 +13879,7 @@
       <c r="G2" s="49"/>
       <c r="H2" s="49"/>
     </row>
-    <row r="3" spans="1:10" s="47" customFormat="1" ht="18" customHeight="1">
+    <row r="3" spans="1:10" s="47" customFormat="1" ht="18" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A3" s="174" t="s">
         <v>33</v>
       </c>
@@ -13884,13 +13893,13 @@
       <c r="G3" s="49"/>
       <c r="H3" s="49"/>
     </row>
-    <row r="4" spans="1:10" s="42" customFormat="1" ht="9" customHeight="1">
+    <row r="4" spans="1:10" s="42" customFormat="1" ht="9" customHeight="1" x14ac:dyDescent="0.3">
       <c r="E4" s="105"/>
       <c r="F4" s="107"/>
       <c r="G4" s="44"/>
       <c r="H4" s="44"/>
     </row>
-    <row r="5" spans="1:10" s="45" customFormat="1" ht="29.25" customHeight="1">
+    <row r="5" spans="1:10" s="45" customFormat="1" ht="29.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A5" s="169" t="s">
         <v>34</v>
       </c>
@@ -13903,7 +13912,7 @@
       <c r="H5" s="169"/>
       <c r="I5" s="169"/>
     </row>
-    <row r="6" spans="1:10" ht="9" customHeight="1">
+    <row r="6" spans="1:10" ht="9" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A6" s="170"/>
       <c r="B6" s="170"/>
       <c r="C6" s="170"/>
@@ -13914,7 +13923,7 @@
       <c r="H6" s="170"/>
       <c r="I6" s="170"/>
     </row>
-    <row r="7" spans="1:10" s="63" customFormat="1" ht="18" customHeight="1">
+    <row r="7" spans="1:10" s="63" customFormat="1" ht="18" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A7" s="117" t="s">
         <v>90</v>
       </c>
@@ -13926,7 +13935,7 @@
       <c r="H7" s="65"/>
       <c r="I7" s="65"/>
     </row>
-    <row r="8" spans="1:10" s="63" customFormat="1" ht="18" customHeight="1">
+    <row r="8" spans="1:10" s="63" customFormat="1" ht="18" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A8" s="117" t="s">
         <v>101</v>
       </c>
@@ -13938,7 +13947,7 @@
       <c r="H8" s="65"/>
       <c r="I8" s="65"/>
     </row>
-    <row r="9" spans="1:10" s="63" customFormat="1" ht="18" customHeight="1">
+    <row r="9" spans="1:10" s="63" customFormat="1" ht="18" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A9" s="62"/>
       <c r="C9" s="75"/>
       <c r="D9" s="65"/>
@@ -13948,8 +13957,8 @@
       <c r="H9" s="65"/>
       <c r="I9" s="65"/>
     </row>
-    <row r="10" spans="1:10" ht="8.25" customHeight="1"/>
-    <row r="11" spans="1:10" s="52" customFormat="1" ht="32.25" customHeight="1">
+    <row r="10" spans="1:10" ht="8.25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="11" spans="1:10" s="52" customFormat="1" ht="32.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A11" s="50" t="s">
         <v>0</v>
       </c>
@@ -13981,7 +13990,7 @@
         <v>39</v>
       </c>
     </row>
-    <row r="12" spans="1:10" s="10" customFormat="1" ht="21" customHeight="1">
+    <row r="12" spans="1:10" s="10" customFormat="1" ht="21" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A12" s="171" t="s">
         <v>13</v>
       </c>
@@ -13997,7 +14006,7 @@
       </c>
       <c r="J12" s="7"/>
     </row>
-    <row r="13" spans="1:10" ht="21" customHeight="1">
+    <row r="13" spans="1:10" ht="21" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A13" s="38">
         <v>41360</v>
       </c>
@@ -14023,7 +14032,7 @@
       </c>
       <c r="J13" s="40"/>
     </row>
-    <row r="14" spans="1:10" ht="21" customHeight="1">
+    <row r="14" spans="1:10" ht="21" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A14" s="34">
         <v>41405</v>
       </c>
@@ -14047,7 +14056,7 @@
       </c>
       <c r="J14" s="36"/>
     </row>
-    <row r="15" spans="1:10" ht="21" customHeight="1">
+    <row r="15" spans="1:10" ht="21" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A15" s="12">
         <v>41464</v>
       </c>
@@ -14073,7 +14082,7 @@
       </c>
       <c r="J15" s="11"/>
     </row>
-    <row r="16" spans="1:10" ht="21" customHeight="1">
+    <row r="16" spans="1:10" ht="21" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A16" s="12">
         <v>41550</v>
       </c>
@@ -14099,7 +14108,7 @@
       </c>
       <c r="J16" s="11"/>
     </row>
-    <row r="17" spans="1:10" ht="21" customHeight="1">
+    <row r="17" spans="1:10" ht="21" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A17" s="34">
         <v>41592</v>
       </c>
@@ -14123,7 +14132,7 @@
       </c>
       <c r="J17" s="36"/>
     </row>
-    <row r="18" spans="1:10" ht="21" customHeight="1">
+    <row r="18" spans="1:10" ht="21" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A18" s="12">
         <v>41596</v>
       </c>
@@ -14149,7 +14158,7 @@
       </c>
       <c r="J18" s="11"/>
     </row>
-    <row r="19" spans="1:10" ht="21" customHeight="1">
+    <row r="19" spans="1:10" ht="21" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A19" s="12">
         <v>41709</v>
       </c>
@@ -14176,7 +14185,7 @@
       </c>
       <c r="J19" s="11"/>
     </row>
-    <row r="20" spans="1:10" ht="21" customHeight="1">
+    <row r="20" spans="1:10" ht="21" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A20" s="34">
         <v>41748</v>
       </c>
@@ -14200,7 +14209,7 @@
       </c>
       <c r="J20" s="36"/>
     </row>
-    <row r="21" spans="1:10" ht="21" customHeight="1">
+    <row r="21" spans="1:10" ht="21" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A21" s="12">
         <v>41792</v>
       </c>
@@ -14226,7 +14235,7 @@
       </c>
       <c r="J21" s="11"/>
     </row>
-    <row r="22" spans="1:10" ht="21" customHeight="1">
+    <row r="22" spans="1:10" ht="21" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A22" s="34">
         <v>41748</v>
       </c>
@@ -14251,7 +14260,7 @@
       </c>
       <c r="J22" s="36"/>
     </row>
-    <row r="23" spans="1:10" ht="21" customHeight="1">
+    <row r="23" spans="1:10" ht="21" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A23" s="12">
         <v>41885</v>
       </c>
@@ -14277,7 +14286,7 @@
       </c>
       <c r="J23" s="11"/>
     </row>
-    <row r="24" spans="1:10" ht="21" customHeight="1">
+    <row r="24" spans="1:10" ht="21" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A24" s="12">
         <v>42327</v>
       </c>
@@ -14303,7 +14312,7 @@
       </c>
       <c r="J24" s="11"/>
     </row>
-    <row r="25" spans="1:10" ht="21" customHeight="1">
+    <row r="25" spans="1:10" ht="21" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A25" s="34">
         <v>42332</v>
       </c>
@@ -14328,7 +14337,7 @@
       </c>
       <c r="J25" s="36"/>
     </row>
-    <row r="26" spans="1:10" ht="21" customHeight="1">
+    <row r="26" spans="1:10" ht="21" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A26" s="12">
         <v>42342</v>
       </c>
@@ -14354,7 +14363,7 @@
       </c>
       <c r="J26" s="11"/>
     </row>
-    <row r="27" spans="1:10" ht="21" customHeight="1">
+    <row r="27" spans="1:10" ht="21" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A27" s="12"/>
       <c r="B27" s="13"/>
       <c r="C27" s="13"/>
@@ -14372,7 +14381,7 @@
       </c>
       <c r="J27" s="11"/>
     </row>
-    <row r="28" spans="1:10" ht="21" customHeight="1">
+    <row r="28" spans="1:10" ht="21" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A28" s="12"/>
       <c r="B28" s="13"/>
       <c r="C28" s="13"/>
@@ -14390,7 +14399,7 @@
       </c>
       <c r="J28" s="11"/>
     </row>
-    <row r="29" spans="1:10" ht="21" customHeight="1">
+    <row r="29" spans="1:10" ht="21" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A29" s="12"/>
       <c r="B29" s="13"/>
       <c r="C29" s="13"/>
@@ -14408,7 +14417,7 @@
       </c>
       <c r="J29" s="11"/>
     </row>
-    <row r="30" spans="1:10" s="18" customFormat="1" ht="21" customHeight="1">
+    <row r="30" spans="1:10" s="18" customFormat="1" ht="21" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A30" s="176" t="s">
         <v>40</v>
       </c>
@@ -14431,8 +14440,8 @@
       </c>
       <c r="J30" s="17"/>
     </row>
-    <row r="31" spans="1:10" ht="21" customHeight="1"/>
-    <row r="32" spans="1:10" ht="21" customHeight="1">
+    <row r="31" spans="1:10" ht="21" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="32" spans="1:10" ht="21" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B32" s="54" t="s">
         <v>41</v>
       </c>
@@ -14445,19 +14454,19 @@
         <v>43</v>
       </c>
     </row>
-    <row r="33" spans="1:8" ht="21" customHeight="1">
+    <row r="33" spans="1:8" ht="21" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B33" s="54" t="s">
         <v>42</v>
       </c>
       <c r="C33" s="56"/>
     </row>
-    <row r="34" spans="1:8" ht="21" customHeight="1"/>
-    <row r="35" spans="1:8" ht="14.25" customHeight="1">
+    <row r="34" spans="1:8" ht="21" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="35" spans="1:8" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="H35" s="20" t="s">
         <v>62</v>
       </c>
     </row>
-    <row r="36" spans="1:8" ht="21" customHeight="1">
+    <row r="36" spans="1:8" ht="21" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A36" s="4" t="s">
         <v>45</v>
       </c>
@@ -14465,20 +14474,20 @@
         <v>44</v>
       </c>
     </row>
-    <row r="37" spans="1:8" ht="21" customHeight="1"/>
-    <row r="38" spans="1:8" ht="21" customHeight="1"/>
-    <row r="39" spans="1:8" ht="21" customHeight="1"/>
-    <row r="40" spans="1:8" ht="21" customHeight="1"/>
-    <row r="41" spans="1:8" ht="21" customHeight="1"/>
-    <row r="42" spans="1:8" ht="21" customHeight="1"/>
-    <row r="43" spans="1:8" ht="21" customHeight="1"/>
-    <row r="44" spans="1:8" ht="21" customHeight="1"/>
-    <row r="45" spans="1:8" ht="21" customHeight="1"/>
-    <row r="46" spans="1:8" ht="21" customHeight="1"/>
-    <row r="47" spans="1:8" ht="21" customHeight="1"/>
-    <row r="48" spans="1:8" ht="21" customHeight="1"/>
-    <row r="49" ht="21" customHeight="1"/>
-    <row r="50" ht="21" customHeight="1"/>
+    <row r="37" spans="1:8" ht="21" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="38" spans="1:8" ht="21" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="39" spans="1:8" ht="21" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="40" spans="1:8" ht="21" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="41" spans="1:8" ht="21" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="42" spans="1:8" ht="21" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="43" spans="1:8" ht="21" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="44" spans="1:8" ht="21" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="45" spans="1:8" ht="21" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="46" spans="1:8" ht="21" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="47" spans="1:8" ht="21" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="48" spans="1:8" ht="21" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="49" ht="21" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="50" ht="21" customHeight="1" x14ac:dyDescent="0.25"/>
   </sheetData>
   <mergeCells count="9">
     <mergeCell ref="E32:F32"/>
@@ -14499,19 +14508,19 @@
 </file>
 
 <file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr enableFormatConditionsCalculation="0">
     <tabColor indexed="33"/>
   </sheetPr>
   <dimension ref="A1:J282"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A5" zoomScale="95" workbookViewId="0">
+    <sheetView topLeftCell="A5" zoomScale="95" workbookViewId="0">
       <pane ySplit="7" topLeftCell="A235" activePane="bottomLeft" state="frozen"/>
       <selection activeCell="A5" sqref="A5"/>
       <selection pane="bottomLeft" activeCell="H249" sqref="H249"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15.75"/>
+  <sheetFormatPr defaultRowHeight="15.75" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" width="10.375" style="2" customWidth="1"/>
     <col min="2" max="2" width="21.25" style="1" customWidth="1"/>
@@ -14526,7 +14535,7 @@
     <col min="11" max="16384" width="9" style="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:10" s="47" customFormat="1" ht="18" customHeight="1">
+    <row r="1" spans="1:10" s="47" customFormat="1" ht="18" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A1" s="174" t="s">
         <v>31</v>
       </c>
@@ -14537,7 +14546,7 @@
       <c r="G1" s="49"/>
       <c r="H1" s="49"/>
     </row>
-    <row r="2" spans="1:10" s="47" customFormat="1" ht="18" customHeight="1">
+    <row r="2" spans="1:10" s="47" customFormat="1" ht="18" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A2" s="174" t="s">
         <v>32</v>
       </c>
@@ -14549,7 +14558,7 @@
       <c r="G2" s="49"/>
       <c r="H2" s="49"/>
     </row>
-    <row r="3" spans="1:10" s="47" customFormat="1" ht="18" customHeight="1">
+    <row r="3" spans="1:10" s="47" customFormat="1" ht="18" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A3" s="174" t="s">
         <v>33</v>
       </c>
@@ -14563,13 +14572,13 @@
       <c r="G3" s="49"/>
       <c r="H3" s="49"/>
     </row>
-    <row r="4" spans="1:10" s="42" customFormat="1" ht="9" customHeight="1">
+    <row r="4" spans="1:10" s="42" customFormat="1" ht="9" customHeight="1" x14ac:dyDescent="0.3">
       <c r="E4" s="105"/>
       <c r="F4" s="107"/>
       <c r="G4" s="44"/>
       <c r="H4" s="44"/>
     </row>
-    <row r="5" spans="1:10" s="45" customFormat="1" ht="29.25" customHeight="1">
+    <row r="5" spans="1:10" s="45" customFormat="1" ht="29.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A5" s="169" t="s">
         <v>34</v>
       </c>
@@ -14582,7 +14591,7 @@
       <c r="H5" s="169"/>
       <c r="I5" s="169"/>
     </row>
-    <row r="6" spans="1:10" ht="9" customHeight="1">
+    <row r="6" spans="1:10" ht="9" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A6" s="170"/>
       <c r="B6" s="170"/>
       <c r="C6" s="170"/>
@@ -14593,7 +14602,7 @@
       <c r="H6" s="170"/>
       <c r="I6" s="170"/>
     </row>
-    <row r="7" spans="1:10" s="63" customFormat="1" ht="18" customHeight="1">
+    <row r="7" spans="1:10" s="63" customFormat="1" ht="18" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A7" s="117" t="s">
         <v>91</v>
       </c>
@@ -14608,7 +14617,7 @@
       <c r="H7" s="65"/>
       <c r="I7" s="65"/>
     </row>
-    <row r="8" spans="1:10" s="63" customFormat="1" ht="18" hidden="1" customHeight="1">
+    <row r="8" spans="1:10" s="63" customFormat="1" ht="18" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A8" s="117"/>
       <c r="C8" s="64"/>
       <c r="D8" s="65"/>
@@ -14618,7 +14627,7 @@
       <c r="H8" s="65"/>
       <c r="I8" s="65"/>
     </row>
-    <row r="9" spans="1:10" s="63" customFormat="1" ht="18" hidden="1" customHeight="1">
+    <row r="9" spans="1:10" s="63" customFormat="1" ht="18" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A9" s="62"/>
       <c r="C9" s="75"/>
       <c r="D9" s="65"/>
@@ -14628,8 +14637,8 @@
       <c r="H9" s="65"/>
       <c r="I9" s="65"/>
     </row>
-    <row r="10" spans="1:10" ht="8.25" customHeight="1"/>
-    <row r="11" spans="1:10" s="52" customFormat="1" ht="32.25" customHeight="1">
+    <row r="10" spans="1:10" ht="8.25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="11" spans="1:10" s="52" customFormat="1" ht="32.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A11" s="50" t="s">
         <v>0</v>
       </c>
@@ -14661,7 +14670,7 @@
         <v>39</v>
       </c>
     </row>
-    <row r="12" spans="1:10" s="10" customFormat="1" ht="21" customHeight="1">
+    <row r="12" spans="1:10" s="10" customFormat="1" ht="21" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A12" s="171" t="s">
         <v>13</v>
       </c>
@@ -14677,7 +14686,7 @@
       </c>
       <c r="J12" s="7"/>
     </row>
-    <row r="13" spans="1:10" ht="21" customHeight="1">
+    <row r="13" spans="1:10" ht="21" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A13" s="38">
         <v>41289</v>
       </c>
@@ -14703,7 +14712,7 @@
       </c>
       <c r="J13" s="40"/>
     </row>
-    <row r="14" spans="1:10" ht="21" customHeight="1">
+    <row r="14" spans="1:10" ht="21" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A14" s="34">
         <v>41299</v>
       </c>
@@ -14729,7 +14738,7 @@
       </c>
       <c r="J14" s="36"/>
     </row>
-    <row r="15" spans="1:10" ht="21" customHeight="1">
+    <row r="15" spans="1:10" ht="21" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A15" s="12">
         <v>41302</v>
       </c>
@@ -14755,7 +14764,7 @@
       </c>
       <c r="J15" s="11"/>
     </row>
-    <row r="16" spans="1:10" ht="21" customHeight="1">
+    <row r="16" spans="1:10" ht="21" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A16" s="12">
         <v>41306</v>
       </c>
@@ -14781,7 +14790,7 @@
       </c>
       <c r="J16" s="11"/>
     </row>
-    <row r="17" spans="1:10" ht="21" customHeight="1">
+    <row r="17" spans="1:10" ht="21" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A17" s="12">
         <v>41306</v>
       </c>
@@ -14807,7 +14816,7 @@
       </c>
       <c r="J17" s="11"/>
     </row>
-    <row r="18" spans="1:10" ht="21" customHeight="1">
+    <row r="18" spans="1:10" ht="21" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A18" s="12">
         <v>41306</v>
       </c>
@@ -14833,7 +14842,7 @@
       </c>
       <c r="J18" s="11"/>
     </row>
-    <row r="19" spans="1:10" ht="21" customHeight="1">
+    <row r="19" spans="1:10" ht="21" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A19" s="12">
         <v>41302</v>
       </c>
@@ -14857,7 +14866,7 @@
       </c>
       <c r="J19" s="11"/>
     </row>
-    <row r="20" spans="1:10" ht="21" customHeight="1">
+    <row r="20" spans="1:10" ht="21" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A20" s="12">
         <v>41312</v>
       </c>
@@ -14881,7 +14890,7 @@
       </c>
       <c r="J20" s="11"/>
     </row>
-    <row r="21" spans="1:10" ht="21" customHeight="1">
+    <row r="21" spans="1:10" ht="21" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A21" s="12">
         <v>41330</v>
       </c>
@@ -14905,7 +14914,7 @@
       </c>
       <c r="J21" s="11"/>
     </row>
-    <row r="22" spans="1:10" ht="21" customHeight="1">
+    <row r="22" spans="1:10" ht="21" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A22" s="12">
         <v>41330</v>
       </c>
@@ -14931,7 +14940,7 @@
       </c>
       <c r="J22" s="11"/>
     </row>
-    <row r="23" spans="1:10" ht="21" customHeight="1">
+    <row r="23" spans="1:10" ht="21" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A23" s="12">
         <v>41333</v>
       </c>
@@ -14957,7 +14966,7 @@
       </c>
       <c r="J23" s="11"/>
     </row>
-    <row r="24" spans="1:10" ht="21" customHeight="1">
+    <row r="24" spans="1:10" ht="21" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A24" s="12">
         <v>41333</v>
       </c>
@@ -14983,7 +14992,7 @@
       </c>
       <c r="J24" s="11"/>
     </row>
-    <row r="25" spans="1:10" ht="21" customHeight="1">
+    <row r="25" spans="1:10" ht="21" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A25" s="12">
         <v>41340</v>
       </c>
@@ -15009,7 +15018,7 @@
       </c>
       <c r="J25" s="11"/>
     </row>
-    <row r="26" spans="1:10" ht="21" customHeight="1">
+    <row r="26" spans="1:10" ht="21" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A26" s="12">
         <v>41345</v>
       </c>
@@ -15035,7 +15044,7 @@
       </c>
       <c r="J26" s="11"/>
     </row>
-    <row r="27" spans="1:10" ht="21" customHeight="1">
+    <row r="27" spans="1:10" ht="21" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A27" s="12">
         <v>41345</v>
       </c>
@@ -15061,7 +15070,7 @@
       </c>
       <c r="J27" s="11"/>
     </row>
-    <row r="28" spans="1:10" ht="21" customHeight="1">
+    <row r="28" spans="1:10" ht="21" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A28" s="12">
         <v>41358</v>
       </c>
@@ -15087,7 +15096,7 @@
       </c>
       <c r="J28" s="11"/>
     </row>
-    <row r="29" spans="1:10" ht="21" customHeight="1">
+    <row r="29" spans="1:10" ht="21" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A29" s="12">
         <v>41347</v>
       </c>
@@ -15111,7 +15120,7 @@
       </c>
       <c r="J29" s="11"/>
     </row>
-    <row r="30" spans="1:10" ht="21" customHeight="1">
+    <row r="30" spans="1:10" ht="21" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A30" s="12">
         <v>41389</v>
       </c>
@@ -15137,7 +15146,7 @@
       </c>
       <c r="J30" s="11"/>
     </row>
-    <row r="31" spans="1:10" ht="21" customHeight="1">
+    <row r="31" spans="1:10" ht="21" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A31" s="12">
         <v>41389</v>
       </c>
@@ -15163,7 +15172,7 @@
       </c>
       <c r="J31" s="11"/>
     </row>
-    <row r="32" spans="1:10" ht="21" customHeight="1">
+    <row r="32" spans="1:10" ht="21" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A32" s="12">
         <v>41375</v>
       </c>
@@ -15187,7 +15196,7 @@
       </c>
       <c r="J32" s="11"/>
     </row>
-    <row r="33" spans="1:10" ht="21" customHeight="1">
+    <row r="33" spans="1:10" ht="21" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A33" s="12">
         <v>41418</v>
       </c>
@@ -15213,7 +15222,7 @@
       </c>
       <c r="J33" s="11"/>
     </row>
-    <row r="34" spans="1:10" ht="21" customHeight="1">
+    <row r="34" spans="1:10" ht="21" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A34" s="12">
         <v>41422</v>
       </c>
@@ -15239,7 +15248,7 @@
       </c>
       <c r="J34" s="11"/>
     </row>
-    <row r="35" spans="1:10" ht="21" customHeight="1">
+    <row r="35" spans="1:10" ht="21" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A35" s="12">
         <v>41422</v>
       </c>
@@ -15265,7 +15274,7 @@
       </c>
       <c r="J35" s="11"/>
     </row>
-    <row r="36" spans="1:10" ht="21" customHeight="1">
+    <row r="36" spans="1:10" ht="21" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A36" s="12">
         <v>41422</v>
       </c>
@@ -15291,7 +15300,7 @@
       </c>
       <c r="J36" s="11"/>
     </row>
-    <row r="37" spans="1:10" ht="21" customHeight="1">
+    <row r="37" spans="1:10" ht="21" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A37" s="12">
         <v>41426</v>
       </c>
@@ -15317,7 +15326,7 @@
       </c>
       <c r="J37" s="11"/>
     </row>
-    <row r="38" spans="1:10" ht="21" customHeight="1">
+    <row r="38" spans="1:10" ht="21" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A38" s="12">
         <v>41426</v>
       </c>
@@ -15343,7 +15352,7 @@
       </c>
       <c r="J38" s="11"/>
     </row>
-    <row r="39" spans="1:10" ht="21" customHeight="1">
+    <row r="39" spans="1:10" ht="21" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A39" s="12">
         <v>41426</v>
       </c>
@@ -15367,7 +15376,7 @@
       </c>
       <c r="J39" s="11"/>
     </row>
-    <row r="40" spans="1:10" ht="21" customHeight="1">
+    <row r="40" spans="1:10" ht="21" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A40" s="12">
         <v>41430</v>
       </c>
@@ -15393,7 +15402,7 @@
       </c>
       <c r="J40" s="11"/>
     </row>
-    <row r="41" spans="1:10" ht="21" customHeight="1">
+    <row r="41" spans="1:10" ht="21" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A41" s="12">
         <v>41430</v>
       </c>
@@ -15419,7 +15428,7 @@
       </c>
       <c r="J41" s="11"/>
     </row>
-    <row r="42" spans="1:10" ht="21" customHeight="1">
+    <row r="42" spans="1:10" ht="21" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A42" s="12">
         <v>41436</v>
       </c>
@@ -15445,7 +15454,7 @@
       </c>
       <c r="J42" s="11"/>
     </row>
-    <row r="43" spans="1:10" ht="21" customHeight="1">
+    <row r="43" spans="1:10" ht="21" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A43" s="12">
         <v>41436</v>
       </c>
@@ -15471,7 +15480,7 @@
       </c>
       <c r="J43" s="11"/>
     </row>
-    <row r="44" spans="1:10" ht="21" customHeight="1">
+    <row r="44" spans="1:10" ht="21" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A44" s="12">
         <v>41436</v>
       </c>
@@ -15497,7 +15506,7 @@
       </c>
       <c r="J44" s="11"/>
     </row>
-    <row r="45" spans="1:10" ht="21" customHeight="1">
+    <row r="45" spans="1:10" ht="21" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A45" s="12">
         <v>41436</v>
       </c>
@@ -15523,7 +15532,7 @@
       </c>
       <c r="J45" s="11"/>
     </row>
-    <row r="46" spans="1:10" ht="21" customHeight="1">
+    <row r="46" spans="1:10" ht="21" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A46" s="12">
         <v>41436</v>
       </c>
@@ -15547,7 +15556,7 @@
       </c>
       <c r="J46" s="11"/>
     </row>
-    <row r="47" spans="1:10" ht="21" customHeight="1">
+    <row r="47" spans="1:10" ht="21" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A47" s="12">
         <v>41447</v>
       </c>
@@ -15573,7 +15582,7 @@
       </c>
       <c r="J47" s="11"/>
     </row>
-    <row r="48" spans="1:10" ht="21" customHeight="1">
+    <row r="48" spans="1:10" ht="21" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A48" s="12">
         <v>41447</v>
       </c>
@@ -15599,7 +15608,7 @@
       </c>
       <c r="J48" s="11"/>
     </row>
-    <row r="49" spans="1:10" ht="21" customHeight="1">
+    <row r="49" spans="1:10" ht="21" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A49" s="12">
         <v>41451</v>
       </c>
@@ -15625,7 +15634,7 @@
       </c>
       <c r="J49" s="11"/>
     </row>
-    <row r="50" spans="1:10" ht="21" customHeight="1">
+    <row r="50" spans="1:10" ht="21" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A50" s="12">
         <v>41451</v>
       </c>
@@ -15651,7 +15660,7 @@
       </c>
       <c r="J50" s="11"/>
     </row>
-    <row r="51" spans="1:10" ht="21" customHeight="1">
+    <row r="51" spans="1:10" ht="21" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A51" s="12">
         <v>41451</v>
       </c>
@@ -15677,7 +15686,7 @@
       </c>
       <c r="J51" s="11"/>
     </row>
-    <row r="52" spans="1:10" ht="21" customHeight="1">
+    <row r="52" spans="1:10" ht="21" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A52" s="12">
         <v>41456</v>
       </c>
@@ -15703,7 +15712,7 @@
       </c>
       <c r="J52" s="11"/>
     </row>
-    <row r="53" spans="1:10" ht="21" customHeight="1">
+    <row r="53" spans="1:10" ht="21" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A53" s="12">
         <v>41456</v>
       </c>
@@ -15729,7 +15738,7 @@
       </c>
       <c r="J53" s="11"/>
     </row>
-    <row r="54" spans="1:10" ht="21" customHeight="1">
+    <row r="54" spans="1:10" ht="21" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A54" s="12">
         <v>41458</v>
       </c>
@@ -15755,7 +15764,7 @@
       </c>
       <c r="J54" s="11"/>
     </row>
-    <row r="55" spans="1:10" ht="21" customHeight="1">
+    <row r="55" spans="1:10" ht="21" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A55" s="12">
         <v>41458</v>
       </c>
@@ -15781,7 +15790,7 @@
       </c>
       <c r="J55" s="11"/>
     </row>
-    <row r="56" spans="1:10" ht="21" customHeight="1">
+    <row r="56" spans="1:10" ht="21" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A56" s="12">
         <v>41458</v>
       </c>
@@ -15807,7 +15816,7 @@
       </c>
       <c r="J56" s="11"/>
     </row>
-    <row r="57" spans="1:10" ht="21" customHeight="1">
+    <row r="57" spans="1:10" ht="21" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A57" s="12">
         <v>41461</v>
       </c>
@@ -15831,7 +15840,7 @@
       </c>
       <c r="J57" s="11"/>
     </row>
-    <row r="58" spans="1:10" ht="21" customHeight="1">
+    <row r="58" spans="1:10" ht="21" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A58" s="12">
         <v>41474</v>
       </c>
@@ -15859,7 +15868,7 @@
       </c>
       <c r="J58" s="11"/>
     </row>
-    <row r="59" spans="1:10" ht="21" customHeight="1">
+    <row r="59" spans="1:10" ht="21" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A59" s="12"/>
       <c r="B59" s="13" t="s">
         <v>102</v>
@@ -15885,7 +15894,7 @@
       </c>
       <c r="J59" s="11"/>
     </row>
-    <row r="60" spans="1:10" ht="21" customHeight="1">
+    <row r="60" spans="1:10" ht="21" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A60" s="12">
         <v>41478</v>
       </c>
@@ -15913,7 +15922,7 @@
       </c>
       <c r="J60" s="11"/>
     </row>
-    <row r="61" spans="1:10" ht="21" customHeight="1">
+    <row r="61" spans="1:10" ht="21" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A61" s="12"/>
       <c r="B61" s="13" t="s">
         <v>95</v>
@@ -15939,7 +15948,7 @@
       </c>
       <c r="J61" s="11"/>
     </row>
-    <row r="62" spans="1:10" ht="21" customHeight="1">
+    <row r="62" spans="1:10" ht="21" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A62" s="12"/>
       <c r="B62" s="13" t="s">
         <v>102</v>
@@ -15965,7 +15974,7 @@
       </c>
       <c r="J62" s="11"/>
     </row>
-    <row r="63" spans="1:10" ht="21" customHeight="1">
+    <row r="63" spans="1:10" ht="21" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A63" s="12">
         <v>41478</v>
       </c>
@@ -15989,7 +15998,7 @@
       </c>
       <c r="J63" s="11"/>
     </row>
-    <row r="64" spans="1:10" ht="21" customHeight="1">
+    <row r="64" spans="1:10" ht="21" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A64" s="12">
         <v>41499</v>
       </c>
@@ -16014,7 +16023,7 @@
       </c>
       <c r="J64" s="11"/>
     </row>
-    <row r="65" spans="1:10" ht="21" customHeight="1">
+    <row r="65" spans="1:10" ht="21" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A65" s="12">
         <v>41482</v>
       </c>
@@ -16042,7 +16051,7 @@
       </c>
       <c r="J65" s="11"/>
     </row>
-    <row r="66" spans="1:10" ht="21" customHeight="1">
+    <row r="66" spans="1:10" ht="21" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A66" s="12"/>
       <c r="B66" s="13" t="s">
         <v>95</v>
@@ -16068,7 +16077,7 @@
       </c>
       <c r="J66" s="11"/>
     </row>
-    <row r="67" spans="1:10" ht="21" customHeight="1">
+    <row r="67" spans="1:10" ht="21" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A67" s="12">
         <v>41489</v>
       </c>
@@ -16096,7 +16105,7 @@
       </c>
       <c r="J67" s="11"/>
     </row>
-    <row r="68" spans="1:10" ht="21" customHeight="1">
+    <row r="68" spans="1:10" ht="21" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A68" s="12"/>
       <c r="B68" s="13" t="s">
         <v>95</v>
@@ -16122,7 +16131,7 @@
       </c>
       <c r="J68" s="11"/>
     </row>
-    <row r="69" spans="1:10" ht="21" customHeight="1">
+    <row r="69" spans="1:10" ht="21" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A69" s="12">
         <v>41494</v>
       </c>
@@ -16150,7 +16159,7 @@
       </c>
       <c r="J69" s="11"/>
     </row>
-    <row r="70" spans="1:10" ht="21" customHeight="1">
+    <row r="70" spans="1:10" ht="21" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A70" s="12"/>
       <c r="B70" s="13" t="s">
         <v>95</v>
@@ -16176,7 +16185,7 @@
       </c>
       <c r="J70" s="11"/>
     </row>
-    <row r="71" spans="1:10" ht="21" customHeight="1">
+    <row r="71" spans="1:10" ht="21" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A71" s="12"/>
       <c r="B71" s="13" t="s">
         <v>102</v>
@@ -16202,7 +16211,7 @@
       </c>
       <c r="J71" s="11"/>
     </row>
-    <row r="72" spans="1:10" ht="21" customHeight="1">
+    <row r="72" spans="1:10" ht="21" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A72" s="12">
         <v>41498</v>
       </c>
@@ -16230,7 +16239,7 @@
       </c>
       <c r="J72" s="11"/>
     </row>
-    <row r="73" spans="1:10" ht="21" customHeight="1">
+    <row r="73" spans="1:10" ht="21" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A73" s="12"/>
       <c r="B73" s="13" t="s">
         <v>95</v>
@@ -16256,7 +16265,7 @@
       </c>
       <c r="J73" s="11"/>
     </row>
-    <row r="74" spans="1:10" ht="21" customHeight="1">
+    <row r="74" spans="1:10" ht="21" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A74" s="12">
         <v>41501</v>
       </c>
@@ -16284,7 +16293,7 @@
       </c>
       <c r="J74" s="11"/>
     </row>
-    <row r="75" spans="1:10" ht="21" customHeight="1">
+    <row r="75" spans="1:10" ht="21" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A75" s="12"/>
       <c r="B75" s="13" t="s">
         <v>95</v>
@@ -16310,7 +16319,7 @@
       </c>
       <c r="J75" s="11"/>
     </row>
-    <row r="76" spans="1:10" ht="21" customHeight="1">
+    <row r="76" spans="1:10" ht="21" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A76" s="12"/>
       <c r="B76" s="13" t="s">
         <v>102</v>
@@ -16336,7 +16345,7 @@
       </c>
       <c r="J76" s="11"/>
     </row>
-    <row r="77" spans="1:10" ht="21" customHeight="1">
+    <row r="77" spans="1:10" ht="21" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A77" s="12">
         <v>41503</v>
       </c>
@@ -16364,7 +16373,7 @@
       </c>
       <c r="J77" s="11"/>
     </row>
-    <row r="78" spans="1:10" ht="21" customHeight="1">
+    <row r="78" spans="1:10" ht="21" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A78" s="12">
         <v>41510</v>
       </c>
@@ -16392,7 +16401,7 @@
       </c>
       <c r="J78" s="11"/>
     </row>
-    <row r="79" spans="1:10" ht="21" customHeight="1">
+    <row r="79" spans="1:10" ht="21" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A79" s="12"/>
       <c r="B79" s="13" t="s">
         <v>102</v>
@@ -16418,7 +16427,7 @@
       </c>
       <c r="J79" s="11"/>
     </row>
-    <row r="80" spans="1:10" ht="21" customHeight="1">
+    <row r="80" spans="1:10" ht="21" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A80" s="12"/>
       <c r="B80" s="13" t="s">
         <v>117</v>
@@ -16438,7 +16447,7 @@
       </c>
       <c r="J80" s="11"/>
     </row>
-    <row r="81" spans="1:10" ht="21" customHeight="1">
+    <row r="81" spans="1:10" ht="21" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A81" s="12">
         <v>41515</v>
       </c>
@@ -16466,7 +16475,7 @@
       </c>
       <c r="J81" s="11"/>
     </row>
-    <row r="82" spans="1:10" ht="21" customHeight="1">
+    <row r="82" spans="1:10" ht="21" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A82" s="12"/>
       <c r="B82" s="13" t="s">
         <v>102</v>
@@ -16492,7 +16501,7 @@
       </c>
       <c r="J82" s="11"/>
     </row>
-    <row r="83" spans="1:10" ht="21" customHeight="1">
+    <row r="83" spans="1:10" ht="21" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A83" s="12"/>
       <c r="B83" s="13" t="s">
         <v>117</v>
@@ -16512,7 +16521,7 @@
       </c>
       <c r="J83" s="11"/>
     </row>
-    <row r="84" spans="1:10" ht="21" customHeight="1">
+    <row r="84" spans="1:10" ht="21" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A84" s="12">
         <v>41515</v>
       </c>
@@ -16536,7 +16545,7 @@
       </c>
       <c r="J84" s="11"/>
     </row>
-    <row r="85" spans="1:10" ht="21" customHeight="1">
+    <row r="85" spans="1:10" ht="21" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A85" s="12"/>
       <c r="B85" s="13" t="s">
         <v>118</v>
@@ -16555,7 +16564,7 @@
       </c>
       <c r="J85" s="11"/>
     </row>
-    <row r="86" spans="1:10" ht="21" customHeight="1">
+    <row r="86" spans="1:10" ht="21" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A86" s="12">
         <v>41522</v>
       </c>
@@ -16583,7 +16592,7 @@
       </c>
       <c r="J86" s="11"/>
     </row>
-    <row r="87" spans="1:10" ht="21" customHeight="1">
+    <row r="87" spans="1:10" ht="21" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A87" s="12"/>
       <c r="B87" s="13" t="s">
         <v>102</v>
@@ -16609,7 +16618,7 @@
       </c>
       <c r="J87" s="11"/>
     </row>
-    <row r="88" spans="1:10" ht="21" customHeight="1">
+    <row r="88" spans="1:10" ht="21" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A88" s="12">
         <v>41527</v>
       </c>
@@ -16637,7 +16646,7 @@
       </c>
       <c r="J88" s="11"/>
     </row>
-    <row r="89" spans="1:10" ht="21" customHeight="1">
+    <row r="89" spans="1:10" ht="21" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A89" s="12">
         <v>41530</v>
       </c>
@@ -16665,7 +16674,7 @@
       </c>
       <c r="J89" s="11"/>
     </row>
-    <row r="90" spans="1:10" ht="21" customHeight="1">
+    <row r="90" spans="1:10" ht="21" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A90" s="12"/>
       <c r="B90" s="13" t="s">
         <v>102</v>
@@ -16691,7 +16700,7 @@
       </c>
       <c r="J90" s="11"/>
     </row>
-    <row r="91" spans="1:10" ht="21" customHeight="1">
+    <row r="91" spans="1:10" ht="21" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A91" s="12">
         <v>41534</v>
       </c>
@@ -16719,7 +16728,7 @@
       </c>
       <c r="J91" s="11"/>
     </row>
-    <row r="92" spans="1:10" ht="21" customHeight="1">
+    <row r="92" spans="1:10" ht="21" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A92" s="12"/>
       <c r="B92" s="13" t="s">
         <v>102</v>
@@ -16745,7 +16754,7 @@
       </c>
       <c r="J92" s="11"/>
     </row>
-    <row r="93" spans="1:10" ht="21" customHeight="1">
+    <row r="93" spans="1:10" ht="21" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A93" s="12">
         <v>41536</v>
       </c>
@@ -16773,7 +16782,7 @@
       </c>
       <c r="J93" s="11"/>
     </row>
-    <row r="94" spans="1:10" ht="21" customHeight="1">
+    <row r="94" spans="1:10" ht="21" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A94" s="12">
         <v>41542</v>
       </c>
@@ -16801,7 +16810,7 @@
       </c>
       <c r="J94" s="11"/>
     </row>
-    <row r="95" spans="1:10" ht="21" customHeight="1">
+    <row r="95" spans="1:10" ht="21" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A95" s="12"/>
       <c r="B95" s="13" t="s">
         <v>102</v>
@@ -16827,7 +16836,7 @@
       </c>
       <c r="J95" s="11"/>
     </row>
-    <row r="96" spans="1:10" ht="21" customHeight="1">
+    <row r="96" spans="1:10" ht="21" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A96" s="12">
         <v>41549</v>
       </c>
@@ -16851,7 +16860,7 @@
       </c>
       <c r="J96" s="11"/>
     </row>
-    <row r="97" spans="1:10" ht="21" customHeight="1">
+    <row r="97" spans="1:10" ht="21" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A97" s="12">
         <v>41547</v>
       </c>
@@ -16879,7 +16888,7 @@
       </c>
       <c r="J97" s="11"/>
     </row>
-    <row r="98" spans="1:10" ht="21" customHeight="1">
+    <row r="98" spans="1:10" ht="21" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A98" s="12"/>
       <c r="B98" s="13" t="s">
         <v>127</v>
@@ -16905,7 +16914,7 @@
       </c>
       <c r="J98" s="11"/>
     </row>
-    <row r="99" spans="1:10" ht="21" customHeight="1">
+    <row r="99" spans="1:10" ht="21" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A99" s="12"/>
       <c r="B99" s="13" t="s">
         <v>128</v>
@@ -16931,7 +16940,7 @@
       </c>
       <c r="J99" s="11"/>
     </row>
-    <row r="100" spans="1:10" ht="21" customHeight="1">
+    <row r="100" spans="1:10" ht="21" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A100" s="12">
         <v>41551</v>
       </c>
@@ -16959,7 +16968,7 @@
       </c>
       <c r="J100" s="11"/>
     </row>
-    <row r="101" spans="1:10" ht="21" customHeight="1">
+    <row r="101" spans="1:10" ht="21" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A101" s="12"/>
       <c r="B101" s="13" t="s">
         <v>103</v>
@@ -16985,7 +16994,7 @@
       </c>
       <c r="J101" s="11"/>
     </row>
-    <row r="102" spans="1:10" ht="21" customHeight="1">
+    <row r="102" spans="1:10" ht="21" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A102" s="12">
         <v>41554</v>
       </c>
@@ -17013,7 +17022,7 @@
       </c>
       <c r="J102" s="11"/>
     </row>
-    <row r="103" spans="1:10" ht="21" customHeight="1">
+    <row r="103" spans="1:10" ht="21" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A103" s="12"/>
       <c r="B103" s="13" t="s">
         <v>127</v>
@@ -17039,7 +17048,7 @@
       </c>
       <c r="J103" s="11"/>
     </row>
-    <row r="104" spans="1:10" ht="21" customHeight="1">
+    <row r="104" spans="1:10" ht="21" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A104" s="12"/>
       <c r="B104" s="13" t="s">
         <v>128</v>
@@ -17065,7 +17074,7 @@
       </c>
       <c r="J104" s="11"/>
     </row>
-    <row r="105" spans="1:10" ht="21" customHeight="1">
+    <row r="105" spans="1:10" ht="21" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A105" s="12">
         <v>41557</v>
       </c>
@@ -17093,7 +17102,7 @@
       </c>
       <c r="J105" s="11"/>
     </row>
-    <row r="106" spans="1:10" ht="21" customHeight="1">
+    <row r="106" spans="1:10" ht="21" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A106" s="12"/>
       <c r="B106" s="13" t="s">
         <v>94</v>
@@ -17119,7 +17128,7 @@
       </c>
       <c r="J106" s="11"/>
     </row>
-    <row r="107" spans="1:10" ht="21" customHeight="1">
+    <row r="107" spans="1:10" ht="21" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A107" s="12">
         <v>41559</v>
       </c>
@@ -17147,7 +17156,7 @@
       </c>
       <c r="J107" s="11"/>
     </row>
-    <row r="108" spans="1:10" ht="21" customHeight="1">
+    <row r="108" spans="1:10" ht="21" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A108" s="12"/>
       <c r="B108" s="13" t="s">
         <v>102</v>
@@ -17173,7 +17182,7 @@
       </c>
       <c r="J108" s="11"/>
     </row>
-    <row r="109" spans="1:10" ht="21" customHeight="1">
+    <row r="109" spans="1:10" ht="21" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A109" s="12">
         <v>41559</v>
       </c>
@@ -17197,7 +17206,7 @@
       </c>
       <c r="J109" s="11"/>
     </row>
-    <row r="110" spans="1:10" ht="21" customHeight="1">
+    <row r="110" spans="1:10" ht="21" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A110" s="12">
         <v>41563</v>
       </c>
@@ -17225,7 +17234,7 @@
       </c>
       <c r="J110" s="11"/>
     </row>
-    <row r="111" spans="1:10" ht="21" customHeight="1">
+    <row r="111" spans="1:10" ht="21" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A111" s="12">
         <v>41564</v>
       </c>
@@ -17253,7 +17262,7 @@
       </c>
       <c r="J111" s="11"/>
     </row>
-    <row r="112" spans="1:10" ht="21" customHeight="1">
+    <row r="112" spans="1:10" ht="21" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A112" s="12"/>
       <c r="B112" s="13" t="s">
         <v>127</v>
@@ -17279,7 +17288,7 @@
       </c>
       <c r="J112" s="11"/>
     </row>
-    <row r="113" spans="1:10" ht="21" customHeight="1">
+    <row r="113" spans="1:10" ht="21" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A113" s="12"/>
       <c r="B113" s="13" t="s">
         <v>128</v>
@@ -17305,7 +17314,7 @@
       </c>
       <c r="J113" s="11"/>
     </row>
-    <row r="114" spans="1:10" ht="21" customHeight="1">
+    <row r="114" spans="1:10" ht="21" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A114" s="12"/>
       <c r="B114" s="13" t="s">
         <v>118</v>
@@ -17324,7 +17333,7 @@
       </c>
       <c r="J114" s="11"/>
     </row>
-    <row r="115" spans="1:10" ht="21" customHeight="1">
+    <row r="115" spans="1:10" ht="21" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A115" s="12">
         <v>41565</v>
       </c>
@@ -17348,7 +17357,7 @@
       </c>
       <c r="J115" s="11"/>
     </row>
-    <row r="116" spans="1:10" ht="21" customHeight="1">
+    <row r="116" spans="1:10" ht="21" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A116" s="12">
         <v>41565</v>
       </c>
@@ -17372,7 +17381,7 @@
       </c>
       <c r="J116" s="11"/>
     </row>
-    <row r="117" spans="1:10" ht="21" customHeight="1">
+    <row r="117" spans="1:10" ht="21" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A117" s="12">
         <v>41566</v>
       </c>
@@ -17400,7 +17409,7 @@
       </c>
       <c r="J117" s="11"/>
     </row>
-    <row r="118" spans="1:10" ht="21" customHeight="1">
+    <row r="118" spans="1:10" ht="21" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A118" s="12"/>
       <c r="B118" s="13" t="s">
         <v>94</v>
@@ -17426,7 +17435,7 @@
       </c>
       <c r="J118" s="11"/>
     </row>
-    <row r="119" spans="1:10" ht="21" customHeight="1">
+    <row r="119" spans="1:10" ht="21" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A119" s="12">
         <v>41569</v>
       </c>
@@ -17454,7 +17463,7 @@
       </c>
       <c r="J119" s="11"/>
     </row>
-    <row r="120" spans="1:10" ht="21" customHeight="1">
+    <row r="120" spans="1:10" ht="21" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A120" s="12">
         <v>41570</v>
       </c>
@@ -17482,7 +17491,7 @@
       </c>
       <c r="J120" s="11"/>
     </row>
-    <row r="121" spans="1:10" ht="21" customHeight="1">
+    <row r="121" spans="1:10" ht="21" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A121" s="12"/>
       <c r="B121" s="13" t="s">
         <v>102</v>
@@ -17508,7 +17517,7 @@
       </c>
       <c r="J121" s="11"/>
     </row>
-    <row r="122" spans="1:10" ht="21" customHeight="1">
+    <row r="122" spans="1:10" ht="21" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A122" s="12">
         <v>41572</v>
       </c>
@@ -17536,7 +17545,7 @@
       </c>
       <c r="J122" s="11"/>
     </row>
-    <row r="123" spans="1:10" ht="21" customHeight="1">
+    <row r="123" spans="1:10" ht="21" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A123" s="12">
         <v>41573</v>
       </c>
@@ -17564,7 +17573,7 @@
       </c>
       <c r="J123" s="11"/>
     </row>
-    <row r="124" spans="1:10" ht="21" customHeight="1">
+    <row r="124" spans="1:10" ht="21" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A124" s="12"/>
       <c r="B124" s="13" t="s">
         <v>95</v>
@@ -17590,7 +17599,7 @@
       </c>
       <c r="J124" s="11"/>
     </row>
-    <row r="125" spans="1:10" ht="21" customHeight="1">
+    <row r="125" spans="1:10" ht="21" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A125" s="12">
         <v>41575</v>
       </c>
@@ -17618,7 +17627,7 @@
       </c>
       <c r="J125" s="11"/>
     </row>
-    <row r="126" spans="1:10" ht="21" customHeight="1">
+    <row r="126" spans="1:10" ht="21" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A126" s="12"/>
       <c r="B126" s="13" t="s">
         <v>102</v>
@@ -17644,7 +17653,7 @@
       </c>
       <c r="J126" s="11"/>
     </row>
-    <row r="127" spans="1:10" ht="21" customHeight="1">
+    <row r="127" spans="1:10" ht="21" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A127" s="12"/>
       <c r="B127" s="13" t="s">
         <v>134</v>
@@ -17670,7 +17679,7 @@
       </c>
       <c r="J127" s="11"/>
     </row>
-    <row r="128" spans="1:10" ht="21" customHeight="1">
+    <row r="128" spans="1:10" ht="21" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A128" s="12">
         <v>41577</v>
       </c>
@@ -17694,7 +17703,7 @@
       </c>
       <c r="J128" s="11"/>
     </row>
-    <row r="129" spans="1:10" ht="21" customHeight="1">
+    <row r="129" spans="1:10" ht="21" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A129" s="12">
         <v>41586</v>
       </c>
@@ -17718,7 +17727,7 @@
       </c>
       <c r="J129" s="11"/>
     </row>
-    <row r="130" spans="1:10" ht="21" customHeight="1">
+    <row r="130" spans="1:10" ht="21" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A130" s="12">
         <v>41576</v>
       </c>
@@ -17746,7 +17755,7 @@
       </c>
       <c r="J130" s="11"/>
     </row>
-    <row r="131" spans="1:10" ht="21" customHeight="1">
+    <row r="131" spans="1:10" ht="21" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A131" s="12">
         <v>41587</v>
       </c>
@@ -17777,7 +17786,7 @@
         <v>1520</v>
       </c>
     </row>
-    <row r="132" spans="1:10" ht="21" customHeight="1">
+    <row r="132" spans="1:10" ht="21" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A132" s="12"/>
       <c r="B132" s="13" t="s">
         <v>95</v>
@@ -17803,7 +17812,7 @@
       </c>
       <c r="J132" s="11"/>
     </row>
-    <row r="133" spans="1:10" ht="21" customHeight="1">
+    <row r="133" spans="1:10" ht="21" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A133" s="12">
         <v>41592</v>
       </c>
@@ -17831,7 +17840,7 @@
       </c>
       <c r="J133" s="11"/>
     </row>
-    <row r="134" spans="1:10" ht="21" customHeight="1">
+    <row r="134" spans="1:10" ht="21" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A134" s="12"/>
       <c r="B134" s="13" t="s">
         <v>141</v>
@@ -17857,7 +17866,7 @@
       </c>
       <c r="J134" s="11"/>
     </row>
-    <row r="135" spans="1:10" ht="21" customHeight="1">
+    <row r="135" spans="1:10" ht="21" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A135" s="12"/>
       <c r="B135" s="13" t="s">
         <v>117</v>
@@ -17877,7 +17886,7 @@
       </c>
       <c r="J135" s="11"/>
     </row>
-    <row r="136" spans="1:10" ht="21" customHeight="1">
+    <row r="136" spans="1:10" ht="21" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A136" s="12">
         <v>41605</v>
       </c>
@@ -17905,7 +17914,7 @@
       </c>
       <c r="J136" s="11"/>
     </row>
-    <row r="137" spans="1:10" ht="21" customHeight="1">
+    <row r="137" spans="1:10" ht="21" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A137" s="12"/>
       <c r="B137" s="13" t="s">
         <v>102</v>
@@ -17931,7 +17940,7 @@
       </c>
       <c r="J137" s="11"/>
     </row>
-    <row r="138" spans="1:10" ht="21" customHeight="1">
+    <row r="138" spans="1:10" ht="21" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A138" s="12"/>
       <c r="B138" s="13" t="s">
         <v>142</v>
@@ -17957,7 +17966,7 @@
       </c>
       <c r="J138" s="11"/>
     </row>
-    <row r="139" spans="1:10" ht="21" customHeight="1">
+    <row r="139" spans="1:10" ht="21" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A139" s="12">
         <v>41606</v>
       </c>
@@ -17981,7 +17990,7 @@
       </c>
       <c r="J139" s="11"/>
     </row>
-    <row r="140" spans="1:10" ht="21" customHeight="1">
+    <row r="140" spans="1:10" ht="21" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A140" s="12">
         <v>41624</v>
       </c>
@@ -18009,7 +18018,7 @@
       </c>
       <c r="J140" s="11"/>
     </row>
-    <row r="141" spans="1:10" ht="21" customHeight="1">
+    <row r="141" spans="1:10" ht="21" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A141" s="12"/>
       <c r="B141" s="13" t="s">
         <v>94</v>
@@ -18035,7 +18044,7 @@
       </c>
       <c r="J141" s="11"/>
     </row>
-    <row r="142" spans="1:10" ht="21" customHeight="1">
+    <row r="142" spans="1:10" ht="21" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A142" s="12"/>
       <c r="B142" s="13" t="s">
         <v>102</v>
@@ -18061,7 +18070,7 @@
       </c>
       <c r="J142" s="11"/>
     </row>
-    <row r="143" spans="1:10" ht="21" customHeight="1">
+    <row r="143" spans="1:10" ht="21" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A143" s="12">
         <v>41632</v>
       </c>
@@ -18089,7 +18098,7 @@
       </c>
       <c r="J143" s="11"/>
     </row>
-    <row r="144" spans="1:10" ht="21" customHeight="1">
+    <row r="144" spans="1:10" ht="21" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A144" s="12"/>
       <c r="B144" s="13" t="s">
         <v>128</v>
@@ -18115,7 +18124,7 @@
       </c>
       <c r="J144" s="11"/>
     </row>
-    <row r="145" spans="1:10" ht="21" customHeight="1">
+    <row r="145" spans="1:10" ht="21" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A145" s="12"/>
       <c r="B145" s="13" t="s">
         <v>151</v>
@@ -18141,7 +18150,7 @@
       </c>
       <c r="J145" s="11"/>
     </row>
-    <row r="146" spans="1:10" ht="21" customHeight="1">
+    <row r="146" spans="1:10" ht="21" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A146" s="12"/>
       <c r="B146" s="13" t="s">
         <v>152</v>
@@ -18167,7 +18176,7 @@
       </c>
       <c r="J146" s="11"/>
     </row>
-    <row r="147" spans="1:10" ht="21" customHeight="1">
+    <row r="147" spans="1:10" ht="21" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A147" s="12">
         <v>41634</v>
       </c>
@@ -18195,7 +18204,7 @@
       </c>
       <c r="J147" s="11"/>
     </row>
-    <row r="148" spans="1:10" ht="21" customHeight="1">
+    <row r="148" spans="1:10" ht="21" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A148" s="12"/>
       <c r="B148" s="13" t="s">
         <v>153</v>
@@ -18221,7 +18230,7 @@
       </c>
       <c r="J148" s="11"/>
     </row>
-    <row r="149" spans="1:10" ht="21" customHeight="1">
+    <row r="149" spans="1:10" ht="21" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A149" s="12"/>
       <c r="B149" s="13" t="s">
         <v>154</v>
@@ -18247,7 +18256,7 @@
       </c>
       <c r="J149" s="11"/>
     </row>
-    <row r="150" spans="1:10" ht="21" customHeight="1">
+    <row r="150" spans="1:10" ht="21" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A150" s="12"/>
       <c r="B150" s="13" t="s">
         <v>127</v>
@@ -18273,7 +18282,7 @@
       </c>
       <c r="J150" s="11"/>
     </row>
-    <row r="151" spans="1:10" ht="21" customHeight="1">
+    <row r="151" spans="1:10" ht="21" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A151" s="12"/>
       <c r="B151" s="13" t="s">
         <v>170</v>
@@ -18299,7 +18308,7 @@
       </c>
       <c r="J151" s="11"/>
     </row>
-    <row r="152" spans="1:10" ht="21" customHeight="1">
+    <row r="152" spans="1:10" ht="21" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A152" s="12"/>
       <c r="B152" s="13" t="s">
         <v>94</v>
@@ -18325,7 +18334,7 @@
       </c>
       <c r="J152" s="11"/>
     </row>
-    <row r="153" spans="1:10" ht="21" customHeight="1">
+    <row r="153" spans="1:10" ht="21" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A153" s="12">
         <v>41652</v>
       </c>
@@ -18349,7 +18358,7 @@
       </c>
       <c r="J153" s="11"/>
     </row>
-    <row r="154" spans="1:10" ht="21" customHeight="1">
+    <row r="154" spans="1:10" ht="21" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A154" s="12">
         <v>41652</v>
       </c>
@@ -18373,7 +18382,7 @@
       </c>
       <c r="J154" s="11"/>
     </row>
-    <row r="155" spans="1:10" ht="21" customHeight="1">
+    <row r="155" spans="1:10" ht="21" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A155" s="12">
         <v>41708</v>
       </c>
@@ -18401,7 +18410,7 @@
       </c>
       <c r="J155" s="11"/>
     </row>
-    <row r="156" spans="1:10" ht="21" customHeight="1">
+    <row r="156" spans="1:10" ht="21" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A156" s="12">
         <v>41734</v>
       </c>
@@ -18425,7 +18434,7 @@
       </c>
       <c r="J156" s="11"/>
     </row>
-    <row r="157" spans="1:10" ht="21" customHeight="1">
+    <row r="157" spans="1:10" ht="21" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A157" s="12"/>
       <c r="B157" s="13" t="s">
         <v>178</v>
@@ -18448,7 +18457,7 @@
       </c>
       <c r="J157" s="11"/>
     </row>
-    <row r="158" spans="1:10" ht="21" customHeight="1">
+    <row r="158" spans="1:10" ht="21" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A158" s="12">
         <v>41745</v>
       </c>
@@ -18476,7 +18485,7 @@
       </c>
       <c r="J158" s="11"/>
     </row>
-    <row r="159" spans="1:10" ht="21" customHeight="1">
+    <row r="159" spans="1:10" ht="21" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A159" s="12"/>
       <c r="B159" s="13" t="s">
         <v>94</v>
@@ -18502,7 +18511,7 @@
       </c>
       <c r="J159" s="11"/>
     </row>
-    <row r="160" spans="1:10" ht="21" customHeight="1">
+    <row r="160" spans="1:10" ht="21" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A160" s="12">
         <v>41750</v>
       </c>
@@ -18530,7 +18539,7 @@
       </c>
       <c r="J160" s="11"/>
     </row>
-    <row r="161" spans="1:10" ht="21" customHeight="1">
+    <row r="161" spans="1:10" ht="21" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A161" s="12">
         <v>41771</v>
       </c>
@@ -18558,7 +18567,7 @@
       </c>
       <c r="J161" s="11"/>
     </row>
-    <row r="162" spans="1:10" ht="21" customHeight="1">
+    <row r="162" spans="1:10" ht="21" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A162" s="12"/>
       <c r="B162" s="13" t="s">
         <v>95</v>
@@ -18584,7 +18593,7 @@
       </c>
       <c r="J162" s="11"/>
     </row>
-    <row r="163" spans="1:10" ht="21" customHeight="1">
+    <row r="163" spans="1:10" ht="21" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A163" s="12">
         <v>41776</v>
       </c>
@@ -18612,7 +18621,7 @@
       </c>
       <c r="J163" s="11"/>
     </row>
-    <row r="164" spans="1:10" ht="21" customHeight="1">
+    <row r="164" spans="1:10" ht="21" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A164" s="12">
         <v>41783</v>
       </c>
@@ -18640,7 +18649,7 @@
       </c>
       <c r="J164" s="11"/>
     </row>
-    <row r="165" spans="1:10" ht="21" customHeight="1">
+    <row r="165" spans="1:10" ht="21" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A165" s="12"/>
       <c r="B165" s="13" t="s">
         <v>153</v>
@@ -18666,7 +18675,7 @@
       </c>
       <c r="J165" s="11"/>
     </row>
-    <row r="166" spans="1:10" ht="21" customHeight="1">
+    <row r="166" spans="1:10" ht="21" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A166" s="12">
         <v>41803</v>
       </c>
@@ -18690,7 +18699,7 @@
       </c>
       <c r="J166" s="11"/>
     </row>
-    <row r="167" spans="1:10" ht="21" customHeight="1">
+    <row r="167" spans="1:10" ht="21" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A167" s="12">
         <v>41800</v>
       </c>
@@ -18718,7 +18727,7 @@
       </c>
       <c r="J167" s="11"/>
     </row>
-    <row r="168" spans="1:10" ht="21" customHeight="1">
+    <row r="168" spans="1:10" ht="21" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A168" s="12">
         <v>41808</v>
       </c>
@@ -18746,7 +18755,7 @@
       </c>
       <c r="J168" s="11"/>
     </row>
-    <row r="169" spans="1:10" ht="21" customHeight="1">
+    <row r="169" spans="1:10" ht="21" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A169" s="12">
         <v>41816</v>
       </c>
@@ -18774,7 +18783,7 @@
       </c>
       <c r="J169" s="11"/>
     </row>
-    <row r="170" spans="1:10" ht="21" customHeight="1">
+    <row r="170" spans="1:10" ht="21" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A170" s="12">
         <v>41832</v>
       </c>
@@ -18802,7 +18811,7 @@
       </c>
       <c r="J170" s="11"/>
     </row>
-    <row r="171" spans="1:10" ht="21" customHeight="1">
+    <row r="171" spans="1:10" ht="21" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A171" s="12"/>
       <c r="B171" s="13" t="s">
         <v>95</v>
@@ -18828,7 +18837,7 @@
       </c>
       <c r="J171" s="11"/>
     </row>
-    <row r="172" spans="1:10" ht="21" customHeight="1">
+    <row r="172" spans="1:10" ht="21" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A172" s="12">
         <v>41842</v>
       </c>
@@ -18856,7 +18865,7 @@
       </c>
       <c r="J172" s="11"/>
     </row>
-    <row r="173" spans="1:10" ht="21" customHeight="1">
+    <row r="173" spans="1:10" ht="21" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A173" s="12">
         <v>41849</v>
       </c>
@@ -18884,7 +18893,7 @@
       </c>
       <c r="J173" s="11"/>
     </row>
-    <row r="174" spans="1:10" ht="21" customHeight="1">
+    <row r="174" spans="1:10" ht="21" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A174" s="12">
         <v>41849</v>
       </c>
@@ -18908,7 +18917,7 @@
       </c>
       <c r="J174" s="11"/>
     </row>
-    <row r="175" spans="1:10" ht="21" customHeight="1">
+    <row r="175" spans="1:10" ht="21" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A175" s="12">
         <v>41853</v>
       </c>
@@ -18936,7 +18945,7 @@
       </c>
       <c r="J175" s="11"/>
     </row>
-    <row r="176" spans="1:10" ht="21" customHeight="1">
+    <row r="176" spans="1:10" ht="21" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A176" s="12"/>
       <c r="B176" s="13" t="s">
         <v>95</v>
@@ -18962,7 +18971,7 @@
       </c>
       <c r="J176" s="11"/>
     </row>
-    <row r="177" spans="1:10" ht="21" customHeight="1">
+    <row r="177" spans="1:10" ht="21" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A177" s="12">
         <v>41862</v>
       </c>
@@ -18990,7 +18999,7 @@
       </c>
       <c r="J177" s="11"/>
     </row>
-    <row r="178" spans="1:10" ht="21" customHeight="1">
+    <row r="178" spans="1:10" ht="21" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A178" s="12"/>
       <c r="B178" s="13" t="s">
         <v>170</v>
@@ -19016,7 +19025,7 @@
       </c>
       <c r="J178" s="11"/>
     </row>
-    <row r="179" spans="1:10" ht="21" customHeight="1">
+    <row r="179" spans="1:10" ht="21" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A179" s="12">
         <v>41863</v>
       </c>
@@ -19044,7 +19053,7 @@
       </c>
       <c r="J179" s="11"/>
     </row>
-    <row r="180" spans="1:10" ht="21" customHeight="1">
+    <row r="180" spans="1:10" ht="21" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A180" s="12"/>
       <c r="B180" s="13" t="s">
         <v>95</v>
@@ -19070,7 +19079,7 @@
       </c>
       <c r="J180" s="11"/>
     </row>
-    <row r="181" spans="1:10" ht="21" customHeight="1">
+    <row r="181" spans="1:10" ht="21" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A181" s="12">
         <v>41872</v>
       </c>
@@ -19094,7 +19103,7 @@
       </c>
       <c r="J181" s="11"/>
     </row>
-    <row r="182" spans="1:10" ht="21" customHeight="1">
+    <row r="182" spans="1:10" ht="21" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A182" s="12">
         <v>41876</v>
       </c>
@@ -19122,7 +19131,7 @@
       </c>
       <c r="J182" s="11"/>
     </row>
-    <row r="183" spans="1:10" ht="21" customHeight="1">
+    <row r="183" spans="1:10" ht="21" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A183" s="12"/>
       <c r="B183" s="13" t="s">
         <v>153</v>
@@ -19148,7 +19157,7 @@
       </c>
       <c r="J183" s="11"/>
     </row>
-    <row r="184" spans="1:10" ht="21" customHeight="1">
+    <row r="184" spans="1:10" ht="21" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A184" s="12">
         <v>41888</v>
       </c>
@@ -19176,7 +19185,7 @@
       </c>
       <c r="J184" s="11"/>
     </row>
-    <row r="185" spans="1:10" ht="21" customHeight="1">
+    <row r="185" spans="1:10" ht="21" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A185" s="12"/>
       <c r="B185" s="13" t="s">
         <v>153</v>
@@ -19202,7 +19211,7 @@
       </c>
       <c r="J185" s="11"/>
     </row>
-    <row r="186" spans="1:10" ht="21" customHeight="1">
+    <row r="186" spans="1:10" ht="21" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A186" s="12">
         <v>41899</v>
       </c>
@@ -19226,7 +19235,7 @@
       </c>
       <c r="J186" s="11"/>
     </row>
-    <row r="187" spans="1:10" ht="21" customHeight="1">
+    <row r="187" spans="1:10" ht="21" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A187" s="12">
         <v>41900</v>
       </c>
@@ -19254,7 +19263,7 @@
       </c>
       <c r="J187" s="11"/>
     </row>
-    <row r="188" spans="1:10" ht="21" customHeight="1">
+    <row r="188" spans="1:10" ht="21" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A188" s="12">
         <v>41904</v>
       </c>
@@ -19282,7 +19291,7 @@
       </c>
       <c r="J188" s="11"/>
     </row>
-    <row r="189" spans="1:10" ht="21" customHeight="1">
+    <row r="189" spans="1:10" ht="21" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A189" s="12"/>
       <c r="B189" s="13" t="s">
         <v>95</v>
@@ -19308,7 +19317,7 @@
       </c>
       <c r="J189" s="11"/>
     </row>
-    <row r="190" spans="1:10" ht="21" customHeight="1">
+    <row r="190" spans="1:10" ht="21" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A190" s="12"/>
       <c r="B190" s="13" t="s">
         <v>153</v>
@@ -19334,7 +19343,7 @@
       </c>
       <c r="J190" s="11"/>
     </row>
-    <row r="191" spans="1:10" ht="21" customHeight="1">
+    <row r="191" spans="1:10" ht="21" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A191" s="12">
         <v>41909</v>
       </c>
@@ -19362,7 +19371,7 @@
       </c>
       <c r="J191" s="11"/>
     </row>
-    <row r="192" spans="1:10" ht="21" customHeight="1">
+    <row r="192" spans="1:10" ht="21" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A192" s="12"/>
       <c r="B192" s="13" t="s">
         <v>95</v>
@@ -19388,7 +19397,7 @@
       </c>
       <c r="J192" s="11"/>
     </row>
-    <row r="193" spans="1:10" ht="21" customHeight="1">
+    <row r="193" spans="1:10" ht="21" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A193" s="12"/>
       <c r="B193" s="13" t="s">
         <v>224</v>
@@ -19414,7 +19423,7 @@
       </c>
       <c r="J193" s="11"/>
     </row>
-    <row r="194" spans="1:10" ht="21" customHeight="1">
+    <row r="194" spans="1:10" ht="21" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A194" s="12">
         <v>41912</v>
       </c>
@@ -19442,7 +19451,7 @@
       </c>
       <c r="J194" s="11"/>
     </row>
-    <row r="195" spans="1:10" ht="21" customHeight="1">
+    <row r="195" spans="1:10" ht="21" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A195" s="12"/>
       <c r="B195" s="13" t="s">
         <v>95</v>
@@ -19468,7 +19477,7 @@
       </c>
       <c r="J195" s="11"/>
     </row>
-    <row r="196" spans="1:10" ht="21" customHeight="1">
+    <row r="196" spans="1:10" ht="21" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A196" s="12"/>
       <c r="B196" s="13" t="s">
         <v>153</v>
@@ -19494,7 +19503,7 @@
       </c>
       <c r="J196" s="11"/>
     </row>
-    <row r="197" spans="1:10" ht="21" customHeight="1">
+    <row r="197" spans="1:10" ht="21" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A197" s="12">
         <v>41920</v>
       </c>
@@ -19522,7 +19531,7 @@
       </c>
       <c r="J197" s="11"/>
     </row>
-    <row r="198" spans="1:10" ht="21" customHeight="1">
+    <row r="198" spans="1:10" ht="21" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A198" s="12">
         <v>41927</v>
       </c>
@@ -19552,7 +19561,7 @@
         <v>108</v>
       </c>
     </row>
-    <row r="199" spans="1:10" ht="21" customHeight="1">
+    <row r="199" spans="1:10" ht="21" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A199" s="12"/>
       <c r="B199" s="13" t="s">
         <v>128</v>
@@ -19580,7 +19589,7 @@
         <v>108</v>
       </c>
     </row>
-    <row r="200" spans="1:10" ht="21" customHeight="1">
+    <row r="200" spans="1:10" ht="21" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A200" s="12"/>
       <c r="B200" s="13" t="s">
         <v>153</v>
@@ -19608,7 +19617,7 @@
         <v>108</v>
       </c>
     </row>
-    <row r="201" spans="1:10" ht="21" customHeight="1">
+    <row r="201" spans="1:10" ht="21" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A201" s="12">
         <v>41928</v>
       </c>
@@ -19632,7 +19641,7 @@
       </c>
       <c r="J201" s="11"/>
     </row>
-    <row r="202" spans="1:10" ht="21" customHeight="1">
+    <row r="202" spans="1:10" ht="21" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A202" s="12">
         <v>41933</v>
       </c>
@@ -19660,7 +19669,7 @@
       </c>
       <c r="J202" s="11"/>
     </row>
-    <row r="203" spans="1:10" ht="21" customHeight="1">
+    <row r="203" spans="1:10" ht="21" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A203" s="12"/>
       <c r="B203" s="13" t="s">
         <v>95</v>
@@ -19686,7 +19695,7 @@
       </c>
       <c r="J203" s="11"/>
     </row>
-    <row r="204" spans="1:10" ht="21" customHeight="1">
+    <row r="204" spans="1:10" ht="21" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A204" s="12"/>
       <c r="B204" s="13" t="s">
         <v>153</v>
@@ -19712,7 +19721,7 @@
       </c>
       <c r="J204" s="11"/>
     </row>
-    <row r="205" spans="1:10" ht="21" customHeight="1">
+    <row r="205" spans="1:10" ht="21" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A205" s="12"/>
       <c r="B205" s="13" t="s">
         <v>153</v>
@@ -19738,7 +19747,7 @@
       </c>
       <c r="J205" s="11"/>
     </row>
-    <row r="206" spans="1:10" ht="21" customHeight="1">
+    <row r="206" spans="1:10" ht="21" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A206" s="12">
         <v>41936</v>
       </c>
@@ -19766,7 +19775,7 @@
       </c>
       <c r="J206" s="11"/>
     </row>
-    <row r="207" spans="1:10" ht="21" customHeight="1">
+    <row r="207" spans="1:10" ht="21" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A207" s="12"/>
       <c r="B207" s="13" t="s">
         <v>95</v>
@@ -19792,7 +19801,7 @@
       </c>
       <c r="J207" s="11"/>
     </row>
-    <row r="208" spans="1:10" ht="21" customHeight="1">
+    <row r="208" spans="1:10" ht="21" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A208" s="12">
         <v>41953</v>
       </c>
@@ -19820,7 +19829,7 @@
       </c>
       <c r="J208" s="11"/>
     </row>
-    <row r="209" spans="1:10" ht="21" customHeight="1">
+    <row r="209" spans="1:10" ht="21" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A209" s="12"/>
       <c r="B209" s="13" t="s">
         <v>95</v>
@@ -19846,7 +19855,7 @@
       </c>
       <c r="J209" s="11"/>
     </row>
-    <row r="210" spans="1:10" ht="21" customHeight="1">
+    <row r="210" spans="1:10" ht="21" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A210" s="12"/>
       <c r="B210" s="13" t="s">
         <v>153</v>
@@ -19872,7 +19881,7 @@
       </c>
       <c r="J210" s="11"/>
     </row>
-    <row r="211" spans="1:10" ht="21" customHeight="1">
+    <row r="211" spans="1:10" ht="21" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A211" s="12"/>
       <c r="B211" s="13" t="s">
         <v>170</v>
@@ -19898,7 +19907,7 @@
       </c>
       <c r="J211" s="11"/>
     </row>
-    <row r="212" spans="1:10" ht="21" customHeight="1">
+    <row r="212" spans="1:10" ht="21" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A212" s="12">
         <v>41956</v>
       </c>
@@ -19926,7 +19935,7 @@
       </c>
       <c r="J212" s="11"/>
     </row>
-    <row r="213" spans="1:10" ht="21" customHeight="1">
+    <row r="213" spans="1:10" ht="21" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A213" s="12"/>
       <c r="B213" s="13" t="s">
         <v>95</v>
@@ -19952,7 +19961,7 @@
       </c>
       <c r="J213" s="11"/>
     </row>
-    <row r="214" spans="1:10" ht="21" customHeight="1">
+    <row r="214" spans="1:10" ht="21" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A214" s="12"/>
       <c r="B214" s="13" t="s">
         <v>170</v>
@@ -19978,7 +19987,7 @@
       </c>
       <c r="J214" s="11"/>
     </row>
-    <row r="215" spans="1:10" ht="21" customHeight="1">
+    <row r="215" spans="1:10" ht="21" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A215" s="12">
         <v>41962</v>
       </c>
@@ -20002,7 +20011,7 @@
       </c>
       <c r="J215" s="11"/>
     </row>
-    <row r="216" spans="1:10" ht="21" customHeight="1">
+    <row r="216" spans="1:10" ht="21" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A216" s="12">
         <v>41963</v>
       </c>
@@ -20030,7 +20039,7 @@
       </c>
       <c r="J216" s="11"/>
     </row>
-    <row r="217" spans="1:10" ht="21" customHeight="1">
+    <row r="217" spans="1:10" ht="21" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A217" s="12"/>
       <c r="B217" s="13" t="s">
         <v>153</v>
@@ -20056,7 +20065,7 @@
       </c>
       <c r="J217" s="11"/>
     </row>
-    <row r="218" spans="1:10" ht="21" customHeight="1">
+    <row r="218" spans="1:10" ht="21" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A218" s="12">
         <v>41965</v>
       </c>
@@ -20084,7 +20093,7 @@
       </c>
       <c r="J218" s="11"/>
     </row>
-    <row r="219" spans="1:10" ht="21" customHeight="1">
+    <row r="219" spans="1:10" ht="21" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A219" s="12"/>
       <c r="B219" s="13" t="s">
         <v>153</v>
@@ -20110,7 +20119,7 @@
       </c>
       <c r="J219" s="11"/>
     </row>
-    <row r="220" spans="1:10" ht="21" customHeight="1">
+    <row r="220" spans="1:10" ht="21" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A220" s="12"/>
       <c r="B220" s="13" t="s">
         <v>128</v>
@@ -20136,7 +20145,7 @@
       </c>
       <c r="J220" s="11"/>
     </row>
-    <row r="221" spans="1:10" ht="21" customHeight="1">
+    <row r="221" spans="1:10" ht="21" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A221" s="12">
         <v>41969</v>
       </c>
@@ -20164,7 +20173,7 @@
       </c>
       <c r="J221" s="11"/>
     </row>
-    <row r="222" spans="1:10" ht="21" customHeight="1">
+    <row r="222" spans="1:10" ht="21" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A222" s="12"/>
       <c r="B222" s="13" t="s">
         <v>128</v>
@@ -20190,7 +20199,7 @@
       </c>
       <c r="J222" s="11"/>
     </row>
-    <row r="223" spans="1:10" ht="21" customHeight="1">
+    <row r="223" spans="1:10" ht="21" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A223" s="12">
         <v>41975</v>
       </c>
@@ -20218,7 +20227,7 @@
       </c>
       <c r="J223" s="11"/>
     </row>
-    <row r="224" spans="1:10" ht="21" customHeight="1">
+    <row r="224" spans="1:10" ht="21" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A224" s="12"/>
       <c r="B224" s="13" t="s">
         <v>95</v>
@@ -20244,7 +20253,7 @@
       </c>
       <c r="J224" s="11"/>
     </row>
-    <row r="225" spans="1:10" ht="21" customHeight="1">
+    <row r="225" spans="1:10" ht="21" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A225" s="12">
         <v>41992</v>
       </c>
@@ -20268,7 +20277,7 @@
       </c>
       <c r="J225" s="11"/>
     </row>
-    <row r="226" spans="1:10" ht="21" customHeight="1">
+    <row r="226" spans="1:10" ht="21" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A226" s="12">
         <v>42018</v>
       </c>
@@ -20296,7 +20305,7 @@
       </c>
       <c r="J226" s="11"/>
     </row>
-    <row r="227" spans="1:10" ht="21" customHeight="1">
+    <row r="227" spans="1:10" ht="21" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A227" s="12"/>
       <c r="B227" s="13" t="s">
         <v>153</v>
@@ -20322,7 +20331,7 @@
       </c>
       <c r="J227" s="11"/>
     </row>
-    <row r="228" spans="1:10" ht="21" customHeight="1">
+    <row r="228" spans="1:10" ht="21" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A228" s="12"/>
       <c r="B228" s="13" t="s">
         <v>240</v>
@@ -20342,7 +20351,7 @@
       </c>
       <c r="J228" s="11"/>
     </row>
-    <row r="229" spans="1:10" ht="21" customHeight="1">
+    <row r="229" spans="1:10" ht="21" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A229" s="12"/>
       <c r="B229" s="13" t="s">
         <v>259</v>
@@ -20366,7 +20375,7 @@
       </c>
       <c r="J229" s="11"/>
     </row>
-    <row r="230" spans="1:10" ht="21" customHeight="1">
+    <row r="230" spans="1:10" ht="21" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A230" s="12">
         <v>42041</v>
       </c>
@@ -20390,7 +20399,7 @@
       </c>
       <c r="J230" s="11"/>
     </row>
-    <row r="231" spans="1:10" ht="21" customHeight="1">
+    <row r="231" spans="1:10" ht="21" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A231" s="12">
         <v>42049</v>
       </c>
@@ -20414,7 +20423,7 @@
       </c>
       <c r="J231" s="11"/>
     </row>
-    <row r="232" spans="1:10" ht="21" customHeight="1">
+    <row r="232" spans="1:10" ht="21" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A232" s="12">
         <v>42136</v>
       </c>
@@ -20442,7 +20451,7 @@
       </c>
       <c r="J232" s="11"/>
     </row>
-    <row r="233" spans="1:10" ht="21" customHeight="1">
+    <row r="233" spans="1:10" ht="21" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A233" s="12"/>
       <c r="B233" s="13" t="s">
         <v>259</v>
@@ -20466,7 +20475,7 @@
       </c>
       <c r="J233" s="11"/>
     </row>
-    <row r="234" spans="1:10" ht="21" customHeight="1">
+    <row r="234" spans="1:10" ht="21" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A234" s="12">
         <v>42188</v>
       </c>
@@ -20492,7 +20501,7 @@
       </c>
       <c r="J234" s="11"/>
     </row>
-    <row r="235" spans="1:10" ht="21" customHeight="1">
+    <row r="235" spans="1:10" ht="21" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A235" s="12"/>
       <c r="B235" s="13" t="s">
         <v>95</v>
@@ -20516,7 +20525,7 @@
       </c>
       <c r="J235" s="11"/>
     </row>
-    <row r="236" spans="1:10" ht="21" customHeight="1">
+    <row r="236" spans="1:10" ht="21" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A236" s="12"/>
       <c r="B236" s="13" t="s">
         <v>153</v>
@@ -20540,7 +20549,7 @@
       </c>
       <c r="J236" s="11"/>
     </row>
-    <row r="237" spans="1:10" ht="21" customHeight="1">
+    <row r="237" spans="1:10" ht="21" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A237" s="12">
         <v>42284</v>
       </c>
@@ -20566,7 +20575,7 @@
       </c>
       <c r="J237" s="11"/>
     </row>
-    <row r="238" spans="1:10" ht="21" customHeight="1">
+    <row r="238" spans="1:10" ht="21" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A238" s="12">
         <v>42291</v>
       </c>
@@ -20592,7 +20601,7 @@
       </c>
       <c r="J238" s="11"/>
     </row>
-    <row r="239" spans="1:10" ht="21" customHeight="1">
+    <row r="239" spans="1:10" ht="21" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A239" s="12"/>
       <c r="B239" s="13" t="s">
         <v>153</v>
@@ -20616,7 +20625,7 @@
       </c>
       <c r="J239" s="11"/>
     </row>
-    <row r="240" spans="1:10" ht="21" customHeight="1">
+    <row r="240" spans="1:10" ht="21" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A240" s="12">
         <v>42291</v>
       </c>
@@ -20640,7 +20649,7 @@
       </c>
       <c r="J240" s="11"/>
     </row>
-    <row r="241" spans="1:10" ht="21" customHeight="1">
+    <row r="241" spans="1:10" ht="21" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A241" s="12">
         <v>42304</v>
       </c>
@@ -20666,7 +20675,7 @@
       </c>
       <c r="J241" s="11"/>
     </row>
-    <row r="242" spans="1:10" ht="21" customHeight="1">
+    <row r="242" spans="1:10" ht="21" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A242" s="12"/>
       <c r="B242" s="13" t="s">
         <v>259</v>
@@ -20690,7 +20699,7 @@
       </c>
       <c r="J242" s="11"/>
     </row>
-    <row r="243" spans="1:10" ht="21" customHeight="1">
+    <row r="243" spans="1:10" ht="21" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A243" s="12">
         <v>42322</v>
       </c>
@@ -20716,7 +20725,7 @@
       </c>
       <c r="J243" s="11"/>
     </row>
-    <row r="244" spans="1:10" ht="21" customHeight="1">
+    <row r="244" spans="1:10" ht="21" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A244" s="12"/>
       <c r="B244" s="13" t="s">
         <v>153</v>
@@ -20740,7 +20749,7 @@
       </c>
       <c r="J244" s="11"/>
     </row>
-    <row r="245" spans="1:10" ht="21" customHeight="1">
+    <row r="245" spans="1:10" ht="21" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A245" s="12">
         <v>42331</v>
       </c>
@@ -20766,7 +20775,7 @@
       </c>
       <c r="J245" s="11"/>
     </row>
-    <row r="246" spans="1:10" ht="21" customHeight="1">
+    <row r="246" spans="1:10" ht="21" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A246" s="12">
         <v>42354</v>
       </c>
@@ -20792,7 +20801,7 @@
       </c>
       <c r="J246" s="11"/>
     </row>
-    <row r="247" spans="1:10" ht="21" customHeight="1">
+    <row r="247" spans="1:10" ht="21" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A247" s="12"/>
       <c r="B247" s="13" t="s">
         <v>153</v>
@@ -20816,7 +20825,7 @@
       </c>
       <c r="J247" s="11"/>
     </row>
-    <row r="248" spans="1:10" ht="21" customHeight="1">
+    <row r="248" spans="1:10" ht="21" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A248" s="12">
         <v>42363</v>
       </c>
@@ -20840,7 +20849,7 @@
       </c>
       <c r="J248" s="11"/>
     </row>
-    <row r="249" spans="1:10" ht="21" customHeight="1">
+    <row r="249" spans="1:10" ht="21" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A249" s="12"/>
       <c r="B249" s="13"/>
       <c r="C249" s="13"/>
@@ -20858,7 +20867,7 @@
       </c>
       <c r="J249" s="11"/>
     </row>
-    <row r="250" spans="1:10" ht="21" customHeight="1">
+    <row r="250" spans="1:10" ht="21" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A250" s="12"/>
       <c r="B250" s="13"/>
       <c r="C250" s="13"/>
@@ -20876,7 +20885,7 @@
       </c>
       <c r="J250" s="11"/>
     </row>
-    <row r="251" spans="1:10" ht="21" customHeight="1">
+    <row r="251" spans="1:10" ht="21" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A251" s="12"/>
       <c r="B251" s="13"/>
       <c r="C251" s="13"/>
@@ -20894,7 +20903,7 @@
       </c>
       <c r="J251" s="11"/>
     </row>
-    <row r="252" spans="1:10" ht="21" customHeight="1">
+    <row r="252" spans="1:10" ht="21" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A252" s="12"/>
       <c r="B252" s="13"/>
       <c r="C252" s="13"/>
@@ -20912,7 +20921,7 @@
       </c>
       <c r="J252" s="11"/>
     </row>
-    <row r="253" spans="1:10" ht="21" customHeight="1">
+    <row r="253" spans="1:10" ht="21" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A253" s="12"/>
       <c r="B253" s="13"/>
       <c r="C253" s="13"/>
@@ -20930,7 +20939,7 @@
       </c>
       <c r="J253" s="11"/>
     </row>
-    <row r="254" spans="1:10" ht="21" customHeight="1">
+    <row r="254" spans="1:10" ht="21" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A254" s="12"/>
       <c r="B254" s="13"/>
       <c r="C254" s="13"/>
@@ -20948,7 +20957,7 @@
       </c>
       <c r="J254" s="11"/>
     </row>
-    <row r="255" spans="1:10" ht="21" customHeight="1">
+    <row r="255" spans="1:10" ht="21" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A255" s="12"/>
       <c r="B255" s="13"/>
       <c r="C255" s="13"/>
@@ -20966,7 +20975,7 @@
       </c>
       <c r="J255" s="11"/>
     </row>
-    <row r="256" spans="1:10" ht="21" customHeight="1">
+    <row r="256" spans="1:10" ht="21" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A256" s="12"/>
       <c r="B256" s="13"/>
       <c r="C256" s="13"/>
@@ -20984,7 +20993,7 @@
       </c>
       <c r="J256" s="11"/>
     </row>
-    <row r="257" spans="1:10" ht="21" customHeight="1">
+    <row r="257" spans="1:10" ht="21" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A257" s="12"/>
       <c r="B257" s="13"/>
       <c r="C257" s="13"/>
@@ -21002,7 +21011,7 @@
       </c>
       <c r="J257" s="11"/>
     </row>
-    <row r="258" spans="1:10" ht="21" customHeight="1">
+    <row r="258" spans="1:10" ht="21" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A258" s="12"/>
       <c r="B258" s="13"/>
       <c r="C258" s="13"/>
@@ -21020,7 +21029,7 @@
       </c>
       <c r="J258" s="11"/>
     </row>
-    <row r="259" spans="1:10" ht="21" customHeight="1">
+    <row r="259" spans="1:10" ht="21" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A259" s="12"/>
       <c r="B259" s="13"/>
       <c r="C259" s="13"/>
@@ -21038,7 +21047,7 @@
       </c>
       <c r="J259" s="11"/>
     </row>
-    <row r="260" spans="1:10" ht="21" customHeight="1">
+    <row r="260" spans="1:10" ht="21" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A260" s="12"/>
       <c r="B260" s="13"/>
       <c r="C260" s="13"/>
@@ -21056,7 +21065,7 @@
       </c>
       <c r="J260" s="11"/>
     </row>
-    <row r="261" spans="1:10" ht="21" customHeight="1">
+    <row r="261" spans="1:10" ht="21" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A261" s="12"/>
       <c r="B261" s="13"/>
       <c r="C261" s="13"/>
@@ -21074,7 +21083,7 @@
       </c>
       <c r="J261" s="11"/>
     </row>
-    <row r="262" spans="1:10" s="18" customFormat="1" ht="21" customHeight="1">
+    <row r="262" spans="1:10" s="18" customFormat="1" ht="21" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A262" s="176" t="s">
         <v>40</v>
       </c>
@@ -21097,8 +21106,8 @@
       </c>
       <c r="J262" s="17"/>
     </row>
-    <row r="263" spans="1:10" ht="21" customHeight="1"/>
-    <row r="264" spans="1:10" ht="21" customHeight="1">
+    <row r="263" spans="1:10" ht="21" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="264" spans="1:10" ht="21" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B264" s="54" t="s">
         <v>41</v>
       </c>
@@ -21111,22 +21120,22 @@
         <v>43</v>
       </c>
     </row>
-    <row r="265" spans="1:10" ht="21" customHeight="1">
+    <row r="265" spans="1:10" ht="21" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B265" s="54" t="s">
         <v>42</v>
       </c>
-      <c r="C265" s="56" t="str">
-        <f>[1]!VND(E264, TRUE)</f>
-        <v>Một trăm lẻ tám triệu, một trăm bốn mươi chín ngàn, năm trăm ba mươi ba đồng</v>
-      </c>
-    </row>
-    <row r="266" spans="1:10" ht="21" customHeight="1"/>
-    <row r="267" spans="1:10" ht="14.25" customHeight="1">
+      <c r="C265" s="56" t="e">
+        <f ca="1">[1]!VND(E264, TRUE)</f>
+        <v>#NAME?</v>
+      </c>
+    </row>
+    <row r="266" spans="1:10" ht="21" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="267" spans="1:10" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="H267" s="20" t="s">
         <v>62</v>
       </c>
     </row>
-    <row r="268" spans="1:10" ht="21" customHeight="1">
+    <row r="268" spans="1:10" ht="21" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A268" s="4" t="s">
         <v>45</v>
       </c>
@@ -21134,20 +21143,20 @@
         <v>44</v>
       </c>
     </row>
-    <row r="269" spans="1:10" ht="21" customHeight="1"/>
-    <row r="270" spans="1:10" ht="21" customHeight="1"/>
-    <row r="271" spans="1:10" ht="21" customHeight="1"/>
-    <row r="272" spans="1:10" ht="21" customHeight="1"/>
-    <row r="273" ht="21" customHeight="1"/>
-    <row r="274" ht="21" customHeight="1"/>
-    <row r="275" ht="21" customHeight="1"/>
-    <row r="276" ht="21" customHeight="1"/>
-    <row r="277" ht="21" customHeight="1"/>
-    <row r="278" ht="21" customHeight="1"/>
-    <row r="279" ht="21" customHeight="1"/>
-    <row r="280" ht="21" customHeight="1"/>
-    <row r="281" ht="21" customHeight="1"/>
-    <row r="282" ht="21" customHeight="1"/>
+    <row r="269" spans="1:10" ht="21" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="270" spans="1:10" ht="21" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="271" spans="1:10" ht="21" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="272" spans="1:10" ht="21" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="273" ht="21" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="274" ht="21" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="275" ht="21" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="276" ht="21" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="277" ht="21" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="278" ht="21" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="279" ht="21" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="280" ht="21" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="281" ht="21" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="282" ht="21" customHeight="1" x14ac:dyDescent="0.25"/>
   </sheetData>
   <mergeCells count="9">
     <mergeCell ref="E264:F264"/>
@@ -21168,7 +21177,7 @@
 </file>
 
 <file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr enableFormatConditionsCalculation="0">
     <tabColor indexed="33"/>
   </sheetPr>
@@ -21180,7 +21189,7 @@
       <selection pane="bottomLeft" activeCell="H56" sqref="H56"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15.75"/>
+  <sheetFormatPr defaultRowHeight="15.75" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" width="10.375" style="2" customWidth="1"/>
     <col min="2" max="2" width="21.25" style="1" customWidth="1"/>
@@ -21195,7 +21204,7 @@
     <col min="11" max="16384" width="9" style="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:10" s="47" customFormat="1" ht="18" customHeight="1">
+    <row r="1" spans="1:10" s="47" customFormat="1" ht="18" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A1" s="174" t="s">
         <v>31</v>
       </c>
@@ -21207,7 +21216,7 @@
       <c r="G1" s="49"/>
       <c r="H1" s="49"/>
     </row>
-    <row r="2" spans="1:10" s="47" customFormat="1" ht="18" customHeight="1">
+    <row r="2" spans="1:10" s="47" customFormat="1" ht="18" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A2" s="174" t="s">
         <v>32</v>
       </c>
@@ -21219,7 +21228,7 @@
       <c r="G2" s="49"/>
       <c r="H2" s="49"/>
     </row>
-    <row r="3" spans="1:10" s="47" customFormat="1" ht="18" customHeight="1">
+    <row r="3" spans="1:10" s="47" customFormat="1" ht="18" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A3" s="174" t="s">
         <v>33</v>
       </c>
@@ -21233,14 +21242,14 @@
       <c r="G3" s="49"/>
       <c r="H3" s="49"/>
     </row>
-    <row r="4" spans="1:10" s="42" customFormat="1" ht="9" customHeight="1">
+    <row r="4" spans="1:10" s="42" customFormat="1" ht="9" customHeight="1" x14ac:dyDescent="0.3">
       <c r="D4" s="154"/>
       <c r="E4" s="105"/>
       <c r="F4" s="107"/>
       <c r="G4" s="44"/>
       <c r="H4" s="44"/>
     </row>
-    <row r="5" spans="1:10" s="45" customFormat="1" ht="29.25" customHeight="1">
+    <row r="5" spans="1:10" s="45" customFormat="1" ht="29.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A5" s="169" t="s">
         <v>34</v>
       </c>
@@ -21253,7 +21262,7 @@
       <c r="H5" s="169"/>
       <c r="I5" s="169"/>
     </row>
-    <row r="6" spans="1:10" ht="9" customHeight="1">
+    <row r="6" spans="1:10" ht="9" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A6" s="170"/>
       <c r="B6" s="170"/>
       <c r="C6" s="170"/>
@@ -21264,7 +21273,7 @@
       <c r="H6" s="170"/>
       <c r="I6" s="170"/>
     </row>
-    <row r="7" spans="1:10" s="63" customFormat="1" ht="18" customHeight="1">
+    <row r="7" spans="1:10" s="63" customFormat="1" ht="18" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A7" s="117"/>
       <c r="B7" s="117"/>
       <c r="C7" s="64"/>
@@ -21275,7 +21284,7 @@
       <c r="H7" s="65"/>
       <c r="I7" s="65"/>
     </row>
-    <row r="8" spans="1:10" s="63" customFormat="1" ht="18" hidden="1" customHeight="1">
+    <row r="8" spans="1:10" s="63" customFormat="1" ht="18" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A8" s="117"/>
       <c r="C8" s="64"/>
       <c r="D8" s="130"/>
@@ -21285,7 +21294,7 @@
       <c r="H8" s="65"/>
       <c r="I8" s="65"/>
     </row>
-    <row r="9" spans="1:10" s="63" customFormat="1" ht="18" hidden="1" customHeight="1">
+    <row r="9" spans="1:10" s="63" customFormat="1" ht="18" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A9" s="62"/>
       <c r="C9" s="75"/>
       <c r="D9" s="130"/>
@@ -21295,8 +21304,8 @@
       <c r="H9" s="65"/>
       <c r="I9" s="65"/>
     </row>
-    <row r="10" spans="1:10" ht="8.25" customHeight="1"/>
-    <row r="11" spans="1:10" s="52" customFormat="1" ht="32.25" customHeight="1">
+    <row r="10" spans="1:10" ht="8.25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="11" spans="1:10" s="52" customFormat="1" ht="32.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A11" s="50" t="s">
         <v>0</v>
       </c>
@@ -21328,7 +21337,7 @@
         <v>39</v>
       </c>
     </row>
-    <row r="12" spans="1:10" ht="21" customHeight="1">
+    <row r="12" spans="1:10" ht="21" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A12" s="38">
         <v>41648</v>
       </c>
@@ -21354,7 +21363,7 @@
       </c>
       <c r="J12" s="40"/>
     </row>
-    <row r="13" spans="1:10" ht="21" customHeight="1">
+    <row r="13" spans="1:10" ht="21" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A13" s="12">
         <v>41648</v>
       </c>
@@ -21380,7 +21389,7 @@
       </c>
       <c r="J13" s="36"/>
     </row>
-    <row r="14" spans="1:10" ht="21" customHeight="1">
+    <row r="14" spans="1:10" ht="21" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A14" s="12">
         <v>41648</v>
       </c>
@@ -21406,7 +21415,7 @@
       </c>
       <c r="J14" s="11"/>
     </row>
-    <row r="15" spans="1:10" ht="21" customHeight="1">
+    <row r="15" spans="1:10" ht="21" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A15" s="12">
         <v>41746</v>
       </c>
@@ -21431,7 +21440,7 @@
       </c>
       <c r="J15" s="11"/>
     </row>
-    <row r="16" spans="1:10" ht="21" customHeight="1">
+    <row r="16" spans="1:10" ht="21" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A16" s="12">
         <v>41648</v>
       </c>
@@ -21457,7 +21466,7 @@
       </c>
       <c r="J16" s="11"/>
     </row>
-    <row r="17" spans="1:10" ht="21" customHeight="1">
+    <row r="17" spans="1:10" ht="21" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A17" s="12">
         <v>41687</v>
       </c>
@@ -21483,7 +21492,7 @@
       </c>
       <c r="J17" s="11"/>
     </row>
-    <row r="18" spans="1:10" ht="21" customHeight="1">
+    <row r="18" spans="1:10" ht="21" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A18" s="12">
         <v>41772</v>
       </c>
@@ -21507,7 +21516,7 @@
       </c>
       <c r="J18" s="11"/>
     </row>
-    <row r="19" spans="1:10" ht="21" customHeight="1">
+    <row r="19" spans="1:10" ht="21" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A19" s="12">
         <v>41772</v>
       </c>
@@ -21536,7 +21545,7 @@
       </c>
       <c r="J19" s="11"/>
     </row>
-    <row r="20" spans="1:10" ht="21" customHeight="1">
+    <row r="20" spans="1:10" ht="21" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A20" s="12">
         <v>41772</v>
       </c>
@@ -21563,7 +21572,7 @@
       </c>
       <c r="J20" s="11"/>
     </row>
-    <row r="21" spans="1:10" ht="21" customHeight="1">
+    <row r="21" spans="1:10" ht="21" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A21" s="12">
         <v>41772</v>
       </c>
@@ -21589,7 +21598,7 @@
       </c>
       <c r="J21" s="11"/>
     </row>
-    <row r="22" spans="1:10" ht="21" customHeight="1">
+    <row r="22" spans="1:10" ht="21" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A22" s="12">
         <v>41772</v>
       </c>
@@ -21615,7 +21624,7 @@
       </c>
       <c r="J22" s="11"/>
     </row>
-    <row r="23" spans="1:10" ht="21" customHeight="1">
+    <row r="23" spans="1:10" ht="21" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A23" s="12">
         <v>41828</v>
       </c>
@@ -21641,7 +21650,7 @@
       </c>
       <c r="J23" s="11"/>
     </row>
-    <row r="24" spans="1:10" ht="21" customHeight="1">
+    <row r="24" spans="1:10" ht="21" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A24" s="12">
         <v>41835</v>
       </c>
@@ -21667,7 +21676,7 @@
       </c>
       <c r="J24" s="11"/>
     </row>
-    <row r="25" spans="1:10" ht="21" customHeight="1">
+    <row r="25" spans="1:10" ht="21" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A25" s="12">
         <v>41837</v>
       </c>
@@ -21691,7 +21700,7 @@
       </c>
       <c r="J25" s="11"/>
     </row>
-    <row r="26" spans="1:10" ht="21" customHeight="1">
+    <row r="26" spans="1:10" ht="21" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A26" s="12">
         <v>41849</v>
       </c>
@@ -21717,7 +21726,7 @@
       </c>
       <c r="J26" s="11"/>
     </row>
-    <row r="27" spans="1:10" ht="21" customHeight="1">
+    <row r="27" spans="1:10" ht="21" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A27" s="12">
         <v>41860</v>
       </c>
@@ -21743,7 +21752,7 @@
       </c>
       <c r="J27" s="11"/>
     </row>
-    <row r="28" spans="1:10" ht="21" customHeight="1">
+    <row r="28" spans="1:10" ht="21" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A28" s="12">
         <v>41888</v>
       </c>
@@ -21769,7 +21778,7 @@
       </c>
       <c r="J28" s="11"/>
     </row>
-    <row r="29" spans="1:10" ht="21" customHeight="1">
+    <row r="29" spans="1:10" ht="21" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A29" s="12">
         <v>41904</v>
       </c>
@@ -21795,7 +21804,7 @@
       </c>
       <c r="J29" s="11"/>
     </row>
-    <row r="30" spans="1:10" ht="21" customHeight="1">
+    <row r="30" spans="1:10" ht="21" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A30" s="12">
         <v>41928</v>
       </c>
@@ -21821,7 +21830,7 @@
       </c>
       <c r="J30" s="11"/>
     </row>
-    <row r="31" spans="1:10" ht="21" customHeight="1">
+    <row r="31" spans="1:10" ht="21" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A31" s="12">
         <v>41928</v>
       </c>
@@ -21847,7 +21856,7 @@
       </c>
       <c r="J31" s="11"/>
     </row>
-    <row r="32" spans="1:10" ht="21" customHeight="1">
+    <row r="32" spans="1:10" ht="21" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A32" s="12">
         <v>41928</v>
       </c>
@@ -21873,7 +21882,7 @@
       </c>
       <c r="J32" s="11"/>
     </row>
-    <row r="33" spans="1:10" ht="21" customHeight="1">
+    <row r="33" spans="1:10" ht="21" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A33" s="12">
         <v>41928</v>
       </c>
@@ -21899,7 +21908,7 @@
       </c>
       <c r="J33" s="11"/>
     </row>
-    <row r="34" spans="1:10" ht="21" customHeight="1">
+    <row r="34" spans="1:10" ht="21" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A34" s="12">
         <v>41928</v>
       </c>
@@ -21925,7 +21934,7 @@
       </c>
       <c r="J34" s="11"/>
     </row>
-    <row r="35" spans="1:10" ht="21" customHeight="1">
+    <row r="35" spans="1:10" ht="21" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A35" s="12">
         <v>41949</v>
       </c>
@@ -21951,7 +21960,7 @@
       </c>
       <c r="J35" s="11"/>
     </row>
-    <row r="36" spans="1:10" ht="21" customHeight="1">
+    <row r="36" spans="1:10" ht="21" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A36" s="12">
         <v>41949</v>
       </c>
@@ -21977,7 +21986,7 @@
       </c>
       <c r="J36" s="11"/>
     </row>
-    <row r="37" spans="1:10" ht="21" customHeight="1">
+    <row r="37" spans="1:10" ht="21" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A37" s="12">
         <v>41950</v>
       </c>
@@ -22003,7 +22012,7 @@
       </c>
       <c r="J37" s="11"/>
     </row>
-    <row r="38" spans="1:10" ht="21" customHeight="1">
+    <row r="38" spans="1:10" ht="21" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A38" s="12">
         <v>41956</v>
       </c>
@@ -22029,7 +22038,7 @@
       </c>
       <c r="J38" s="11"/>
     </row>
-    <row r="39" spans="1:10" ht="21" customHeight="1">
+    <row r="39" spans="1:10" ht="21" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A39" s="12">
         <v>41957</v>
       </c>
@@ -22055,7 +22064,7 @@
       </c>
       <c r="J39" s="11"/>
     </row>
-    <row r="40" spans="1:10" ht="21" customHeight="1">
+    <row r="40" spans="1:10" ht="21" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A40" s="12">
         <v>41957</v>
       </c>
@@ -22081,7 +22090,7 @@
       </c>
       <c r="J40" s="11"/>
     </row>
-    <row r="41" spans="1:10" ht="21" customHeight="1">
+    <row r="41" spans="1:10" ht="21" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A41" s="12">
         <v>41992</v>
       </c>
@@ -22107,7 +22116,7 @@
       </c>
       <c r="J41" s="11"/>
     </row>
-    <row r="42" spans="1:10" ht="21" customHeight="1">
+    <row r="42" spans="1:10" ht="21" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A42" s="12">
         <v>41995</v>
       </c>
@@ -22133,7 +22142,7 @@
       </c>
       <c r="J42" s="11"/>
     </row>
-    <row r="43" spans="1:10" s="122" customFormat="1" ht="21" customHeight="1">
+    <row r="43" spans="1:10" s="122" customFormat="1" ht="21" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A43" s="120">
         <v>42033</v>
       </c>
@@ -22158,7 +22167,7 @@
       </c>
       <c r="J43" s="32"/>
     </row>
-    <row r="44" spans="1:10" ht="21" customHeight="1">
+    <row r="44" spans="1:10" ht="21" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A44" s="12">
         <v>42015</v>
       </c>
@@ -22184,7 +22193,7 @@
       </c>
       <c r="J44" s="11"/>
     </row>
-    <row r="45" spans="1:10" ht="21" customHeight="1">
+    <row r="45" spans="1:10" ht="21" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A45" s="12"/>
       <c r="B45" s="13" t="s">
         <v>238</v>
@@ -22208,7 +22217,7 @@
       </c>
       <c r="J45" s="11"/>
     </row>
-    <row r="46" spans="1:10" ht="21" customHeight="1">
+    <row r="46" spans="1:10" ht="21" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A46" s="12">
         <v>42022</v>
       </c>
@@ -22234,7 +22243,7 @@
       </c>
       <c r="J46" s="11"/>
     </row>
-    <row r="47" spans="1:10" ht="21" customHeight="1">
+    <row r="47" spans="1:10" ht="21" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A47" s="12">
         <v>42037</v>
       </c>
@@ -22260,7 +22269,7 @@
       </c>
       <c r="J47" s="11"/>
     </row>
-    <row r="48" spans="1:10" ht="21" customHeight="1">
+    <row r="48" spans="1:10" ht="21" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A48" s="12"/>
       <c r="B48" s="13" t="s">
         <v>262</v>
@@ -22284,7 +22293,7 @@
       </c>
       <c r="J48" s="11"/>
     </row>
-    <row r="49" spans="1:10" ht="21" customHeight="1">
+    <row r="49" spans="1:10" ht="21" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A49" s="12"/>
       <c r="B49" s="13" t="s">
         <v>263</v>
@@ -22308,7 +22317,7 @@
       </c>
       <c r="J49" s="11"/>
     </row>
-    <row r="50" spans="1:10" ht="21" customHeight="1">
+    <row r="50" spans="1:10" ht="21" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A50" s="12">
         <v>42049</v>
       </c>
@@ -22334,7 +22343,7 @@
       </c>
       <c r="J50" s="11"/>
     </row>
-    <row r="51" spans="1:10" ht="21" customHeight="1">
+    <row r="51" spans="1:10" ht="21" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A51" s="12">
         <v>42081</v>
       </c>
@@ -22360,7 +22369,7 @@
       </c>
       <c r="J51" s="11"/>
     </row>
-    <row r="52" spans="1:10" ht="21" customHeight="1">
+    <row r="52" spans="1:10" ht="21" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A52" s="12">
         <v>42082</v>
       </c>
@@ -22386,7 +22395,7 @@
       </c>
       <c r="J52" s="11"/>
     </row>
-    <row r="53" spans="1:10" ht="21" customHeight="1">
+    <row r="53" spans="1:10" ht="21" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A53" s="12">
         <v>42154</v>
       </c>
@@ -22412,7 +22421,7 @@
       </c>
       <c r="J53" s="11"/>
     </row>
-    <row r="54" spans="1:10" ht="21" customHeight="1">
+    <row r="54" spans="1:10" ht="21" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A54" s="12"/>
       <c r="B54" s="13" t="s">
         <v>269</v>
@@ -22436,7 +22445,7 @@
       </c>
       <c r="J54" s="11"/>
     </row>
-    <row r="55" spans="1:10" s="122" customFormat="1" ht="21" customHeight="1">
+    <row r="55" spans="1:10" s="122" customFormat="1" ht="21" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A55" s="120">
         <v>42184</v>
       </c>
@@ -22460,7 +22469,7 @@
       </c>
       <c r="J55" s="32"/>
     </row>
-    <row r="56" spans="1:10" ht="21" customHeight="1">
+    <row r="56" spans="1:10" ht="21" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A56" s="12"/>
       <c r="B56" s="13"/>
       <c r="C56" s="13"/>
@@ -22478,7 +22487,7 @@
       </c>
       <c r="J56" s="11"/>
     </row>
-    <row r="57" spans="1:10" ht="21" customHeight="1">
+    <row r="57" spans="1:10" ht="21" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A57" s="12"/>
       <c r="B57" s="13"/>
       <c r="C57" s="13"/>
@@ -22496,7 +22505,7 @@
       </c>
       <c r="J57" s="11"/>
     </row>
-    <row r="58" spans="1:10" ht="21" customHeight="1">
+    <row r="58" spans="1:10" ht="21" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A58" s="12"/>
       <c r="B58" s="13"/>
       <c r="C58" s="13"/>
@@ -22514,7 +22523,7 @@
       </c>
       <c r="J58" s="11"/>
     </row>
-    <row r="59" spans="1:10" ht="21" customHeight="1">
+    <row r="59" spans="1:10" ht="21" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A59" s="12"/>
       <c r="B59" s="13"/>
       <c r="C59" s="13"/>
@@ -22532,7 +22541,7 @@
       </c>
       <c r="J59" s="11"/>
     </row>
-    <row r="60" spans="1:10" ht="21" customHeight="1">
+    <row r="60" spans="1:10" ht="21" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A60" s="12"/>
       <c r="B60" s="13"/>
       <c r="C60" s="13"/>
@@ -22550,7 +22559,7 @@
       </c>
       <c r="J60" s="11"/>
     </row>
-    <row r="61" spans="1:10" s="18" customFormat="1" ht="21" customHeight="1">
+    <row r="61" spans="1:10" s="18" customFormat="1" ht="21" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A61" s="176" t="s">
         <v>40</v>
       </c>
@@ -22573,8 +22582,8 @@
       </c>
       <c r="J61" s="17"/>
     </row>
-    <row r="62" spans="1:10" ht="21" customHeight="1"/>
-    <row r="63" spans="1:10" ht="21" customHeight="1">
+    <row r="62" spans="1:10" ht="21" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="63" spans="1:10" ht="21" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B63" s="54" t="s">
         <v>41</v>
       </c>
@@ -22587,22 +22596,22 @@
         <v>43</v>
       </c>
     </row>
-    <row r="64" spans="1:10" ht="21" customHeight="1">
+    <row r="64" spans="1:10" ht="21" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B64" s="54" t="s">
         <v>42</v>
       </c>
-      <c r="C64" s="56" t="str">
-        <f>[1]!VND(E63, TRUE)</f>
-        <v>Bốn mươi sáu triệu, tám trăm ba mươi ba ngàn, bốn trăm đồng</v>
-      </c>
-    </row>
-    <row r="65" spans="1:8" ht="21" customHeight="1"/>
-    <row r="66" spans="1:8" ht="14.25" customHeight="1">
+      <c r="C64" s="56" t="e">
+        <f ca="1">[1]!VND(E63, TRUE)</f>
+        <v>#NAME?</v>
+      </c>
+    </row>
+    <row r="65" spans="1:8" ht="21" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="66" spans="1:8" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="H66" s="20" t="s">
         <v>62</v>
       </c>
     </row>
-    <row r="67" spans="1:8" ht="21" customHeight="1">
+    <row r="67" spans="1:8" ht="21" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A67" s="4" t="s">
         <v>45</v>
       </c>
@@ -22610,20 +22619,20 @@
         <v>44</v>
       </c>
     </row>
-    <row r="68" spans="1:8" ht="21" customHeight="1"/>
-    <row r="69" spans="1:8" ht="21" customHeight="1"/>
-    <row r="70" spans="1:8" ht="21" customHeight="1"/>
-    <row r="71" spans="1:8" ht="21" customHeight="1"/>
-    <row r="72" spans="1:8" ht="21" customHeight="1"/>
-    <row r="73" spans="1:8" ht="21" customHeight="1"/>
-    <row r="74" spans="1:8" ht="21" customHeight="1"/>
-    <row r="75" spans="1:8" ht="21" customHeight="1"/>
-    <row r="76" spans="1:8" ht="21" customHeight="1"/>
-    <row r="77" spans="1:8" ht="21" customHeight="1"/>
-    <row r="78" spans="1:8" ht="21" customHeight="1"/>
-    <row r="79" spans="1:8" ht="21" customHeight="1"/>
-    <row r="80" spans="1:8" ht="21" customHeight="1"/>
-    <row r="81" ht="21" customHeight="1"/>
+    <row r="68" spans="1:8" ht="21" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="69" spans="1:8" ht="21" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="70" spans="1:8" ht="21" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="71" spans="1:8" ht="21" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="72" spans="1:8" ht="21" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="73" spans="1:8" ht="21" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="74" spans="1:8" ht="21" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="75" spans="1:8" ht="21" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="76" spans="1:8" ht="21" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="77" spans="1:8" ht="21" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="78" spans="1:8" ht="21" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="79" spans="1:8" ht="21" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="80" spans="1:8" ht="21" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="81" ht="21" customHeight="1" x14ac:dyDescent="0.25"/>
   </sheetData>
   <autoFilter ref="A11:J61"/>
   <mergeCells count="8">
@@ -22644,7 +22653,7 @@
 </file>
 
 <file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr enableFormatConditionsCalculation="0">
     <tabColor indexed="31"/>
   </sheetPr>
@@ -22656,7 +22665,7 @@
       <selection pane="bottomLeft" activeCell="A7" sqref="A7"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15.75"/>
+  <sheetFormatPr defaultRowHeight="15.75" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" width="10.375" style="2" customWidth="1"/>
     <col min="2" max="2" width="13.125" style="1" customWidth="1"/>
@@ -22671,7 +22680,7 @@
     <col min="11" max="16384" width="9" style="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:10" s="47" customFormat="1" ht="18.75" customHeight="1">
+    <row r="1" spans="1:10" s="47" customFormat="1" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A1" s="174" t="s">
         <v>31</v>
       </c>
@@ -22681,7 +22690,7 @@
       <c r="F1" s="49"/>
       <c r="G1" s="49"/>
     </row>
-    <row r="2" spans="1:10" s="47" customFormat="1" ht="18.75" customHeight="1">
+    <row r="2" spans="1:10" s="47" customFormat="1" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A2" s="57" t="s">
         <v>32</v>
       </c>
@@ -22692,7 +22701,7 @@
       <c r="F2" s="49"/>
       <c r="G2" s="49"/>
     </row>
-    <row r="3" spans="1:10" s="47" customFormat="1" ht="18.75" customHeight="1">
+    <row r="3" spans="1:10" s="47" customFormat="1" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A3" s="175" t="s">
         <v>33</v>
       </c>
@@ -22705,12 +22714,12 @@
       <c r="F3" s="49"/>
       <c r="G3" s="49"/>
     </row>
-    <row r="4" spans="1:10" s="42" customFormat="1" ht="9" customHeight="1">
+    <row r="4" spans="1:10" s="42" customFormat="1" ht="9" customHeight="1" x14ac:dyDescent="0.3">
       <c r="E4" s="44"/>
       <c r="F4" s="44"/>
       <c r="G4" s="44"/>
     </row>
-    <row r="5" spans="1:10" s="45" customFormat="1" ht="28.5" customHeight="1">
+    <row r="5" spans="1:10" s="45" customFormat="1" ht="28.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A5" s="169" t="s">
         <v>34</v>
       </c>
@@ -22722,7 +22731,7 @@
       <c r="G5" s="169"/>
       <c r="H5" s="169"/>
     </row>
-    <row r="6" spans="1:10" ht="9" customHeight="1">
+    <row r="6" spans="1:10" ht="9" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A6" s="170"/>
       <c r="B6" s="170"/>
       <c r="C6" s="170"/>
@@ -22733,7 +22742,7 @@
       <c r="H6" s="170"/>
       <c r="I6" s="1"/>
     </row>
-    <row r="7" spans="1:10" s="63" customFormat="1" ht="18.75" customHeight="1">
+    <row r="7" spans="1:10" s="63" customFormat="1" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A7" s="62" t="s">
         <v>242</v>
       </c>
@@ -22745,7 +22754,7 @@
       <c r="H7" s="65"/>
       <c r="I7" s="65"/>
     </row>
-    <row r="8" spans="1:10" s="63" customFormat="1" ht="18.75" customHeight="1">
+    <row r="8" spans="1:10" s="63" customFormat="1" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A8" s="62" t="s">
         <v>243</v>
       </c>
@@ -22757,7 +22766,7 @@
       <c r="H8" s="65"/>
       <c r="I8" s="65"/>
     </row>
-    <row r="9" spans="1:10" s="63" customFormat="1" ht="18.75" customHeight="1">
+    <row r="9" spans="1:10" s="63" customFormat="1" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A9" s="62" t="s">
         <v>244</v>
       </c>
@@ -22771,8 +22780,8 @@
       <c r="H9" s="65"/>
       <c r="I9" s="65"/>
     </row>
-    <row r="10" spans="1:10" ht="8.25" customHeight="1"/>
-    <row r="11" spans="1:10" s="52" customFormat="1" ht="34.5" customHeight="1">
+    <row r="10" spans="1:10" ht="8.25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="11" spans="1:10" s="52" customFormat="1" ht="34.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A11" s="50" t="s">
         <v>0</v>
       </c>
@@ -22804,7 +22813,7 @@
         <v>39</v>
       </c>
     </row>
-    <row r="12" spans="1:10" s="159" customFormat="1" ht="19.5" customHeight="1">
+    <row r="12" spans="1:10" s="159" customFormat="1" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A12" s="155">
         <v>41136</v>
       </c>
@@ -22832,7 +22841,7 @@
       </c>
       <c r="J12" s="158"/>
     </row>
-    <row r="13" spans="1:10" s="159" customFormat="1" ht="19.5" customHeight="1">
+    <row r="13" spans="1:10" s="159" customFormat="1" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A13" s="12">
         <v>41270</v>
       </c>
@@ -22860,7 +22869,7 @@
       </c>
       <c r="J13" s="11"/>
     </row>
-    <row r="14" spans="1:10" s="159" customFormat="1" ht="19.5" customHeight="1">
+    <row r="14" spans="1:10" s="159" customFormat="1" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A14" s="12"/>
       <c r="B14" s="12" t="s">
         <v>249</v>
@@ -22886,7 +22895,7 @@
       </c>
       <c r="J14" s="12"/>
     </row>
-    <row r="15" spans="1:10" s="159" customFormat="1" ht="19.5" customHeight="1">
+    <row r="15" spans="1:10" s="159" customFormat="1" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A15" s="12">
         <v>41228</v>
       </c>
@@ -22910,7 +22919,7 @@
       </c>
       <c r="J15" s="12"/>
     </row>
-    <row r="16" spans="1:10" s="159" customFormat="1" ht="19.5" customHeight="1">
+    <row r="16" spans="1:10" s="159" customFormat="1" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A16" s="12">
         <v>41307</v>
       </c>
@@ -22938,7 +22947,7 @@
       </c>
       <c r="J16" s="11"/>
     </row>
-    <row r="17" spans="1:10" s="159" customFormat="1" ht="19.5" customHeight="1">
+    <row r="17" spans="1:10" s="159" customFormat="1" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A17" s="12">
         <v>41332</v>
       </c>
@@ -22966,7 +22975,7 @@
       </c>
       <c r="J17" s="11"/>
     </row>
-    <row r="18" spans="1:10" s="159" customFormat="1" ht="19.5" customHeight="1">
+    <row r="18" spans="1:10" s="159" customFormat="1" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A18" s="12"/>
       <c r="B18" s="12" t="s">
         <v>250</v>
@@ -22989,7 +22998,7 @@
       </c>
       <c r="J18" s="12"/>
     </row>
-    <row r="19" spans="1:10" s="159" customFormat="1" ht="19.5" customHeight="1">
+    <row r="19" spans="1:10" s="159" customFormat="1" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A19" s="182"/>
       <c r="B19" s="183"/>
       <c r="C19" s="183"/>
@@ -23001,7 +23010,7 @@
       <c r="I19" s="183"/>
       <c r="J19" s="184"/>
     </row>
-    <row r="20" spans="1:10" s="159" customFormat="1" ht="19.5" customHeight="1">
+    <row r="20" spans="1:10" s="159" customFormat="1" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A20" s="12">
         <v>41430</v>
       </c>
@@ -23034,7 +23043,7 @@
         <v>252</v>
       </c>
     </row>
-    <row r="21" spans="1:10" s="161" customFormat="1" ht="19.5" customHeight="1">
+    <row r="21" spans="1:10" s="161" customFormat="1" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A21" s="120">
         <v>41472</v>
       </c>
@@ -23059,7 +23068,7 @@
       </c>
       <c r="J21" s="120"/>
     </row>
-    <row r="22" spans="1:10" s="159" customFormat="1" ht="19.5" customHeight="1">
+    <row r="22" spans="1:10" s="159" customFormat="1" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A22" s="12">
         <v>41459</v>
       </c>
@@ -23092,7 +23101,7 @@
         <v>253</v>
       </c>
     </row>
-    <row r="23" spans="1:10" s="161" customFormat="1" ht="19.5" customHeight="1">
+    <row r="23" spans="1:10" s="161" customFormat="1" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A23" s="120">
         <v>41522</v>
       </c>
@@ -23117,7 +23126,7 @@
       </c>
       <c r="J23" s="120"/>
     </row>
-    <row r="24" spans="1:10" s="159" customFormat="1" ht="19.5" customHeight="1">
+    <row r="24" spans="1:10" s="159" customFormat="1" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A24" s="12">
         <v>41846</v>
       </c>
@@ -23150,7 +23159,7 @@
         <v>252</v>
       </c>
     </row>
-    <row r="25" spans="1:10" s="161" customFormat="1" ht="19.5" customHeight="1">
+    <row r="25" spans="1:10" s="161" customFormat="1" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A25" s="120">
         <v>41893</v>
       </c>
@@ -23175,7 +23184,7 @@
       </c>
       <c r="J25" s="120"/>
     </row>
-    <row r="26" spans="1:10" s="159" customFormat="1" ht="19.5" customHeight="1">
+    <row r="26" spans="1:10" s="159" customFormat="1" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A26" s="12"/>
       <c r="B26" s="13" t="s">
         <v>246</v>
@@ -23206,7 +23215,7 @@
         <v>253</v>
       </c>
     </row>
-    <row r="27" spans="1:10" s="161" customFormat="1" ht="19.5" customHeight="1">
+    <row r="27" spans="1:10" s="161" customFormat="1" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A27" s="120">
         <v>41929</v>
       </c>
@@ -23231,7 +23240,7 @@
       </c>
       <c r="J27" s="120"/>
     </row>
-    <row r="28" spans="1:10" s="159" customFormat="1" ht="18.75" customHeight="1">
+    <row r="28" spans="1:10" s="159" customFormat="1" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A28" s="12">
         <v>41963</v>
       </c>
@@ -23264,7 +23273,7 @@
         <v>254</v>
       </c>
     </row>
-    <row r="29" spans="1:10" s="161" customFormat="1" ht="19.5" customHeight="1">
+    <row r="29" spans="1:10" s="161" customFormat="1" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A29" s="120">
         <v>41997</v>
       </c>
@@ -23289,7 +23298,7 @@
       </c>
       <c r="J29" s="120"/>
     </row>
-    <row r="30" spans="1:10" s="159" customFormat="1" ht="18.75" customHeight="1">
+    <row r="30" spans="1:10" s="159" customFormat="1" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A30" s="12">
         <v>42039</v>
       </c>
@@ -23317,7 +23326,7 @@
       </c>
       <c r="J30" s="11"/>
     </row>
-    <row r="31" spans="1:10" s="159" customFormat="1" ht="18.75" customHeight="1">
+    <row r="31" spans="1:10" s="159" customFormat="1" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A31" s="12"/>
       <c r="B31" s="13" t="s">
         <v>256</v>
@@ -23346,7 +23355,7 @@
       </c>
       <c r="J31" s="11"/>
     </row>
-    <row r="32" spans="1:10" s="161" customFormat="1" ht="18.75" customHeight="1">
+    <row r="32" spans="1:10" s="161" customFormat="1" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A32" s="120">
         <v>42049</v>
       </c>
@@ -23371,7 +23380,7 @@
       </c>
       <c r="J32" s="32"/>
     </row>
-    <row r="33" spans="1:10" s="159" customFormat="1" ht="18.75" customHeight="1">
+    <row r="33" spans="1:10" s="159" customFormat="1" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A33" s="12">
         <v>42094</v>
       </c>
@@ -23397,7 +23406,7 @@
       </c>
       <c r="J33" s="11"/>
     </row>
-    <row r="34" spans="1:10" s="161" customFormat="1" ht="18.75" customHeight="1">
+    <row r="34" spans="1:10" s="161" customFormat="1" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A34" s="120">
         <v>42130</v>
       </c>
@@ -23422,7 +23431,7 @@
       </c>
       <c r="J34" s="32"/>
     </row>
-    <row r="35" spans="1:10" s="159" customFormat="1" ht="18.75" customHeight="1">
+    <row r="35" spans="1:10" s="159" customFormat="1" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A35" s="12"/>
       <c r="B35" s="13"/>
       <c r="C35" s="13"/>
@@ -23440,7 +23449,7 @@
       </c>
       <c r="J35" s="11"/>
     </row>
-    <row r="36" spans="1:10" s="159" customFormat="1" ht="18.75" customHeight="1">
+    <row r="36" spans="1:10" s="159" customFormat="1" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A36" s="12"/>
       <c r="B36" s="13"/>
       <c r="C36" s="13"/>
@@ -23458,7 +23467,7 @@
       </c>
       <c r="J36" s="11"/>
     </row>
-    <row r="37" spans="1:10" s="159" customFormat="1" ht="18.75" customHeight="1">
+    <row r="37" spans="1:10" s="159" customFormat="1" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A37" s="12"/>
       <c r="B37" s="13"/>
       <c r="C37" s="13"/>
@@ -23476,7 +23485,7 @@
       </c>
       <c r="J37" s="11"/>
     </row>
-    <row r="38" spans="1:10" s="159" customFormat="1" ht="18.75" customHeight="1">
+    <row r="38" spans="1:10" s="159" customFormat="1" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A38" s="12"/>
       <c r="B38" s="13"/>
       <c r="C38" s="13"/>
@@ -23494,7 +23503,7 @@
       </c>
       <c r="J38" s="11"/>
     </row>
-    <row r="39" spans="1:10" s="159" customFormat="1" ht="18.75" customHeight="1">
+    <row r="39" spans="1:10" s="159" customFormat="1" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A39" s="12"/>
       <c r="B39" s="13"/>
       <c r="C39" s="13"/>
@@ -23512,7 +23521,7 @@
       </c>
       <c r="J39" s="11"/>
     </row>
-    <row r="40" spans="1:10" s="18" customFormat="1" ht="21" customHeight="1">
+    <row r="40" spans="1:10" s="18" customFormat="1" ht="21" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A40" s="176" t="s">
         <v>40</v>
       </c>
@@ -23535,8 +23544,8 @@
       </c>
       <c r="J40" s="17"/>
     </row>
-    <row r="41" spans="1:10" ht="21" customHeight="1"/>
-    <row r="42" spans="1:10" ht="21" customHeight="1">
+    <row r="41" spans="1:10" ht="21" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="42" spans="1:10" ht="21" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B42" s="54" t="s">
         <v>41</v>
       </c>
@@ -23549,17 +23558,17 @@
         <v>43</v>
       </c>
     </row>
-    <row r="43" spans="1:10" ht="21" customHeight="1">
+    <row r="43" spans="1:10" ht="21" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B43" s="54" t="s">
         <v>42</v>
       </c>
-      <c r="C43" s="56" t="str">
-        <f>[1]!VND(E42, TRUE)</f>
-        <v>Không đồng</v>
-      </c>
-    </row>
-    <row r="44" spans="1:10" ht="21" customHeight="1"/>
-    <row r="45" spans="1:10" ht="21" customHeight="1">
+      <c r="C43" s="56" t="e">
+        <f ca="1">[1]!VND(E42, TRUE)</f>
+        <v>#NAME?</v>
+      </c>
+    </row>
+    <row r="44" spans="1:10" ht="21" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="45" spans="1:10" ht="21" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A45" s="4" t="s">
         <v>255</v>
       </c>
@@ -23567,8 +23576,8 @@
         <v>44</v>
       </c>
     </row>
-    <row r="46" spans="1:10" ht="21" customHeight="1"/>
-    <row r="47" spans="1:10" ht="18.75" customHeight="1">
+    <row r="46" spans="1:10" ht="21" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="47" spans="1:10" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A47" s="19"/>
       <c r="B47" s="3"/>
       <c r="D47" s="20"/>
@@ -23578,7 +23587,7 @@
       <c r="H47" s="20"/>
       <c r="I47" s="20"/>
     </row>
-    <row r="48" spans="1:10" ht="18.75" customHeight="1">
+    <row r="48" spans="1:10" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A48" s="19"/>
       <c r="B48" s="3"/>
       <c r="D48" s="20"/>
@@ -23588,7 +23597,7 @@
       <c r="H48" s="20"/>
       <c r="I48" s="20"/>
     </row>
-    <row r="49" spans="1:9" ht="18.75" customHeight="1">
+    <row r="49" spans="1:9" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A49" s="19"/>
       <c r="B49" s="3"/>
       <c r="D49" s="20"/>
@@ -23598,7 +23607,7 @@
       <c r="H49" s="20"/>
       <c r="I49" s="20"/>
     </row>
-    <row r="50" spans="1:9" ht="18.75" customHeight="1">
+    <row r="50" spans="1:9" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A50" s="19"/>
       <c r="B50" s="3"/>
       <c r="D50" s="20"/>
@@ -23608,7 +23617,7 @@
       <c r="H50" s="20"/>
       <c r="I50" s="20"/>
     </row>
-    <row r="51" spans="1:9" ht="18.75" customHeight="1">
+    <row r="51" spans="1:9" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A51" s="19"/>
       <c r="B51" s="3"/>
       <c r="D51" s="20"/>
@@ -23618,7 +23627,7 @@
       <c r="H51" s="20"/>
       <c r="I51" s="20"/>
     </row>
-    <row r="52" spans="1:9" ht="18.75" customHeight="1">
+    <row r="52" spans="1:9" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A52" s="19"/>
       <c r="B52" s="3"/>
       <c r="D52" s="20"/>
@@ -23628,7 +23637,7 @@
       <c r="H52" s="20"/>
       <c r="I52" s="20"/>
     </row>
-    <row r="53" spans="1:9" ht="18.75" customHeight="1">
+    <row r="53" spans="1:9" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A53" s="19"/>
       <c r="B53" s="3"/>
       <c r="D53" s="20"/>
@@ -23638,7 +23647,7 @@
       <c r="H53" s="20"/>
       <c r="I53" s="20"/>
     </row>
-    <row r="54" spans="1:9" ht="18.75" customHeight="1">
+    <row r="54" spans="1:9" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A54" s="19"/>
       <c r="B54" s="3"/>
       <c r="D54" s="20"/>
@@ -23648,7 +23657,7 @@
       <c r="H54" s="20"/>
       <c r="I54" s="20"/>
     </row>
-    <row r="55" spans="1:9" ht="18.75" customHeight="1">
+    <row r="55" spans="1:9" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A55" s="19"/>
       <c r="B55" s="3"/>
       <c r="D55" s="20"/>
@@ -23658,7 +23667,7 @@
       <c r="H55" s="20"/>
       <c r="I55" s="20"/>
     </row>
-    <row r="56" spans="1:9" ht="18.75" customHeight="1">
+    <row r="56" spans="1:9" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A56" s="19"/>
       <c r="B56" s="3"/>
       <c r="D56" s="20"/>
@@ -23668,7 +23677,7 @@
       <c r="H56" s="20"/>
       <c r="I56" s="20"/>
     </row>
-    <row r="57" spans="1:9" ht="18.75" customHeight="1">
+    <row r="57" spans="1:9" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A57" s="19"/>
       <c r="B57" s="3"/>
       <c r="D57" s="20"/>
@@ -23678,7 +23687,7 @@
       <c r="H57" s="20"/>
       <c r="I57" s="20"/>
     </row>
-    <row r="58" spans="1:9" ht="18.75" customHeight="1">
+    <row r="58" spans="1:9" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A58" s="19"/>
       <c r="B58" s="3"/>
       <c r="D58" s="20"/>
@@ -23688,7 +23697,7 @@
       <c r="H58" s="20"/>
       <c r="I58" s="20"/>
     </row>
-    <row r="59" spans="1:9" ht="18.75" customHeight="1">
+    <row r="59" spans="1:9" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A59" s="19"/>
       <c r="B59" s="3"/>
       <c r="D59" s="20"/>
@@ -23698,7 +23707,7 @@
       <c r="H59" s="20"/>
       <c r="I59" s="20"/>
     </row>
-    <row r="60" spans="1:9" ht="18.75" customHeight="1">
+    <row r="60" spans="1:9" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A60" s="19"/>
       <c r="B60" s="3"/>
       <c r="D60" s="20"/>
@@ -23708,14 +23717,14 @@
       <c r="H60" s="20"/>
       <c r="I60" s="20"/>
     </row>
-    <row r="61" spans="1:9" ht="18.75" customHeight="1"/>
-    <row r="62" spans="1:9" ht="18.75" customHeight="1"/>
-    <row r="63" spans="1:9" ht="18.75" customHeight="1"/>
-    <row r="64" spans="1:9" ht="18.75" customHeight="1"/>
-    <row r="65" ht="18.75" customHeight="1"/>
-    <row r="66" ht="18.75" customHeight="1"/>
-    <row r="67" ht="18.75" customHeight="1"/>
-    <row r="68" ht="18.75" customHeight="1"/>
+    <row r="61" spans="1:9" ht="18.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="62" spans="1:9" ht="18.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="63" spans="1:9" ht="18.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="64" spans="1:9" ht="18.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="65" ht="18.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="66" ht="18.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="67" ht="18.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="68" ht="18.75" customHeight="1" x14ac:dyDescent="0.25"/>
   </sheetData>
   <mergeCells count="7">
     <mergeCell ref="A40:F40"/>

--- a/SO SACH - LA/CONG NO/CONG NO 2015/cong no VL 15.xlsx
+++ b/SO SACH - LA/CONG NO/CONG NO 2015/cong no VL 15.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="5" lowestEdited="4" rupBuild="9302"/>
   <workbookPr defaultThemeVersion="124226"/>
   <bookViews>
-    <workbookView xWindow="240" yWindow="90" windowWidth="14880" windowHeight="8190" tabRatio="942" activeTab="1"/>
+    <workbookView xWindow="240" yWindow="90" windowWidth="14880" windowHeight="8190" tabRatio="942" activeTab="2"/>
   </bookViews>
   <sheets>
     <sheet name="T.KẾT" sheetId="7" r:id="rId1"/>
@@ -30,7 +30,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1538" uniqueCount="283">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1544" uniqueCount="283">
   <si>
     <t>Ngày nhập</t>
   </si>
@@ -2503,7 +2503,7 @@
       </c>
       <c r="C8" s="164">
         <f>'MÈ ĐƯỞNG'!$I$262</f>
-        <v>108149533</v>
+        <v>210799533</v>
       </c>
       <c r="D8" s="100"/>
     </row>
@@ -2576,7 +2576,7 @@
       <c r="B15" s="167"/>
       <c r="C15" s="166">
         <f>SUM(C4:C14)</f>
-        <v>286854673</v>
+        <v>389504673</v>
       </c>
     </row>
     <row r="16" spans="1:4" ht="21.75" customHeight="1" x14ac:dyDescent="0.25"/>
@@ -2765,7 +2765,7 @@
   </sheetPr>
   <dimension ref="A1:K74"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A32" zoomScale="95" workbookViewId="0">
+    <sheetView topLeftCell="A32" zoomScale="95" workbookViewId="0">
       <selection activeCell="B47" sqref="B47"/>
     </sheetView>
   </sheetViews>
@@ -4141,8 +4141,8 @@
   </sheetPr>
   <dimension ref="A1:K226"/>
   <sheetViews>
-    <sheetView topLeftCell="A5" zoomScale="83" workbookViewId="0">
-      <pane ySplit="7" topLeftCell="A170" activePane="bottomLeft" state="frozen"/>
+    <sheetView tabSelected="1" topLeftCell="A5" zoomScale="83" workbookViewId="0">
+      <pane ySplit="7" topLeftCell="A167" activePane="bottomLeft" state="frozen"/>
       <selection activeCell="A5" sqref="A5"/>
       <selection pane="bottomLeft" activeCell="D190" sqref="D190"/>
     </sheetView>
@@ -14515,9 +14515,9 @@
   <dimension ref="A1:J282"/>
   <sheetViews>
     <sheetView topLeftCell="A5" zoomScale="95" workbookViewId="0">
-      <pane ySplit="7" topLeftCell="A235" activePane="bottomLeft" state="frozen"/>
+      <pane ySplit="7" topLeftCell="A244" activePane="bottomLeft" state="frozen"/>
       <selection activeCell="A5" sqref="A5"/>
-      <selection pane="bottomLeft" activeCell="H249" sqref="H249"/>
+      <selection pane="bottomLeft" activeCell="G250" sqref="G250:G254"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15.75" x14ac:dyDescent="0.25"/>
@@ -20850,110 +20850,150 @@
       <c r="J248" s="11"/>
     </row>
     <row r="249" spans="1:10" ht="21" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A249" s="12"/>
-      <c r="B249" s="13"/>
+      <c r="A249" s="12">
+        <v>42361</v>
+      </c>
+      <c r="B249" s="13" t="s">
+        <v>152</v>
+      </c>
       <c r="C249" s="13"/>
-      <c r="D249" s="11"/>
-      <c r="E249" s="11"/>
+      <c r="D249" s="11">
+        <v>100</v>
+      </c>
+      <c r="E249" s="11">
+        <v>75000</v>
+      </c>
       <c r="F249" s="113"/>
       <c r="G249" s="11">
         <f t="shared" si="27"/>
-        <v>0</v>
+        <v>7500000</v>
       </c>
       <c r="H249" s="11"/>
       <c r="I249" s="11">
         <f t="shared" si="28"/>
-        <v>0</v>
+        <v>115649533</v>
       </c>
       <c r="J249" s="11"/>
     </row>
     <row r="250" spans="1:10" ht="21" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A250" s="12"/>
-      <c r="B250" s="13"/>
+      <c r="A250" s="12">
+        <v>42378</v>
+      </c>
+      <c r="B250" s="13" t="s">
+        <v>152</v>
+      </c>
       <c r="C250" s="13"/>
-      <c r="D250" s="11"/>
-      <c r="E250" s="11"/>
+      <c r="D250" s="11">
+        <v>500</v>
+      </c>
+      <c r="E250" s="11">
+        <v>75000</v>
+      </c>
       <c r="F250" s="113"/>
       <c r="G250" s="11">
         <f t="shared" si="27"/>
-        <v>0</v>
+        <v>37500000</v>
       </c>
       <c r="H250" s="11"/>
       <c r="I250" s="11">
         <f t="shared" si="28"/>
-        <v>0</v>
+        <v>153149533</v>
       </c>
       <c r="J250" s="11"/>
     </row>
     <row r="251" spans="1:10" ht="21" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A251" s="12"/>
-      <c r="B251" s="13"/>
+      <c r="B251" s="13" t="s">
+        <v>153</v>
+      </c>
       <c r="C251" s="13"/>
-      <c r="D251" s="11"/>
-      <c r="E251" s="11"/>
+      <c r="D251" s="11">
+        <v>10</v>
+      </c>
+      <c r="E251" s="11">
+        <v>1050000</v>
+      </c>
       <c r="F251" s="113"/>
       <c r="G251" s="11">
         <f t="shared" si="27"/>
-        <v>0</v>
+        <v>10500000</v>
       </c>
       <c r="H251" s="11"/>
       <c r="I251" s="11">
         <f t="shared" si="28"/>
-        <v>0</v>
+        <v>163649533</v>
       </c>
       <c r="J251" s="11"/>
     </row>
     <row r="252" spans="1:10" ht="21" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A252" s="12"/>
-      <c r="B252" s="13"/>
+      <c r="B252" s="13" t="s">
+        <v>152</v>
+      </c>
       <c r="C252" s="13"/>
-      <c r="D252" s="11"/>
-      <c r="E252" s="11"/>
+      <c r="D252" s="11">
+        <v>500</v>
+      </c>
+      <c r="E252" s="11">
+        <v>75000</v>
+      </c>
       <c r="F252" s="113"/>
       <c r="G252" s="11">
         <f t="shared" si="27"/>
-        <v>0</v>
+        <v>37500000</v>
       </c>
       <c r="H252" s="11"/>
       <c r="I252" s="11">
         <f t="shared" si="28"/>
-        <v>0</v>
+        <v>201149533</v>
       </c>
       <c r="J252" s="11"/>
     </row>
     <row r="253" spans="1:10" ht="21" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A253" s="12"/>
-      <c r="B253" s="13"/>
+      <c r="B253" s="13" t="s">
+        <v>95</v>
+      </c>
       <c r="C253" s="13"/>
-      <c r="D253" s="11"/>
-      <c r="E253" s="11"/>
+      <c r="D253" s="11">
+        <v>500</v>
+      </c>
+      <c r="E253" s="11">
+        <v>16800</v>
+      </c>
       <c r="F253" s="113"/>
       <c r="G253" s="11">
         <f t="shared" si="27"/>
-        <v>0</v>
+        <v>8400000</v>
       </c>
       <c r="H253" s="11"/>
       <c r="I253" s="11">
         <f t="shared" si="28"/>
-        <v>0</v>
+        <v>209549533</v>
       </c>
       <c r="J253" s="11"/>
     </row>
     <row r="254" spans="1:10" ht="21" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A254" s="12"/>
-      <c r="B254" s="13"/>
+      <c r="B254" s="13" t="s">
+        <v>170</v>
+      </c>
       <c r="C254" s="13"/>
-      <c r="D254" s="11"/>
-      <c r="E254" s="11"/>
+      <c r="D254" s="11">
+        <v>25</v>
+      </c>
+      <c r="E254" s="11">
+        <v>50000</v>
+      </c>
       <c r="F254" s="113"/>
       <c r="G254" s="11">
         <f t="shared" si="27"/>
-        <v>0</v>
+        <v>1250000</v>
       </c>
       <c r="H254" s="11"/>
       <c r="I254" s="11">
         <f t="shared" si="28"/>
-        <v>0</v>
+        <v>210799533</v>
       </c>
       <c r="J254" s="11"/>
     </row>
@@ -21094,7 +21134,7 @@
       <c r="F262" s="176"/>
       <c r="G262" s="53">
         <f>SUM(G13:G261)</f>
-        <v>2510159533</v>
+        <v>2612809533</v>
       </c>
       <c r="H262" s="53">
         <f>SUM(H13:H261)</f>
@@ -21102,7 +21142,7 @@
       </c>
       <c r="I262" s="17">
         <f>I12+G262-H262</f>
-        <v>108149533</v>
+        <v>210799533</v>
       </c>
       <c r="J262" s="17"/>
     </row>
@@ -21113,7 +21153,7 @@
       </c>
       <c r="E264" s="168">
         <f>I262</f>
-        <v>108149533</v>
+        <v>210799533</v>
       </c>
       <c r="F264" s="168"/>
       <c r="G264" s="55" t="s">
